--- a/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/25/Output_11_40.xlsx
+++ b/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/25/Output_11_40.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3146940.748181132</v>
+        <v>3146358.575869939</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>632041.4518058544</v>
+        <v>632041.4518058541</v>
       </c>
     </row>
     <row r="9">
@@ -1367,28 +1367,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>173.0513614044974</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>149.1696184078429</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>59.57095589132928</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>185.0425080291151</v>
       </c>
       <c r="H11" t="n">
-        <v>146.1700360908017</v>
+        <v>146.1700360908015</v>
       </c>
       <c r="I11" t="n">
-        <v>40.66849008630169</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1421,22 +1421,22 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>21.50887178172125</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>49.11610387817578</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>119.8439046358159</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>136.8605848524308</v>
       </c>
       <c r="X11" t="n">
-        <v>27.80377072483284</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>181.2496884451139</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -1446,7 +1446,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>176.7504943976657</v>
+        <v>0</v>
       </c>
       <c r="C12" t="n">
         <v>0</v>
@@ -1458,10 +1458,10 @@
         <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>158.8234391199283</v>
+        <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>135.079184343399</v>
+        <v>0</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
@@ -1470,7 +1470,7 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>53.38593305174645</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -1491,7 +1491,7 @@
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>8.099985407837632</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -1500,22 +1500,22 @@
         <v>0</v>
       </c>
       <c r="T12" t="n">
-        <v>13.97390034413375</v>
+        <v>13.97390034413358</v>
       </c>
       <c r="U12" t="n">
-        <v>36.19282472995059</v>
+        <v>185.0425080291151</v>
       </c>
       <c r="V12" t="n">
-        <v>39.6130419420663</v>
+        <v>185.0425080291151</v>
       </c>
       <c r="W12" t="n">
-        <v>65.66870460367565</v>
+        <v>185.0425080291151</v>
       </c>
       <c r="X12" t="n">
-        <v>16.27703546613466</v>
+        <v>118.5631481593838</v>
       </c>
       <c r="Y12" t="n">
-        <v>22.34840716068967</v>
+        <v>22.3484071606895</v>
       </c>
     </row>
     <row r="13">
@@ -1573,28 +1573,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>2.757469278994834</v>
+        <v>2.757469278994663</v>
       </c>
       <c r="S13" t="n">
-        <v>34.54300911794925</v>
+        <v>34.54300911794908</v>
       </c>
       <c r="T13" t="n">
-        <v>22.76021080239092</v>
+        <v>22.76021080239074</v>
       </c>
       <c r="U13" t="n">
-        <v>87.62111882066036</v>
+        <v>87.62111882066019</v>
       </c>
       <c r="V13" t="n">
-        <v>44.07313621111396</v>
+        <v>44.07313621111379</v>
       </c>
       <c r="W13" t="n">
-        <v>89.27482811599938</v>
+        <v>89.27482811599921</v>
       </c>
       <c r="X13" t="n">
-        <v>20.88357643490659</v>
+        <v>20.88357643490642</v>
       </c>
       <c r="Y13" t="n">
-        <v>16.10539384083248</v>
+        <v>16.10539384083231</v>
       </c>
     </row>
     <row r="14">
@@ -1604,13 +1604,13 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>173.0513614044973</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>149.1696184078429</v>
       </c>
       <c r="D14" t="n">
-        <v>136.7362806688913</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
@@ -1619,7 +1619,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>91.20903113047919</v>
+        <v>185.0425080291151</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -1658,7 +1658,7 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>21.50887178172137</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
@@ -1670,10 +1670,10 @@
         <v>136.8605848524309</v>
       </c>
       <c r="X14" t="n">
-        <v>158.7468353213701</v>
+        <v>158.7468353213702</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>88.29341854863094</v>
       </c>
     </row>
     <row r="15">
@@ -1683,25 +1683,25 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0</v>
+        <v>176.7504943976657</v>
       </c>
       <c r="C15" t="n">
-        <v>0</v>
+        <v>185.0425080291151</v>
       </c>
       <c r="D15" t="n">
-        <v>159.1723150765785</v>
+        <v>0</v>
       </c>
       <c r="E15" t="n">
         <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>53.9956017220571</v>
+        <v>0</v>
       </c>
       <c r="G15" t="n">
         <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>125.8286260849892</v>
+        <v>0</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -1728,31 +1728,31 @@
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>8.099985407837632</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>185.0425080291152</v>
+        <v>0</v>
       </c>
       <c r="T15" t="n">
-        <v>13.97390034413369</v>
+        <v>13.97390034413375</v>
       </c>
       <c r="U15" t="n">
-        <v>36.19282472995054</v>
+        <v>36.19282472995059</v>
       </c>
       <c r="V15" t="n">
-        <v>39.61304194206625</v>
+        <v>185.0425080291151</v>
       </c>
       <c r="W15" t="n">
-        <v>65.66870460367559</v>
+        <v>65.66870460367565</v>
       </c>
       <c r="X15" t="n">
-        <v>16.27703546613461</v>
+        <v>24.99363245720659</v>
       </c>
       <c r="Y15" t="n">
-        <v>22.34840716068962</v>
+        <v>22.34840716068967</v>
       </c>
     </row>
     <row r="16">
@@ -1810,28 +1810,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>2.757469278994777</v>
+        <v>2.757469278994834</v>
       </c>
       <c r="S16" t="n">
-        <v>34.5430091179492</v>
+        <v>34.54300911794925</v>
       </c>
       <c r="T16" t="n">
-        <v>22.76021080239086</v>
+        <v>22.76021080239092</v>
       </c>
       <c r="U16" t="n">
-        <v>87.6211188206603</v>
+        <v>87.62111882066036</v>
       </c>
       <c r="V16" t="n">
-        <v>44.0731362111139</v>
+        <v>44.07313621111396</v>
       </c>
       <c r="W16" t="n">
-        <v>89.27482811599933</v>
+        <v>89.27482811599938</v>
       </c>
       <c r="X16" t="n">
-        <v>20.88357643490653</v>
+        <v>20.88357643490659</v>
       </c>
       <c r="Y16" t="n">
-        <v>16.10539384083242</v>
+        <v>16.10539384083248</v>
       </c>
     </row>
     <row r="17">
@@ -1844,7 +1844,7 @@
         <v>75.40208327745722</v>
       </c>
       <c r="C17" t="n">
-        <v>51.52034028080271</v>
+        <v>51.52034028080284</v>
       </c>
       <c r="D17" t="n">
         <v>39.08700254185118</v>
@@ -1853,7 +1853,7 @@
         <v>72.79375496126005</v>
       </c>
       <c r="F17" t="n">
-        <v>104.5140925396381</v>
+        <v>104.5140925396374</v>
       </c>
       <c r="G17" t="n">
         <v>120.1710328480493</v>
@@ -1920,13 +1920,13 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>176.7504943976657</v>
+        <v>19.56713315719622</v>
       </c>
       <c r="C18" t="n">
-        <v>185.0425080291152</v>
+        <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>159.1723150765785</v>
+        <v>0</v>
       </c>
       <c r="E18" t="n">
         <v>0</v>
@@ -1938,7 +1938,7 @@
         <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>61.82932514901994</v>
+        <v>0</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
@@ -1965,7 +1965,7 @@
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>8.099985407837632</v>
       </c>
       <c r="R18" t="n">
         <v>135.3183225070108</v>
@@ -1977,19 +1977,19 @@
         <v>0</v>
       </c>
       <c r="U18" t="n">
-        <v>0</v>
+        <v>185.0425080291151</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
       </c>
       <c r="W18" t="n">
-        <v>0</v>
+        <v>185.0425080291151</v>
       </c>
       <c r="X18" t="n">
         <v>0</v>
       </c>
       <c r="Y18" t="n">
-        <v>0</v>
+        <v>185.0425080291151</v>
       </c>
     </row>
     <row r="19">
@@ -2096,7 +2096,7 @@
         <v>120.1710328480493</v>
       </c>
       <c r="H20" t="n">
-        <v>48.52075796376224</v>
+        <v>48.52075796376153</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2157,10 +2157,10 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>176.7504943976657</v>
+        <v>0</v>
       </c>
       <c r="C21" t="n">
-        <v>0</v>
+        <v>185.0425080291151</v>
       </c>
       <c r="D21" t="n">
         <v>0</v>
@@ -2169,16 +2169,16 @@
         <v>0</v>
       </c>
       <c r="F21" t="n">
-        <v>158.8234391199283</v>
+        <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>148.7542444118752</v>
+        <v>0</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>107.6953116922337</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2202,7 +2202,7 @@
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>8.099985407837632</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -2211,16 +2211,16 @@
         <v>0</v>
       </c>
       <c r="T21" t="n">
-        <v>0</v>
+        <v>185.0425080291151</v>
       </c>
       <c r="U21" t="n">
-        <v>0</v>
+        <v>185.0425080291151</v>
       </c>
       <c r="V21" t="n">
-        <v>117.9894901298495</v>
+        <v>0</v>
       </c>
       <c r="W21" t="n">
-        <v>0</v>
+        <v>162.9854410720446</v>
       </c>
       <c r="X21" t="n">
         <v>0</v>
@@ -2439,31 +2439,31 @@
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>8.099985407837632</v>
       </c>
       <c r="R24" t="n">
-        <v>135.3183225070108</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>0</v>
+        <v>185.0425080291152</v>
       </c>
       <c r="T24" t="n">
         <v>0</v>
       </c>
       <c r="U24" t="n">
-        <v>185.0425080291152</v>
+        <v>0</v>
       </c>
       <c r="V24" t="n">
-        <v>0</v>
+        <v>154.8854556642069</v>
       </c>
       <c r="W24" t="n">
         <v>185.0425080291152</v>
       </c>
       <c r="X24" t="n">
-        <v>27.66711856503371</v>
+        <v>185.0425080291152</v>
       </c>
       <c r="Y24" t="n">
-        <v>185.0425080291152</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
@@ -2552,28 +2552,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>159.6494688206904</v>
+        <v>159.6494688206906</v>
       </c>
       <c r="C26" t="n">
-        <v>135.7677258240359</v>
+        <v>135.7677258240361</v>
       </c>
       <c r="D26" t="n">
-        <v>123.3343880850844</v>
+        <v>123.3343880850846</v>
       </c>
       <c r="E26" t="n">
-        <v>157.0411405044933</v>
+        <v>157.0411405044935</v>
       </c>
       <c r="F26" t="n">
-        <v>188.7614780828706</v>
+        <v>188.7614780828708</v>
       </c>
       <c r="G26" t="n">
-        <v>204.4184183912825</v>
+        <v>204.4184183912827</v>
       </c>
       <c r="H26" t="n">
-        <v>132.7681435069947</v>
+        <v>132.7681435069949</v>
       </c>
       <c r="I26" t="n">
-        <v>27.26659750249473</v>
+        <v>27.26659750249493</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2603,25 +2603,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>13.48978506469501</v>
+        <v>13.4897850646952</v>
       </c>
       <c r="T26" t="n">
-        <v>8.106979197914484</v>
+        <v>8.106979197914669</v>
       </c>
       <c r="U26" t="n">
-        <v>35.71421129436899</v>
+        <v>35.71421129436919</v>
       </c>
       <c r="V26" t="n">
-        <v>106.4420120520091</v>
+        <v>106.4420120520093</v>
       </c>
       <c r="W26" t="n">
-        <v>123.458692268624</v>
+        <v>123.4586922686242</v>
       </c>
       <c r="X26" t="n">
-        <v>145.3449427375632</v>
+        <v>145.3449427375634</v>
       </c>
       <c r="Y26" t="n">
-        <v>167.847795861307</v>
+        <v>167.8477958613072</v>
       </c>
     </row>
     <row r="27">
@@ -2637,10 +2637,10 @@
         <v>0</v>
       </c>
       <c r="D27" t="n">
-        <v>124.5731336785926</v>
+        <v>0</v>
       </c>
       <c r="E27" t="n">
-        <v>171.8275718397997</v>
+        <v>0</v>
       </c>
       <c r="F27" t="n">
         <v>0</v>
@@ -2676,31 +2676,31 @@
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>8.099985407837632</v>
       </c>
       <c r="R27" t="n">
         <v>135.3183225070108</v>
       </c>
       <c r="S27" t="n">
-        <v>191.7698489263512</v>
+        <v>0</v>
       </c>
       <c r="T27" t="n">
-        <v>0.5720077603267939</v>
+        <v>0.5720077603269929</v>
       </c>
       <c r="U27" t="n">
-        <v>22.79093214614364</v>
+        <v>73.98595806876307</v>
       </c>
       <c r="V27" t="n">
-        <v>26.21114935825935</v>
+        <v>26.21114935825955</v>
       </c>
       <c r="W27" t="n">
-        <v>52.26681201986869</v>
+        <v>266.7045835770116</v>
       </c>
       <c r="X27" t="n">
-        <v>2.875142882327708</v>
+        <v>217.3129144394706</v>
       </c>
       <c r="Y27" t="n">
-        <v>8.94651457688272</v>
+        <v>8.946514576882919</v>
       </c>
     </row>
     <row r="28">
@@ -2761,25 +2761,25 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>21.1411165341423</v>
+        <v>21.14111653414249</v>
       </c>
       <c r="T28" t="n">
-        <v>9.35831821858396</v>
+        <v>9.358318218584159</v>
       </c>
       <c r="U28" t="n">
-        <v>74.2192262368534</v>
+        <v>74.2192262368536</v>
       </c>
       <c r="V28" t="n">
-        <v>30.67124362730701</v>
+        <v>30.67124362730721</v>
       </c>
       <c r="W28" t="n">
-        <v>75.87293553219243</v>
+        <v>75.87293553219263</v>
       </c>
       <c r="X28" t="n">
-        <v>7.481683851099632</v>
+        <v>7.481683851099831</v>
       </c>
       <c r="Y28" t="n">
-        <v>2.703501257025522</v>
+        <v>2.703501257025721</v>
       </c>
     </row>
     <row r="29">
@@ -2792,7 +2792,7 @@
         <v>159.6494688206905</v>
       </c>
       <c r="C29" t="n">
-        <v>135.767725824036</v>
+        <v>135.7677258240359</v>
       </c>
       <c r="D29" t="n">
         <v>123.3343880850844</v>
@@ -2810,7 +2810,7 @@
         <v>132.7681435069948</v>
       </c>
       <c r="I29" t="n">
-        <v>27.26659750249479</v>
+        <v>27.26659750249476</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2840,16 +2840,16 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>13.48978506469506</v>
+        <v>13.48978506469503</v>
       </c>
       <c r="T29" t="n">
-        <v>8.106979197914526</v>
+        <v>8.106979197914498</v>
       </c>
       <c r="U29" t="n">
-        <v>35.71421129436905</v>
+        <v>35.71421129436902</v>
       </c>
       <c r="V29" t="n">
-        <v>106.4420120520092</v>
+        <v>106.4420120520091</v>
       </c>
       <c r="W29" t="n">
         <v>123.458692268624</v>
@@ -2871,7 +2871,7 @@
         <v>0</v>
       </c>
       <c r="C30" t="n">
-        <v>187.5181515243659</v>
+        <v>0</v>
       </c>
       <c r="D30" t="n">
         <v>0</v>
@@ -2880,7 +2880,7 @@
         <v>0</v>
       </c>
       <c r="F30" t="n">
-        <v>7.095182313102288</v>
+        <v>0</v>
       </c>
       <c r="G30" t="n">
         <v>0</v>
@@ -2916,28 +2916,28 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>135.3183225070108</v>
       </c>
       <c r="S30" t="n">
-        <v>0</v>
+        <v>191.7698489263512</v>
       </c>
       <c r="T30" t="n">
-        <v>215.0097793174697</v>
+        <v>82.53494172157598</v>
       </c>
       <c r="U30" t="n">
-        <v>22.79093214614369</v>
+        <v>237.2287037032865</v>
       </c>
       <c r="V30" t="n">
-        <v>240.6489209154022</v>
+        <v>26.21114935825938</v>
       </c>
       <c r="W30" t="n">
-        <v>52.26681201986875</v>
+        <v>52.26681201986872</v>
       </c>
       <c r="X30" t="n">
-        <v>2.875142882327765</v>
+        <v>2.875142882327737</v>
       </c>
       <c r="Y30" t="n">
-        <v>8.946514576882777</v>
+        <v>8.946514576882748</v>
       </c>
     </row>
     <row r="31">
@@ -2998,25 +2998,25 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>21.14111653414235</v>
+        <v>21.14111653414232</v>
       </c>
       <c r="T31" t="n">
-        <v>9.358318218584017</v>
+        <v>9.358318218583989</v>
       </c>
       <c r="U31" t="n">
-        <v>74.21922623685346</v>
+        <v>74.21922623685343</v>
       </c>
       <c r="V31" t="n">
-        <v>30.67124362730706</v>
+        <v>30.67124362730704</v>
       </c>
       <c r="W31" t="n">
-        <v>75.87293553219249</v>
+        <v>75.87293553219246</v>
       </c>
       <c r="X31" t="n">
-        <v>7.481683851099689</v>
+        <v>7.48168385109966</v>
       </c>
       <c r="Y31" t="n">
-        <v>2.703501257025579</v>
+        <v>2.70350125702555</v>
       </c>
     </row>
     <row r="32">
@@ -3029,7 +3029,7 @@
         <v>159.6494688206905</v>
       </c>
       <c r="C32" t="n">
-        <v>135.7677258240359</v>
+        <v>135.767725824036</v>
       </c>
       <c r="D32" t="n">
         <v>123.3343880850844</v>
@@ -3047,7 +3047,7 @@
         <v>132.7681435069948</v>
       </c>
       <c r="I32" t="n">
-        <v>27.26659750249476</v>
+        <v>27.26659750249479</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,16 +3077,16 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>13.48978506469504</v>
+        <v>13.48978506469507</v>
       </c>
       <c r="T32" t="n">
-        <v>8.106979197914512</v>
+        <v>8.106979197914541</v>
       </c>
       <c r="U32" t="n">
-        <v>35.71421129436902</v>
+        <v>35.71421129436905</v>
       </c>
       <c r="V32" t="n">
-        <v>106.4420120520091</v>
+        <v>106.4420120520092</v>
       </c>
       <c r="W32" t="n">
         <v>123.458692268624</v>
@@ -3114,7 +3114,7 @@
         <v>0</v>
       </c>
       <c r="E33" t="n">
-        <v>59.29501133045751</v>
+        <v>0</v>
       </c>
       <c r="F33" t="n">
         <v>0</v>
@@ -3150,31 +3150,31 @@
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>8.099985407837632</v>
       </c>
       <c r="R33" t="n">
         <v>135.3183225070108</v>
       </c>
       <c r="S33" t="n">
-        <v>0</v>
+        <v>191.7698489263512</v>
       </c>
       <c r="T33" t="n">
-        <v>215.0097793174697</v>
+        <v>0.5720077603268507</v>
       </c>
       <c r="U33" t="n">
-        <v>22.79093214614366</v>
+        <v>237.2287037032865</v>
       </c>
       <c r="V33" t="n">
-        <v>240.6489209154022</v>
+        <v>26.21114935825941</v>
       </c>
       <c r="W33" t="n">
-        <v>52.26681201986872</v>
+        <v>52.26681201986875</v>
       </c>
       <c r="X33" t="n">
-        <v>2.875142882327737</v>
+        <v>76.73809143573912</v>
       </c>
       <c r="Y33" t="n">
-        <v>8.946514576882748</v>
+        <v>8.946514576882777</v>
       </c>
     </row>
     <row r="34">
@@ -3235,25 +3235,25 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>21.14111653414232</v>
+        <v>21.14111653414235</v>
       </c>
       <c r="T34" t="n">
-        <v>9.358318218583989</v>
+        <v>9.358318218584017</v>
       </c>
       <c r="U34" t="n">
-        <v>74.21922623685343</v>
+        <v>74.21922623685346</v>
       </c>
       <c r="V34" t="n">
-        <v>30.67124362730704</v>
+        <v>30.67124362730706</v>
       </c>
       <c r="W34" t="n">
-        <v>75.87293553219246</v>
+        <v>75.87293553219249</v>
       </c>
       <c r="X34" t="n">
-        <v>7.48168385109966</v>
+        <v>7.481683851099689</v>
       </c>
       <c r="Y34" t="n">
-        <v>2.70350125702555</v>
+        <v>2.703501257025579</v>
       </c>
     </row>
     <row r="35">
@@ -3345,7 +3345,7 @@
         <v>0</v>
       </c>
       <c r="C36" t="n">
-        <v>187.5181515243659</v>
+        <v>0</v>
       </c>
       <c r="D36" t="n">
         <v>0</v>
@@ -3360,7 +3360,7 @@
         <v>0</v>
       </c>
       <c r="H36" t="n">
-        <v>63.65567414467077</v>
+        <v>0</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
@@ -3387,28 +3387,28 @@
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>8.099985407837632</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
       </c>
       <c r="S36" t="n">
-        <v>0</v>
+        <v>191.7698489263512</v>
       </c>
       <c r="T36" t="n">
         <v>0</v>
       </c>
       <c r="U36" t="n">
-        <v>237.2287037032865</v>
+        <v>0</v>
       </c>
       <c r="V36" t="n">
-        <v>240.6489209154022</v>
+        <v>67.47837805148964</v>
       </c>
       <c r="W36" t="n">
-        <v>0</v>
+        <v>260.5902942782517</v>
       </c>
       <c r="X36" t="n">
-        <v>0</v>
+        <v>217.3129144394706</v>
       </c>
       <c r="Y36" t="n">
         <v>0</v>
@@ -3579,7 +3579,7 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>0</v>
+        <v>176.7504943976657</v>
       </c>
       <c r="C39" t="n">
         <v>0</v>
@@ -3594,10 +3594,10 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>35.58180793878521</v>
+        <v>0</v>
       </c>
       <c r="H39" t="n">
-        <v>125.8286260849892</v>
+        <v>0</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
@@ -3624,10 +3624,10 @@
         <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>8.099985407837632</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>135.3183225070108</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -3645,10 +3645,10 @@
         <v>0</v>
       </c>
       <c r="X39" t="n">
-        <v>217.3129144394706</v>
+        <v>122.0068758464021</v>
       </c>
       <c r="Y39" t="n">
-        <v>0</v>
+        <v>223.3842861340256</v>
       </c>
     </row>
     <row r="40">
@@ -3740,22 +3740,22 @@
         <v>132.3828713181957</v>
       </c>
       <c r="C41" t="n">
-        <v>108.5011283215412</v>
+        <v>105.0973964263563</v>
       </c>
       <c r="D41" t="n">
-        <v>96.06779058258968</v>
+        <v>96.06779058258965</v>
       </c>
       <c r="E41" t="n">
-        <v>129.7745430019986</v>
+        <v>129.7745430019985</v>
       </c>
       <c r="F41" t="n">
-        <v>100.3135025361704</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>177.1518208887878</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>105.5015460045</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3794,13 +3794,13 @@
         <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>8.447613791874295</v>
+        <v>8.447613791874261</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>79.17541454951439</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>96.19209476612926</v>
       </c>
       <c r="X41" t="n">
         <v>118.0783452350685</v>
@@ -3816,10 +3816,10 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>65.65870375892021</v>
+        <v>0</v>
       </c>
       <c r="C42" t="n">
-        <v>187.5181515243659</v>
+        <v>0</v>
       </c>
       <c r="D42" t="n">
         <v>0</v>
@@ -3828,7 +3828,7 @@
         <v>0</v>
       </c>
       <c r="F42" t="n">
-        <v>0</v>
+        <v>121.1741984383065</v>
       </c>
       <c r="G42" t="n">
         <v>0</v>
@@ -3864,28 +3864,28 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>135.3183225070108</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
       </c>
       <c r="T42" t="n">
-        <v>0</v>
+        <v>215.0097793174697</v>
       </c>
       <c r="U42" t="n">
         <v>0</v>
       </c>
       <c r="V42" t="n">
-        <v>0</v>
+        <v>240.6489209154022</v>
       </c>
       <c r="W42" t="n">
-        <v>260.5902942782516</v>
+        <v>25.00021451737396</v>
       </c>
       <c r="X42" t="n">
         <v>0</v>
       </c>
       <c r="Y42" t="n">
-        <v>223.3842861340256</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43">
@@ -3952,13 +3952,13 @@
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>46.95262873435869</v>
+        <v>46.95262873435866</v>
       </c>
       <c r="V43" t="n">
-        <v>3.404646124812302</v>
+        <v>3.404646124812274</v>
       </c>
       <c r="W43" t="n">
-        <v>48.60633802969772</v>
+        <v>48.6063380296977</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
@@ -3974,25 +3974,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>132.3828713181957</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
         <v>108.5011283215412</v>
       </c>
       <c r="D44" t="n">
-        <v>96.06779058258968</v>
+        <v>96.06779058258962</v>
       </c>
       <c r="E44" t="n">
-        <v>129.7745430019986</v>
+        <v>129.7745430019985</v>
       </c>
       <c r="F44" t="n">
-        <v>161.4948805803759</v>
+        <v>161.4948805803758</v>
       </c>
       <c r="G44" t="n">
-        <v>177.1518208887878</v>
+        <v>72.98580484713568</v>
       </c>
       <c r="H44" t="n">
-        <v>105.5015460045</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4031,19 +4031,19 @@
         <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>8.447613791874295</v>
+        <v>8.447613791874238</v>
       </c>
       <c r="V44" t="n">
-        <v>79.17541454951441</v>
+        <v>79.17541454951436</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>96.19209476612923</v>
       </c>
       <c r="X44" t="n">
-        <v>12.80120499566156</v>
+        <v>118.0783452350685</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>140.5811983588122</v>
       </c>
     </row>
     <row r="45">
@@ -4053,13 +4053,13 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>176.7504943976657</v>
+        <v>0</v>
       </c>
       <c r="C45" t="n">
         <v>0</v>
       </c>
       <c r="D45" t="n">
-        <v>0</v>
+        <v>159.1723150765785</v>
       </c>
       <c r="E45" t="n">
         <v>0</v>
@@ -4068,7 +4068,7 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>63.2675343232586</v>
+        <v>0</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -4098,7 +4098,7 @@
         <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>8.099985407837575</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -4107,22 +4107,22 @@
         <v>0</v>
       </c>
       <c r="T45" t="n">
-        <v>0</v>
+        <v>215.0097793174697</v>
       </c>
       <c r="U45" t="n">
         <v>0</v>
       </c>
       <c r="V45" t="n">
-        <v>240.6489209154022</v>
+        <v>0</v>
       </c>
       <c r="W45" t="n">
-        <v>25.00021451737399</v>
+        <v>260.5902942782517</v>
       </c>
       <c r="X45" t="n">
         <v>0</v>
       </c>
       <c r="Y45" t="n">
-        <v>223.3842861340256</v>
+        <v>102.379047023263</v>
       </c>
     </row>
     <row r="46">
@@ -4189,13 +4189,13 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>46.95262873435869</v>
+        <v>46.95262873435863</v>
       </c>
       <c r="V46" t="n">
-        <v>3.404646124812302</v>
+        <v>3.404646124812245</v>
       </c>
       <c r="W46" t="n">
-        <v>48.60633802969772</v>
+        <v>48.60633802969767</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -5015,76 +5015,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>354.2055668897497</v>
+        <v>409.534208734497</v>
       </c>
       <c r="C11" t="n">
-        <v>203.5291846596053</v>
+        <v>409.534208734497</v>
       </c>
       <c r="D11" t="n">
-        <v>203.5291846596053</v>
+        <v>409.534208734497</v>
       </c>
       <c r="E11" t="n">
-        <v>203.5291846596053</v>
+        <v>349.3615260159825</v>
       </c>
       <c r="F11" t="n">
-        <v>203.5291846596053</v>
+        <v>349.3615260159825</v>
       </c>
       <c r="G11" t="n">
-        <v>203.5291846596053</v>
+        <v>162.4499017441489</v>
       </c>
       <c r="H11" t="n">
-        <v>55.88268355778548</v>
+        <v>14.80340064232921</v>
       </c>
       <c r="I11" t="n">
-        <v>14.80340064232922</v>
+        <v>14.80340064232921</v>
       </c>
       <c r="J11" t="n">
-        <v>14.80340064232922</v>
+        <v>136.3012405958726</v>
       </c>
       <c r="K11" t="n">
-        <v>46.12137796694782</v>
+        <v>319.4933235446966</v>
       </c>
       <c r="L11" t="n">
-        <v>229.3134609157719</v>
+        <v>363.399382697308</v>
       </c>
       <c r="M11" t="n">
-        <v>412.5055438645959</v>
+        <v>441.1292929810057</v>
       </c>
       <c r="N11" t="n">
-        <v>595.6976268134199</v>
+        <v>513.2745184602186</v>
       </c>
       <c r="O11" t="n">
-        <v>626.9129586879034</v>
+        <v>696.4666014090426</v>
       </c>
       <c r="P11" t="n">
-        <v>626.9129586879034</v>
+        <v>696.4666014090426</v>
       </c>
       <c r="Q11" t="n">
-        <v>735.1976837493777</v>
+        <v>740.1700321164606</v>
       </c>
       <c r="R11" t="n">
-        <v>740.1700321164608</v>
+        <v>740.1700321164606</v>
       </c>
       <c r="S11" t="n">
-        <v>740.1700321164608</v>
+        <v>740.1700321164606</v>
       </c>
       <c r="T11" t="n">
-        <v>740.1700321164608</v>
+        <v>718.4438990036107</v>
       </c>
       <c r="U11" t="n">
-        <v>740.1700321164608</v>
+        <v>668.8316728640391</v>
       </c>
       <c r="V11" t="n">
-        <v>740.1700321164608</v>
+        <v>547.7772237369524</v>
       </c>
       <c r="W11" t="n">
-        <v>740.1700321164608</v>
+        <v>409.534208734497</v>
       </c>
       <c r="X11" t="n">
-        <v>712.0854152226905</v>
+        <v>409.534208734497</v>
       </c>
       <c r="Y11" t="n">
-        <v>529.0049218437874</v>
+        <v>409.534208734497</v>
       </c>
     </row>
     <row r="12">
@@ -5094,76 +5094,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>365.599922374727</v>
+        <v>14.80340064232921</v>
       </c>
       <c r="C12" t="n">
-        <v>365.599922374727</v>
+        <v>14.80340064232921</v>
       </c>
       <c r="D12" t="n">
-        <v>365.599922374727</v>
+        <v>14.80340064232921</v>
       </c>
       <c r="E12" t="n">
-        <v>365.599922374727</v>
+        <v>14.80340064232921</v>
       </c>
       <c r="F12" t="n">
-        <v>205.1722060919711</v>
+        <v>14.80340064232921</v>
       </c>
       <c r="G12" t="n">
-        <v>68.7285855430832</v>
+        <v>14.80340064232921</v>
       </c>
       <c r="H12" t="n">
-        <v>68.7285855430832</v>
+        <v>14.80340064232921</v>
       </c>
       <c r="I12" t="n">
-        <v>68.7285855430832</v>
+        <v>14.80340064232921</v>
       </c>
       <c r="J12" t="n">
-        <v>14.80340064232922</v>
+        <v>14.80340064232921</v>
       </c>
       <c r="K12" t="n">
-        <v>51.22565457935593</v>
+        <v>51.2256545793559</v>
       </c>
       <c r="L12" t="n">
         <v>166.4864121176045</v>
       </c>
       <c r="M12" t="n">
-        <v>345.7449438834814</v>
+        <v>345.7449438834813</v>
       </c>
       <c r="N12" t="n">
-        <v>528.9370268323055</v>
+        <v>528.9370268323053</v>
       </c>
       <c r="O12" t="n">
-        <v>658.3673160164436</v>
+        <v>658.3673160164434</v>
       </c>
       <c r="P12" t="n">
-        <v>740.1700321164608</v>
+        <v>740.1700321164606</v>
       </c>
       <c r="Q12" t="n">
-        <v>740.1700321164608</v>
+        <v>731.9882286742003</v>
       </c>
       <c r="R12" t="n">
-        <v>740.1700321164608</v>
+        <v>731.9882286742003</v>
       </c>
       <c r="S12" t="n">
-        <v>740.1700321164608</v>
+        <v>731.9882286742003</v>
       </c>
       <c r="T12" t="n">
-        <v>726.0549812638004</v>
+        <v>717.8731778215401</v>
       </c>
       <c r="U12" t="n">
-        <v>689.4965724456684</v>
+        <v>530.9615535497067</v>
       </c>
       <c r="V12" t="n">
-        <v>649.4833987668136</v>
+        <v>344.0499292778732</v>
       </c>
       <c r="W12" t="n">
-        <v>583.151373914616</v>
+        <v>157.1383050060397</v>
       </c>
       <c r="X12" t="n">
-        <v>566.7099239488234</v>
+        <v>37.37754928949033</v>
       </c>
       <c r="Y12" t="n">
-        <v>544.1357753016621</v>
+        <v>14.80340064232921</v>
       </c>
     </row>
     <row r="13">
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>37.98816936761338</v>
+        <v>14.80340064232921</v>
       </c>
       <c r="C13" t="n">
-        <v>37.98816936761338</v>
+        <v>14.80340064232921</v>
       </c>
       <c r="D13" t="n">
-        <v>37.98816936761338</v>
+        <v>14.80340064232921</v>
       </c>
       <c r="E13" t="n">
-        <v>96.75430975111323</v>
+        <v>73.56954102582922</v>
       </c>
       <c r="F13" t="n">
-        <v>96.75430975111323</v>
+        <v>73.56954102582922</v>
       </c>
       <c r="G13" t="n">
-        <v>96.75430975111323</v>
+        <v>73.56954102582922</v>
       </c>
       <c r="H13" t="n">
-        <v>96.75430975111323</v>
+        <v>73.56954102582922</v>
       </c>
       <c r="I13" t="n">
-        <v>96.75430975111323</v>
+        <v>73.56954102582922</v>
       </c>
       <c r="J13" t="n">
-        <v>96.75430975111323</v>
+        <v>152.9921803055669</v>
       </c>
       <c r="K13" t="n">
-        <v>96.75430975111323</v>
+        <v>152.9921803055669</v>
       </c>
       <c r="L13" t="n">
-        <v>96.75430975111323</v>
+        <v>318.9978746530513</v>
       </c>
       <c r="M13" t="n">
-        <v>195.8704288767925</v>
+        <v>336.0344537967195</v>
       </c>
       <c r="N13" t="n">
-        <v>195.8704288767925</v>
+        <v>336.0344537967195</v>
       </c>
       <c r="O13" t="n">
-        <v>195.8704288767925</v>
+        <v>336.0344537967195</v>
       </c>
       <c r="P13" t="n">
-        <v>336.0344537967209</v>
+        <v>336.0344537967195</v>
       </c>
       <c r="Q13" t="n">
-        <v>336.0344537967209</v>
+        <v>336.0344537967195</v>
       </c>
       <c r="R13" t="n">
-        <v>333.2491312926857</v>
+        <v>333.2491312926845</v>
       </c>
       <c r="S13" t="n">
-        <v>298.3572028907167</v>
+        <v>298.3572028907157</v>
       </c>
       <c r="T13" t="n">
-        <v>275.3670909691098</v>
+        <v>275.3670909691089</v>
       </c>
       <c r="U13" t="n">
-        <v>186.8609103421801</v>
+        <v>186.8609103421794</v>
       </c>
       <c r="V13" t="n">
-        <v>142.3425909370145</v>
+        <v>142.342590937014</v>
       </c>
       <c r="W13" t="n">
-        <v>52.16599688044948</v>
+        <v>52.16599688044914</v>
       </c>
       <c r="X13" t="n">
-        <v>31.07147522902869</v>
+        <v>31.07147522902851</v>
       </c>
       <c r="Y13" t="n">
-        <v>14.80340064232922</v>
+        <v>14.80340064232921</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5252,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>245.0511903386629</v>
+        <v>352.391407144307</v>
       </c>
       <c r="C14" t="n">
-        <v>245.0511903386629</v>
+        <v>201.7150249141627</v>
       </c>
       <c r="D14" t="n">
-        <v>106.9337351175606</v>
+        <v>201.7150249141627</v>
       </c>
       <c r="E14" t="n">
-        <v>106.9337351175606</v>
+        <v>201.7150249141627</v>
       </c>
       <c r="F14" t="n">
-        <v>106.9337351175606</v>
+        <v>201.7150249141627</v>
       </c>
       <c r="G14" t="n">
-        <v>14.80340064232922</v>
+        <v>14.80340064232921</v>
       </c>
       <c r="H14" t="n">
-        <v>14.80340064232922</v>
+        <v>14.80340064232921</v>
       </c>
       <c r="I14" t="n">
-        <v>14.80340064232922</v>
+        <v>14.80340064232921</v>
       </c>
       <c r="J14" t="n">
-        <v>14.80340064232922</v>
+        <v>136.3012405958725</v>
       </c>
       <c r="K14" t="n">
-        <v>14.80340064232922</v>
+        <v>252.1498967825034</v>
       </c>
       <c r="L14" t="n">
-        <v>197.9954835911533</v>
+        <v>296.0559559351148</v>
       </c>
       <c r="M14" t="n">
-        <v>381.1875665399773</v>
+        <v>373.7858662188125</v>
       </c>
       <c r="N14" t="n">
-        <v>564.3796494888013</v>
+        <v>556.9779491676366</v>
       </c>
       <c r="O14" t="n">
-        <v>735.1976837493777</v>
+        <v>740.1700321164606</v>
       </c>
       <c r="P14" t="n">
-        <v>735.1976837493777</v>
+        <v>740.1700321164606</v>
       </c>
       <c r="Q14" t="n">
-        <v>735.1976837493777</v>
+        <v>740.1700321164606</v>
       </c>
       <c r="R14" t="n">
-        <v>740.1700321164608</v>
+        <v>740.1700321164606</v>
       </c>
       <c r="S14" t="n">
-        <v>740.1700321164608</v>
+        <v>740.1700321164606</v>
       </c>
       <c r="T14" t="n">
-        <v>718.4438990036108</v>
+        <v>740.1700321164606</v>
       </c>
       <c r="U14" t="n">
-        <v>718.4438990036108</v>
+        <v>740.1700321164606</v>
       </c>
       <c r="V14" t="n">
-        <v>718.4438990036108</v>
+        <v>740.1700321164606</v>
       </c>
       <c r="W14" t="n">
-        <v>580.2008840011554</v>
+        <v>601.9270171140051</v>
       </c>
       <c r="X14" t="n">
-        <v>419.8505452927007</v>
+        <v>441.5766784055504</v>
       </c>
       <c r="Y14" t="n">
-        <v>419.8505452927007</v>
+        <v>352.391407144307</v>
       </c>
     </row>
     <row r="15">
@@ -5331,34 +5331,34 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>357.2241510298291</v>
+        <v>201.7150249141627</v>
       </c>
       <c r="C15" t="n">
-        <v>357.2241510298291</v>
+        <v>14.80340064232921</v>
       </c>
       <c r="D15" t="n">
-        <v>196.4440347908609</v>
+        <v>14.80340064232921</v>
       </c>
       <c r="E15" t="n">
-        <v>196.4440347908609</v>
+        <v>14.80340064232921</v>
       </c>
       <c r="F15" t="n">
-        <v>141.9030229503991</v>
+        <v>14.80340064232921</v>
       </c>
       <c r="G15" t="n">
-        <v>141.9030229503991</v>
+        <v>14.80340064232921</v>
       </c>
       <c r="H15" t="n">
-        <v>14.80340064232922</v>
+        <v>14.80340064232921</v>
       </c>
       <c r="I15" t="n">
-        <v>14.80340064232922</v>
+        <v>14.80340064232921</v>
       </c>
       <c r="J15" t="n">
-        <v>14.80340064232922</v>
+        <v>14.80340064232921</v>
       </c>
       <c r="K15" t="n">
-        <v>51.22565457935591</v>
+        <v>51.2256545793559</v>
       </c>
       <c r="L15" t="n">
         <v>166.4864121176045</v>
@@ -5367,40 +5367,40 @@
         <v>345.7449438834814</v>
       </c>
       <c r="N15" t="n">
-        <v>528.9370268323054</v>
+        <v>528.9370268323053</v>
       </c>
       <c r="O15" t="n">
-        <v>658.3673160164435</v>
+        <v>658.3673160164434</v>
       </c>
       <c r="P15" t="n">
-        <v>740.1700321164608</v>
+        <v>740.1700321164606</v>
       </c>
       <c r="Q15" t="n">
-        <v>740.1700321164608</v>
+        <v>731.9882286742003</v>
       </c>
       <c r="R15" t="n">
-        <v>740.1700321164608</v>
+        <v>731.9882286742003</v>
       </c>
       <c r="S15" t="n">
-        <v>553.2584078446273</v>
+        <v>731.9882286742003</v>
       </c>
       <c r="T15" t="n">
-        <v>539.143356991967</v>
+        <v>717.8731778215399</v>
       </c>
       <c r="U15" t="n">
-        <v>502.5849481738352</v>
+        <v>681.3147690034079</v>
       </c>
       <c r="V15" t="n">
-        <v>462.5717744949804</v>
+        <v>494.4031447315745</v>
       </c>
       <c r="W15" t="n">
-        <v>396.2397496427828</v>
+        <v>428.0711198793769</v>
       </c>
       <c r="X15" t="n">
-        <v>379.7982996769903</v>
+        <v>402.8250264882591</v>
       </c>
       <c r="Y15" t="n">
-        <v>357.2241510298291</v>
+        <v>380.2508778410978</v>
       </c>
     </row>
     <row r="16">
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>14.80340064232922</v>
+        <v>14.80340064232921</v>
       </c>
       <c r="C16" t="n">
-        <v>14.80340064232922</v>
+        <v>14.80340064232921</v>
       </c>
       <c r="D16" t="n">
-        <v>14.80340064232922</v>
+        <v>14.80340064232921</v>
       </c>
       <c r="E16" t="n">
-        <v>14.80340064232922</v>
+        <v>14.80340064232921</v>
       </c>
       <c r="F16" t="n">
-        <v>14.80340064232922</v>
+        <v>14.80340064232921</v>
       </c>
       <c r="G16" t="n">
-        <v>46.80715266648394</v>
+        <v>46.80715266648387</v>
       </c>
       <c r="H16" t="n">
-        <v>46.80715266648394</v>
+        <v>46.80715266648387</v>
       </c>
       <c r="I16" t="n">
-        <v>46.80715266648394</v>
+        <v>46.80715266648387</v>
       </c>
       <c r="J16" t="n">
-        <v>126.2297919462215</v>
+        <v>46.80715266648387</v>
       </c>
       <c r="K16" t="n">
-        <v>126.2297919462215</v>
+        <v>46.80715266648387</v>
       </c>
       <c r="L16" t="n">
-        <v>292.2354862937058</v>
+        <v>195.8704288767925</v>
       </c>
       <c r="M16" t="n">
-        <v>336.0344537967204</v>
+        <v>195.8704288767925</v>
       </c>
       <c r="N16" t="n">
-        <v>336.0344537967204</v>
+        <v>195.8704288767925</v>
       </c>
       <c r="O16" t="n">
-        <v>336.0344537967204</v>
+        <v>195.8704288767925</v>
       </c>
       <c r="P16" t="n">
-        <v>336.0344537967204</v>
+        <v>336.0344537967209</v>
       </c>
       <c r="Q16" t="n">
-        <v>336.0344537967204</v>
+        <v>336.0344537967209</v>
       </c>
       <c r="R16" t="n">
-        <v>333.2491312926853</v>
+        <v>333.2491312926857</v>
       </c>
       <c r="S16" t="n">
-        <v>298.3572028907164</v>
+        <v>298.3572028907167</v>
       </c>
       <c r="T16" t="n">
-        <v>275.3670909691095</v>
+        <v>275.3670909691098</v>
       </c>
       <c r="U16" t="n">
-        <v>186.8609103421799</v>
+        <v>186.8609103421801</v>
       </c>
       <c r="V16" t="n">
-        <v>142.3425909370143</v>
+        <v>142.3425909370145</v>
       </c>
       <c r="W16" t="n">
-        <v>52.16599688044937</v>
+        <v>52.16599688044948</v>
       </c>
       <c r="X16" t="n">
-        <v>31.07147522902863</v>
+        <v>31.07147522902869</v>
       </c>
       <c r="Y16" t="n">
-        <v>14.80340064232922</v>
+        <v>14.80340064232921</v>
       </c>
     </row>
     <row r="17">
@@ -5489,76 +5489,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>455.8205533043114</v>
+        <v>455.8205533043111</v>
       </c>
       <c r="C17" t="n">
-        <v>403.7798055459248</v>
+        <v>403.7798055459246</v>
       </c>
       <c r="D17" t="n">
-        <v>364.2979847965802</v>
+        <v>364.29798479658</v>
       </c>
       <c r="E17" t="n">
-        <v>290.7689393811661</v>
+        <v>290.7689393811658</v>
       </c>
       <c r="F17" t="n">
-        <v>185.1991489370877</v>
+        <v>185.1991489370876</v>
       </c>
       <c r="G17" t="n">
         <v>63.81426727239136</v>
       </c>
       <c r="H17" t="n">
-        <v>14.80340064232922</v>
+        <v>14.80340064232921</v>
       </c>
       <c r="I17" t="n">
-        <v>14.80340064232922</v>
+        <v>14.80340064232921</v>
       </c>
       <c r="J17" t="n">
-        <v>197.9954835911533</v>
+        <v>197.9954835911532</v>
       </c>
       <c r="K17" t="n">
-        <v>197.9954835911533</v>
+        <v>381.1875665399772</v>
       </c>
       <c r="L17" t="n">
-        <v>241.9015427437647</v>
+        <v>425.0936256925885</v>
       </c>
       <c r="M17" t="n">
-        <v>319.6314530274624</v>
+        <v>502.8235359762863</v>
       </c>
       <c r="N17" t="n">
-        <v>391.7766785066752</v>
+        <v>574.9687614554991</v>
       </c>
       <c r="O17" t="n">
-        <v>455.3328154547839</v>
+        <v>606.1840933299826</v>
       </c>
       <c r="P17" t="n">
-        <v>638.5248984036079</v>
+        <v>616.7431873282194</v>
       </c>
       <c r="Q17" t="n">
-        <v>638.5248984036079</v>
+        <v>616.7431873282194</v>
       </c>
       <c r="R17" t="n">
-        <v>740.1700321164608</v>
+        <v>616.7431873282194</v>
       </c>
       <c r="S17" t="n">
-        <v>740.1700321164608</v>
+        <v>616.7431873282194</v>
       </c>
       <c r="T17" t="n">
-        <v>740.1700321164608</v>
+        <v>692.122189610085</v>
       </c>
       <c r="U17" t="n">
-        <v>740.1700321164608</v>
+        <v>740.1700321164606</v>
       </c>
       <c r="V17" t="n">
-        <v>717.7512174611315</v>
+        <v>717.7512174611313</v>
       </c>
       <c r="W17" t="n">
-        <v>678.1438369304338</v>
+        <v>678.1438369304335</v>
       </c>
       <c r="X17" t="n">
-        <v>616.4291326937368</v>
+        <v>616.4291326937365</v>
       </c>
       <c r="Y17" t="n">
-        <v>531.9842737865915</v>
+        <v>531.9842737865912</v>
       </c>
     </row>
     <row r="18">
@@ -5568,34 +5568,34 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>424.9490049400198</v>
+        <v>14.80340064232921</v>
       </c>
       <c r="C18" t="n">
-        <v>238.0373806681863</v>
+        <v>14.80340064232921</v>
       </c>
       <c r="D18" t="n">
-        <v>77.25726442921805</v>
+        <v>14.80340064232921</v>
       </c>
       <c r="E18" t="n">
-        <v>77.25726442921805</v>
+        <v>14.80340064232921</v>
       </c>
       <c r="F18" t="n">
-        <v>77.25726442921805</v>
+        <v>14.80340064232921</v>
       </c>
       <c r="G18" t="n">
-        <v>77.25726442921805</v>
+        <v>14.80340064232921</v>
       </c>
       <c r="H18" t="n">
-        <v>14.80340064232922</v>
+        <v>14.80340064232921</v>
       </c>
       <c r="I18" t="n">
-        <v>14.80340064232922</v>
+        <v>14.80340064232921</v>
       </c>
       <c r="J18" t="n">
-        <v>14.80340064232922</v>
+        <v>14.80340064232921</v>
       </c>
       <c r="K18" t="n">
-        <v>51.22565457935591</v>
+        <v>51.2256545793559</v>
       </c>
       <c r="L18" t="n">
         <v>166.4864121176045</v>
@@ -5610,34 +5610,34 @@
         <v>658.3673160164435</v>
       </c>
       <c r="P18" t="n">
-        <v>740.1700321164608</v>
+        <v>740.1700321164607</v>
       </c>
       <c r="Q18" t="n">
-        <v>740.1700321164608</v>
+        <v>731.9882286742004</v>
       </c>
       <c r="R18" t="n">
-        <v>603.4848578669549</v>
+        <v>595.3030544246946</v>
       </c>
       <c r="S18" t="n">
-        <v>603.4848578669549</v>
+        <v>595.3030544246946</v>
       </c>
       <c r="T18" t="n">
-        <v>603.4848578669549</v>
+        <v>595.3030544246946</v>
       </c>
       <c r="U18" t="n">
-        <v>603.4848578669549</v>
+        <v>408.3914301528611</v>
       </c>
       <c r="V18" t="n">
-        <v>603.4848578669549</v>
+        <v>408.3914301528611</v>
       </c>
       <c r="W18" t="n">
-        <v>603.4848578669549</v>
+        <v>221.4798058810276</v>
       </c>
       <c r="X18" t="n">
-        <v>603.4848578669549</v>
+        <v>221.4798058810276</v>
       </c>
       <c r="Y18" t="n">
-        <v>603.4848578669549</v>
+        <v>34.56818160919408</v>
       </c>
     </row>
     <row r="19">
@@ -5647,76 +5647,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>14.80340064232922</v>
+        <v>14.80340064232921</v>
       </c>
       <c r="C19" t="n">
-        <v>14.80340064232922</v>
+        <v>14.80340064232921</v>
       </c>
       <c r="D19" t="n">
-        <v>14.80340064232922</v>
+        <v>14.80340064232921</v>
       </c>
       <c r="E19" t="n">
-        <v>14.80340064232922</v>
+        <v>14.80340064232921</v>
       </c>
       <c r="F19" t="n">
-        <v>14.80340064232922</v>
+        <v>14.80340064232921</v>
       </c>
       <c r="G19" t="n">
-        <v>14.80340064232922</v>
+        <v>14.80340064232921</v>
       </c>
       <c r="H19" t="n">
-        <v>14.80340064232922</v>
+        <v>14.80340064232921</v>
       </c>
       <c r="I19" t="n">
-        <v>14.80340064232922</v>
+        <v>14.80340064232921</v>
       </c>
       <c r="J19" t="n">
-        <v>14.80340064232922</v>
+        <v>14.80340064232921</v>
       </c>
       <c r="K19" t="n">
-        <v>14.80340064232922</v>
+        <v>14.80340064232921</v>
       </c>
       <c r="L19" t="n">
-        <v>14.80340064232922</v>
+        <v>14.80340064232921</v>
       </c>
       <c r="M19" t="n">
-        <v>14.80340064232922</v>
+        <v>14.80340064232921</v>
       </c>
       <c r="N19" t="n">
-        <v>14.80340064232922</v>
+        <v>14.80340064232921</v>
       </c>
       <c r="O19" t="n">
-        <v>14.80340064232922</v>
+        <v>14.80340064232921</v>
       </c>
       <c r="P19" t="n">
-        <v>14.80340064232922</v>
+        <v>14.80340064232921</v>
       </c>
       <c r="Q19" t="n">
-        <v>14.80340064232922</v>
+        <v>14.80340064232921</v>
       </c>
       <c r="R19" t="n">
-        <v>14.80340064232922</v>
+        <v>14.80340064232921</v>
       </c>
       <c r="S19" t="n">
-        <v>14.80340064232922</v>
+        <v>14.80340064232921</v>
       </c>
       <c r="T19" t="n">
-        <v>14.80340064232922</v>
+        <v>14.80340064232921</v>
       </c>
       <c r="U19" t="n">
-        <v>14.80340064232922</v>
+        <v>14.80340064232921</v>
       </c>
       <c r="V19" t="n">
-        <v>14.80340064232922</v>
+        <v>14.80340064232921</v>
       </c>
       <c r="W19" t="n">
-        <v>14.80340064232922</v>
+        <v>14.80340064232921</v>
       </c>
       <c r="X19" t="n">
-        <v>14.80340064232922</v>
+        <v>14.80340064232921</v>
       </c>
       <c r="Y19" t="n">
-        <v>14.80340064232922</v>
+        <v>14.80340064232921</v>
       </c>
     </row>
     <row r="20">
@@ -5726,76 +5726,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>455.8205533043115</v>
+        <v>455.8205533043113</v>
       </c>
       <c r="C20" t="n">
-        <v>403.7798055459249</v>
+        <v>403.7798055459247</v>
       </c>
       <c r="D20" t="n">
-        <v>364.2979847965803</v>
+        <v>364.29798479658</v>
       </c>
       <c r="E20" t="n">
-        <v>290.7689393811661</v>
+        <v>290.7689393811658</v>
       </c>
       <c r="F20" t="n">
-        <v>185.1991489370879</v>
+        <v>185.1991489370876</v>
       </c>
       <c r="G20" t="n">
-        <v>63.81426727239209</v>
+        <v>63.81426727239136</v>
       </c>
       <c r="H20" t="n">
-        <v>14.80340064232922</v>
+        <v>14.80340064232921</v>
       </c>
       <c r="I20" t="n">
         <v>71.2143808026603</v>
       </c>
       <c r="J20" t="n">
-        <v>71.2143808026603</v>
+        <v>230.3362886647783</v>
       </c>
       <c r="K20" t="n">
-        <v>254.4064637514844</v>
+        <v>413.5283716136022</v>
       </c>
       <c r="L20" t="n">
-        <v>437.5985467003084</v>
+        <v>457.4344307662136</v>
       </c>
       <c r="M20" t="n">
-        <v>515.3284569840062</v>
+        <v>535.1643410499114</v>
       </c>
       <c r="N20" t="n">
-        <v>587.4736824632189</v>
+        <v>607.3095665291243</v>
       </c>
       <c r="O20" t="n">
-        <v>664.7910298345953</v>
+        <v>638.5248984036077</v>
       </c>
       <c r="P20" t="n">
-        <v>664.7910298345953</v>
+        <v>638.5248984036077</v>
       </c>
       <c r="Q20" t="n">
-        <v>664.7910298345953</v>
+        <v>638.5248984036077</v>
       </c>
       <c r="R20" t="n">
-        <v>664.7910298345953</v>
+        <v>740.1700321164606</v>
       </c>
       <c r="S20" t="n">
-        <v>664.7910298345953</v>
+        <v>740.1700321164606</v>
       </c>
       <c r="T20" t="n">
-        <v>740.1700321164608</v>
+        <v>740.1700321164606</v>
       </c>
       <c r="U20" t="n">
-        <v>740.1700321164608</v>
+        <v>740.1700321164606</v>
       </c>
       <c r="V20" t="n">
-        <v>717.7512174611314</v>
+        <v>717.7512174611313</v>
       </c>
       <c r="W20" t="n">
-        <v>678.1438369304337</v>
+        <v>678.1438369304335</v>
       </c>
       <c r="X20" t="n">
-        <v>616.4291326937367</v>
+        <v>616.4291326937365</v>
       </c>
       <c r="Y20" t="n">
-        <v>531.9842737865915</v>
+        <v>531.9842737865913</v>
       </c>
     </row>
     <row r="21">
@@ -5805,76 +5805,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>434.2710725858012</v>
+        <v>201.7150249141627</v>
       </c>
       <c r="C21" t="n">
-        <v>434.2710725858012</v>
+        <v>14.80340064232921</v>
       </c>
       <c r="D21" t="n">
-        <v>434.2710725858012</v>
+        <v>14.80340064232921</v>
       </c>
       <c r="E21" t="n">
-        <v>434.2710725858012</v>
+        <v>14.80340064232921</v>
       </c>
       <c r="F21" t="n">
-        <v>273.8433563030453</v>
+        <v>14.80340064232921</v>
       </c>
       <c r="G21" t="n">
-        <v>123.5865437657976</v>
+        <v>14.80340064232921</v>
       </c>
       <c r="H21" t="n">
-        <v>123.5865437657976</v>
+        <v>14.80340064232921</v>
       </c>
       <c r="I21" t="n">
-        <v>14.80340064232922</v>
+        <v>14.80340064232921</v>
       </c>
       <c r="J21" t="n">
-        <v>14.80340064232922</v>
+        <v>14.80340064232921</v>
       </c>
       <c r="K21" t="n">
-        <v>51.22565457935591</v>
+        <v>51.2256545793559</v>
       </c>
       <c r="L21" t="n">
-        <v>166.4864121176045</v>
+        <v>166.4864121176043</v>
       </c>
       <c r="M21" t="n">
-        <v>345.7449438834814</v>
+        <v>345.7449438834813</v>
       </c>
       <c r="N21" t="n">
-        <v>528.9370268323055</v>
+        <v>528.9370268323053</v>
       </c>
       <c r="O21" t="n">
-        <v>658.3673160164436</v>
+        <v>658.3673160164434</v>
       </c>
       <c r="P21" t="n">
-        <v>740.1700321164608</v>
+        <v>740.1700321164606</v>
       </c>
       <c r="Q21" t="n">
-        <v>731.9882286742005</v>
+        <v>740.1700321164606</v>
       </c>
       <c r="R21" t="n">
-        <v>731.9882286742005</v>
+        <v>740.1700321164606</v>
       </c>
       <c r="S21" t="n">
-        <v>731.9882286742005</v>
+        <v>740.1700321164606</v>
       </c>
       <c r="T21" t="n">
-        <v>731.9882286742005</v>
+        <v>553.2584078446271</v>
       </c>
       <c r="U21" t="n">
-        <v>731.9882286742005</v>
+        <v>366.3467835727936</v>
       </c>
       <c r="V21" t="n">
-        <v>612.8069255127364</v>
+        <v>366.3467835727936</v>
       </c>
       <c r="W21" t="n">
-        <v>612.8069255127364</v>
+        <v>201.7150249141627</v>
       </c>
       <c r="X21" t="n">
-        <v>612.8069255127364</v>
+        <v>201.7150249141627</v>
       </c>
       <c r="Y21" t="n">
-        <v>612.8069255127364</v>
+        <v>201.7150249141627</v>
       </c>
     </row>
     <row r="22">
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>14.80340064232922</v>
+        <v>14.80340064232921</v>
       </c>
       <c r="C22" t="n">
-        <v>14.80340064232922</v>
+        <v>14.80340064232921</v>
       </c>
       <c r="D22" t="n">
-        <v>14.80340064232922</v>
+        <v>14.80340064232921</v>
       </c>
       <c r="E22" t="n">
-        <v>14.80340064232922</v>
+        <v>14.80340064232921</v>
       </c>
       <c r="F22" t="n">
-        <v>14.80340064232922</v>
+        <v>14.80340064232921</v>
       </c>
       <c r="G22" t="n">
-        <v>14.80340064232922</v>
+        <v>14.80340064232921</v>
       </c>
       <c r="H22" t="n">
-        <v>14.80340064232922</v>
+        <v>14.80340064232921</v>
       </c>
       <c r="I22" t="n">
-        <v>14.80340064232922</v>
+        <v>14.80340064232921</v>
       </c>
       <c r="J22" t="n">
-        <v>14.80340064232922</v>
+        <v>14.80340064232921</v>
       </c>
       <c r="K22" t="n">
-        <v>14.80340064232922</v>
+        <v>14.80340064232921</v>
       </c>
       <c r="L22" t="n">
-        <v>14.80340064232922</v>
+        <v>14.80340064232921</v>
       </c>
       <c r="M22" t="n">
-        <v>14.80340064232922</v>
+        <v>14.80340064232921</v>
       </c>
       <c r="N22" t="n">
-        <v>14.80340064232922</v>
+        <v>14.80340064232921</v>
       </c>
       <c r="O22" t="n">
-        <v>14.80340064232922</v>
+        <v>14.80340064232921</v>
       </c>
       <c r="P22" t="n">
-        <v>14.80340064232922</v>
+        <v>14.80340064232921</v>
       </c>
       <c r="Q22" t="n">
-        <v>14.80340064232922</v>
+        <v>14.80340064232921</v>
       </c>
       <c r="R22" t="n">
-        <v>14.80340064232922</v>
+        <v>14.80340064232921</v>
       </c>
       <c r="S22" t="n">
-        <v>14.80340064232922</v>
+        <v>14.80340064232921</v>
       </c>
       <c r="T22" t="n">
-        <v>14.80340064232922</v>
+        <v>14.80340064232921</v>
       </c>
       <c r="U22" t="n">
-        <v>14.80340064232922</v>
+        <v>14.80340064232921</v>
       </c>
       <c r="V22" t="n">
-        <v>14.80340064232922</v>
+        <v>14.80340064232921</v>
       </c>
       <c r="W22" t="n">
-        <v>14.80340064232922</v>
+        <v>14.80340064232921</v>
       </c>
       <c r="X22" t="n">
-        <v>14.80340064232922</v>
+        <v>14.80340064232921</v>
       </c>
       <c r="Y22" t="n">
-        <v>14.80340064232922</v>
+        <v>14.80340064232921</v>
       </c>
     </row>
     <row r="23">
@@ -5963,19 +5963,19 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>455.8205533043109</v>
+        <v>455.8205533043115</v>
       </c>
       <c r="C23" t="n">
-        <v>403.7798055459243</v>
+        <v>403.7798055459248</v>
       </c>
       <c r="D23" t="n">
-        <v>364.2979847965798</v>
+        <v>364.2979847965801</v>
       </c>
       <c r="E23" t="n">
-        <v>290.7689393811656</v>
+        <v>290.7689393811659</v>
       </c>
       <c r="F23" t="n">
-        <v>185.1991489370876</v>
+        <v>185.1991489370877</v>
       </c>
       <c r="G23" t="n">
         <v>63.81426727239136</v>
@@ -5984,55 +5984,55 @@
         <v>14.80340064232922</v>
       </c>
       <c r="I23" t="n">
-        <v>39.18538340991694</v>
+        <v>14.80340064232922</v>
       </c>
       <c r="J23" t="n">
-        <v>39.18538340991694</v>
+        <v>14.80340064232922</v>
       </c>
       <c r="K23" t="n">
-        <v>222.377466358741</v>
+        <v>14.80340064232922</v>
       </c>
       <c r="L23" t="n">
-        <v>405.569549307565</v>
+        <v>58.7094597949406</v>
       </c>
       <c r="M23" t="n">
-        <v>588.761632256389</v>
+        <v>241.9015427437647</v>
       </c>
       <c r="N23" t="n">
-        <v>660.9068577356018</v>
+        <v>425.0936256925887</v>
       </c>
       <c r="O23" t="n">
-        <v>692.1221896100852</v>
+        <v>456.3089575670722</v>
       </c>
       <c r="P23" t="n">
-        <v>692.1221896100852</v>
+        <v>594.7410053608425</v>
       </c>
       <c r="Q23" t="n">
-        <v>692.1221896100852</v>
+        <v>594.7410053608425</v>
       </c>
       <c r="R23" t="n">
-        <v>692.1221896100852</v>
+        <v>594.7410053608425</v>
       </c>
       <c r="S23" t="n">
-        <v>692.1221896100852</v>
+        <v>664.7910298345953</v>
       </c>
       <c r="T23" t="n">
-        <v>692.1221896100852</v>
+        <v>740.1700321164608</v>
       </c>
       <c r="U23" t="n">
         <v>740.1700321164608</v>
       </c>
       <c r="V23" t="n">
-        <v>717.7512174611311</v>
+        <v>717.7512174611315</v>
       </c>
       <c r="W23" t="n">
-        <v>678.1438369304333</v>
+        <v>678.1438369304338</v>
       </c>
       <c r="X23" t="n">
-        <v>616.4291326937363</v>
+        <v>616.4291326937368</v>
       </c>
       <c r="Y23" t="n">
-        <v>531.984273786591</v>
+        <v>531.9842737865915</v>
       </c>
     </row>
     <row r="24">
@@ -6069,7 +6069,7 @@
         <v>14.80340064232922</v>
       </c>
       <c r="K24" t="n">
-        <v>51.22565457935591</v>
+        <v>51.22565457935593</v>
       </c>
       <c r="L24" t="n">
         <v>166.4864121176045</v>
@@ -6078,37 +6078,37 @@
         <v>345.7449438834814</v>
       </c>
       <c r="N24" t="n">
-        <v>528.9370268323054</v>
+        <v>528.9370268323055</v>
       </c>
       <c r="O24" t="n">
-        <v>658.3673160164435</v>
+        <v>658.3673160164436</v>
       </c>
       <c r="P24" t="n">
-        <v>740.1700321164607</v>
+        <v>740.1700321164608</v>
       </c>
       <c r="Q24" t="n">
-        <v>740.1700321164607</v>
+        <v>731.9882286742005</v>
       </c>
       <c r="R24" t="n">
-        <v>603.4848578669548</v>
+        <v>731.9882286742005</v>
       </c>
       <c r="S24" t="n">
-        <v>603.4848578669548</v>
+        <v>545.0766044023669</v>
       </c>
       <c r="T24" t="n">
-        <v>603.4848578669548</v>
+        <v>545.0766044023669</v>
       </c>
       <c r="U24" t="n">
-        <v>416.5732335951213</v>
+        <v>545.0766044023669</v>
       </c>
       <c r="V24" t="n">
-        <v>416.5732335951213</v>
+        <v>388.6266491859963</v>
       </c>
       <c r="W24" t="n">
-        <v>229.6616093232877</v>
+        <v>201.7150249141628</v>
       </c>
       <c r="X24" t="n">
-        <v>201.7150249141628</v>
+        <v>14.80340064232922</v>
       </c>
       <c r="Y24" t="n">
         <v>14.80340064232922</v>
@@ -6203,73 +6203,73 @@
         <v>1014.800009939394</v>
       </c>
       <c r="C26" t="n">
-        <v>877.6608929454179</v>
+        <v>877.6608929454187</v>
       </c>
       <c r="D26" t="n">
-        <v>753.0807029604841</v>
+        <v>753.0807029604848</v>
       </c>
       <c r="E26" t="n">
-        <v>594.4532883094809</v>
+        <v>594.4532883094813</v>
       </c>
       <c r="F26" t="n">
-        <v>403.7851286298135</v>
+        <v>403.7851286298138</v>
       </c>
       <c r="G26" t="n">
-        <v>197.3018777295279</v>
+        <v>197.3018777295283</v>
       </c>
       <c r="H26" t="n">
-        <v>63.19264186387659</v>
+        <v>63.19264186387716</v>
       </c>
       <c r="I26" t="n">
-        <v>35.65062418458933</v>
+        <v>35.65062418458935</v>
       </c>
       <c r="J26" t="n">
-        <v>170.4163377961014</v>
+        <v>170.4163377961013</v>
       </c>
       <c r="K26" t="n">
-        <v>373.7809015398694</v>
+        <v>373.7809015398691</v>
       </c>
       <c r="L26" t="n">
-        <v>629.9803545340521</v>
+        <v>629.9803545340517</v>
       </c>
       <c r="M26" t="n">
-        <v>920.0036586593214</v>
+        <v>920.0036586593208</v>
       </c>
       <c r="N26" t="n">
-        <v>1204.442277980106</v>
+        <v>1204.442277980105</v>
       </c>
       <c r="O26" t="n">
-        <v>1447.951003696161</v>
+        <v>1447.951003696159</v>
       </c>
       <c r="P26" t="n">
-        <v>1642.738388484971</v>
+        <v>1642.738388484973</v>
       </c>
       <c r="Q26" t="n">
-        <v>1764.290987204414</v>
+        <v>1764.290987204416</v>
       </c>
       <c r="R26" t="n">
-        <v>1782.531209229466</v>
+        <v>1782.531209229467</v>
       </c>
       <c r="S26" t="n">
-        <v>1768.905163709572</v>
+        <v>1768.905163709574</v>
       </c>
       <c r="T26" t="n">
-        <v>1760.716295832892</v>
+        <v>1760.716295832893</v>
       </c>
       <c r="U26" t="n">
-        <v>1724.641334929488</v>
+        <v>1724.64133492949</v>
       </c>
       <c r="V26" t="n">
-        <v>1617.12415103857</v>
+        <v>1617.124151038571</v>
       </c>
       <c r="W26" t="n">
-        <v>1492.418401272283</v>
+        <v>1492.418401272284</v>
       </c>
       <c r="X26" t="n">
-        <v>1345.605327799997</v>
+        <v>1345.605327799998</v>
       </c>
       <c r="Y26" t="n">
-        <v>1176.062099657263</v>
+        <v>1176.062099657264</v>
       </c>
     </row>
     <row r="27">
@@ -6279,34 +6279,34 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>335.0452762233694</v>
+        <v>35.65062418458935</v>
       </c>
       <c r="C27" t="n">
-        <v>335.0452762233694</v>
+        <v>35.65062418458935</v>
       </c>
       <c r="D27" t="n">
-        <v>209.2138280631749</v>
+        <v>35.65062418458935</v>
       </c>
       <c r="E27" t="n">
-        <v>35.65062418458933</v>
+        <v>35.65062418458935</v>
       </c>
       <c r="F27" t="n">
-        <v>35.65062418458933</v>
+        <v>35.65062418458935</v>
       </c>
       <c r="G27" t="n">
-        <v>35.65062418458933</v>
+        <v>35.65062418458935</v>
       </c>
       <c r="H27" t="n">
-        <v>35.65062418458933</v>
+        <v>35.65062418458935</v>
       </c>
       <c r="I27" t="n">
-        <v>35.65062418458933</v>
+        <v>35.65062418458935</v>
       </c>
       <c r="J27" t="n">
-        <v>35.65062418458933</v>
+        <v>35.65062418458935</v>
       </c>
       <c r="K27" t="n">
-        <v>72.07287812161601</v>
+        <v>72.07287812161604</v>
       </c>
       <c r="L27" t="n">
         <v>187.3336356598646</v>
@@ -6324,31 +6324,31 @@
         <v>780.2480339780875</v>
       </c>
       <c r="Q27" t="n">
-        <v>780.2480339780875</v>
+        <v>772.0662305358272</v>
       </c>
       <c r="R27" t="n">
-        <v>643.5628597285817</v>
+        <v>635.3810562863214</v>
       </c>
       <c r="S27" t="n">
-        <v>449.8559416211561</v>
+        <v>635.3810562863214</v>
       </c>
       <c r="T27" t="n">
-        <v>449.2781560046644</v>
+        <v>634.8032706698294</v>
       </c>
       <c r="U27" t="n">
-        <v>426.2570124227012</v>
+        <v>560.0699796912809</v>
       </c>
       <c r="V27" t="n">
-        <v>399.781103980015</v>
+        <v>533.5940712485944</v>
       </c>
       <c r="W27" t="n">
-        <v>346.9863443639859</v>
+        <v>264.1955019788858</v>
       </c>
       <c r="X27" t="n">
-        <v>344.082159634362</v>
+        <v>44.6875075955822</v>
       </c>
       <c r="Y27" t="n">
-        <v>335.0452762233694</v>
+        <v>35.65062418458935</v>
       </c>
     </row>
     <row r="28">
@@ -6358,76 +6358,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>35.65062418458933</v>
+        <v>35.65062418458935</v>
       </c>
       <c r="C28" t="n">
-        <v>35.65062418458933</v>
+        <v>83.15140886390799</v>
       </c>
       <c r="D28" t="n">
-        <v>35.65062418458933</v>
+        <v>83.15140886390799</v>
       </c>
       <c r="E28" t="n">
-        <v>35.65062418458933</v>
+        <v>83.15140886390799</v>
       </c>
       <c r="F28" t="n">
-        <v>35.65062418458933</v>
+        <v>83.15140886390799</v>
       </c>
       <c r="G28" t="n">
-        <v>35.65062418458933</v>
+        <v>105.9035996038697</v>
       </c>
       <c r="H28" t="n">
-        <v>83.70672834829085</v>
+        <v>105.9035996038697</v>
       </c>
       <c r="I28" t="n">
-        <v>83.70672834829085</v>
+        <v>105.9035996038697</v>
       </c>
       <c r="J28" t="n">
-        <v>83.70672834829085</v>
+        <v>105.9035996038697</v>
       </c>
       <c r="K28" t="n">
-        <v>83.70672834829085</v>
+        <v>105.9035996038697</v>
       </c>
       <c r="L28" t="n">
-        <v>83.70672834829085</v>
+        <v>105.9035996038697</v>
       </c>
       <c r="M28" t="n">
-        <v>259.3354981817654</v>
+        <v>105.9035996038697</v>
       </c>
       <c r="N28" t="n">
-        <v>259.3354981817654</v>
+        <v>105.9035996038697</v>
       </c>
       <c r="O28" t="n">
-        <v>259.3354981817654</v>
+        <v>105.9035996038697</v>
       </c>
       <c r="P28" t="n">
-        <v>259.3354981817654</v>
+        <v>259.3354981817668</v>
       </c>
       <c r="Q28" t="n">
-        <v>259.3354981817654</v>
+        <v>259.3354981817668</v>
       </c>
       <c r="R28" t="n">
-        <v>259.3354981817654</v>
+        <v>259.3354981817668</v>
       </c>
       <c r="S28" t="n">
-        <v>237.9808350159651</v>
+        <v>237.9808350159662</v>
       </c>
       <c r="T28" t="n">
-        <v>228.5279883305267</v>
+        <v>228.5279883305277</v>
       </c>
       <c r="U28" t="n">
-        <v>153.5590729397657</v>
+        <v>153.5590729397665</v>
       </c>
       <c r="V28" t="n">
-        <v>122.5780187707687</v>
+        <v>122.5780187707693</v>
       </c>
       <c r="W28" t="n">
-        <v>45.93868995037231</v>
+        <v>45.93868995037273</v>
       </c>
       <c r="X28" t="n">
-        <v>38.38143353512016</v>
+        <v>38.38143353512038</v>
       </c>
       <c r="Y28" t="n">
-        <v>35.65062418458933</v>
+        <v>35.65062418458935</v>
       </c>
     </row>
     <row r="29">
@@ -6440,37 +6440,37 @@
         <v>1014.800009939394</v>
       </c>
       <c r="C29" t="n">
-        <v>877.6608929454181</v>
+        <v>877.6608929454184</v>
       </c>
       <c r="D29" t="n">
-        <v>753.0807029604844</v>
+        <v>753.0807029604846</v>
       </c>
       <c r="E29" t="n">
-        <v>594.453288309481</v>
+        <v>594.4532883094812</v>
       </c>
       <c r="F29" t="n">
-        <v>403.7851286298137</v>
+        <v>403.7851286298139</v>
       </c>
       <c r="G29" t="n">
-        <v>197.3018777295283</v>
+        <v>197.3018777295285</v>
       </c>
       <c r="H29" t="n">
-        <v>63.19264186387701</v>
+        <v>63.19264186387699</v>
       </c>
       <c r="I29" t="n">
-        <v>35.65062418458934</v>
+        <v>35.65062418458935</v>
       </c>
       <c r="J29" t="n">
-        <v>170.4163377961014</v>
+        <v>170.4163377961015</v>
       </c>
       <c r="K29" t="n">
-        <v>373.7809015398693</v>
+        <v>373.7809015398694</v>
       </c>
       <c r="L29" t="n">
         <v>629.9803545340521</v>
       </c>
       <c r="M29" t="n">
-        <v>920.0036586593218</v>
+        <v>920.0036586593214</v>
       </c>
       <c r="N29" t="n">
         <v>1204.442277980106</v>
@@ -6497,7 +6497,7 @@
         <v>1724.641334929489</v>
       </c>
       <c r="V29" t="n">
-        <v>1617.124151038571</v>
+        <v>1617.12415103857</v>
       </c>
       <c r="W29" t="n">
         <v>1492.418401272284</v>
@@ -6516,31 +6516,31 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>232.2297492729411</v>
+        <v>35.65062418458935</v>
       </c>
       <c r="C30" t="n">
-        <v>42.81747500590478</v>
+        <v>35.65062418458935</v>
       </c>
       <c r="D30" t="n">
-        <v>42.81747500590478</v>
+        <v>35.65062418458935</v>
       </c>
       <c r="E30" t="n">
-        <v>42.81747500590478</v>
+        <v>35.65062418458935</v>
       </c>
       <c r="F30" t="n">
-        <v>35.65062418458934</v>
+        <v>35.65062418458935</v>
       </c>
       <c r="G30" t="n">
-        <v>35.65062418458934</v>
+        <v>35.65062418458935</v>
       </c>
       <c r="H30" t="n">
-        <v>35.65062418458934</v>
+        <v>35.65062418458935</v>
       </c>
       <c r="I30" t="n">
-        <v>35.65062418458934</v>
+        <v>35.65062418458935</v>
       </c>
       <c r="J30" t="n">
-        <v>35.65062418458934</v>
+        <v>35.65062418458935</v>
       </c>
       <c r="K30" t="n">
         <v>72.07287812161604</v>
@@ -6564,28 +6564,28 @@
         <v>780.2480339780875</v>
       </c>
       <c r="R30" t="n">
-        <v>780.2480339780875</v>
+        <v>643.5628597285817</v>
       </c>
       <c r="S30" t="n">
-        <v>780.2480339780875</v>
+        <v>449.8559416211561</v>
       </c>
       <c r="T30" t="n">
-        <v>563.0664387079161</v>
+        <v>366.4873136195642</v>
       </c>
       <c r="U30" t="n">
-        <v>540.0452951259527</v>
+        <v>126.8623603839212</v>
       </c>
       <c r="V30" t="n">
-        <v>296.9655770295868</v>
+        <v>100.386451941235</v>
       </c>
       <c r="W30" t="n">
-        <v>244.1708174135578</v>
+        <v>47.591692325206</v>
       </c>
       <c r="X30" t="n">
-        <v>241.2666326839338</v>
+        <v>44.68750759558202</v>
       </c>
       <c r="Y30" t="n">
-        <v>232.2297492729411</v>
+        <v>35.65062418458935</v>
       </c>
     </row>
     <row r="31">
@@ -6595,76 +6595,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>35.65062418458934</v>
+        <v>35.65062418458935</v>
       </c>
       <c r="C31" t="n">
-        <v>62.72301224205654</v>
+        <v>35.65062418458935</v>
       </c>
       <c r="D31" t="n">
-        <v>62.72301224205654</v>
+        <v>73.26099131382026</v>
       </c>
       <c r="E31" t="n">
-        <v>62.72301224205654</v>
+        <v>73.26099131382026</v>
       </c>
       <c r="F31" t="n">
-        <v>62.72301224205654</v>
+        <v>73.26099131382026</v>
       </c>
       <c r="G31" t="n">
-        <v>62.72301224205654</v>
+        <v>73.26099131382026</v>
       </c>
       <c r="H31" t="n">
-        <v>62.72301224205654</v>
+        <v>73.26099131382026</v>
       </c>
       <c r="I31" t="n">
-        <v>62.72301224205654</v>
+        <v>73.26099131382026</v>
       </c>
       <c r="J31" t="n">
-        <v>62.72301224205654</v>
+        <v>73.26099131382026</v>
       </c>
       <c r="K31" t="n">
-        <v>62.72301224205654</v>
+        <v>73.26099131382026</v>
       </c>
       <c r="L31" t="n">
-        <v>62.72301224205654</v>
+        <v>73.26099131382026</v>
       </c>
       <c r="M31" t="n">
-        <v>248.7975191100018</v>
+        <v>259.3354981817656</v>
       </c>
       <c r="N31" t="n">
-        <v>248.7975191100018</v>
+        <v>259.3354981817656</v>
       </c>
       <c r="O31" t="n">
-        <v>248.7975191100018</v>
+        <v>259.3354981817656</v>
       </c>
       <c r="P31" t="n">
-        <v>248.7975191100018</v>
+        <v>259.3354981817656</v>
       </c>
       <c r="Q31" t="n">
-        <v>248.7975191100018</v>
+        <v>259.3354981817656</v>
       </c>
       <c r="R31" t="n">
-        <v>259.3354981817658</v>
+        <v>259.3354981817656</v>
       </c>
       <c r="S31" t="n">
-        <v>237.9808350159654</v>
+        <v>237.9808350159652</v>
       </c>
       <c r="T31" t="n">
-        <v>228.527988330527</v>
+        <v>228.5279883305269</v>
       </c>
       <c r="U31" t="n">
-        <v>153.5590729397659</v>
+        <v>153.5590729397658</v>
       </c>
       <c r="V31" t="n">
-        <v>122.5780187707689</v>
+        <v>122.5780187707688</v>
       </c>
       <c r="W31" t="n">
-        <v>45.93868995037244</v>
+        <v>45.93868995037239</v>
       </c>
       <c r="X31" t="n">
-        <v>38.38143353512023</v>
+        <v>38.38143353512021</v>
       </c>
       <c r="Y31" t="n">
-        <v>35.65062418458934</v>
+        <v>35.65062418458935</v>
       </c>
     </row>
     <row r="32">
@@ -6674,28 +6674,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1014.800009939394</v>
+        <v>1014.800009939393</v>
       </c>
       <c r="C32" t="n">
-        <v>877.6608929454184</v>
+        <v>877.6608929454168</v>
       </c>
       <c r="D32" t="n">
-        <v>753.0807029604846</v>
+        <v>753.080702960483</v>
       </c>
       <c r="E32" t="n">
-        <v>594.4532883094813</v>
+        <v>594.4532883094796</v>
       </c>
       <c r="F32" t="n">
-        <v>403.7851286298139</v>
+        <v>403.7851286298123</v>
       </c>
       <c r="G32" t="n">
-        <v>197.3018777295283</v>
+        <v>197.301877729527</v>
       </c>
       <c r="H32" t="n">
-        <v>63.19264186387698</v>
+        <v>63.19264186387701</v>
       </c>
       <c r="I32" t="n">
-        <v>35.65062418458934</v>
+        <v>35.65062418458935</v>
       </c>
       <c r="J32" t="n">
         <v>170.4163377961014</v>
@@ -6704,10 +6704,10 @@
         <v>373.7809015398694</v>
       </c>
       <c r="L32" t="n">
-        <v>629.9803545340523</v>
+        <v>629.9803545340521</v>
       </c>
       <c r="M32" t="n">
-        <v>920.0036586593214</v>
+        <v>920.0036586593219</v>
       </c>
       <c r="N32" t="n">
         <v>1204.442277980106</v>
@@ -6734,16 +6734,16 @@
         <v>1724.641334929488</v>
       </c>
       <c r="V32" t="n">
-        <v>1617.12415103857</v>
+        <v>1617.124151038569</v>
       </c>
       <c r="W32" t="n">
-        <v>1492.418401272283</v>
+        <v>1492.418401272282</v>
       </c>
       <c r="X32" t="n">
-        <v>1345.605327799997</v>
+        <v>1345.605327799996</v>
       </c>
       <c r="Y32" t="n">
-        <v>1176.062099657263</v>
+        <v>1176.062099657262</v>
       </c>
     </row>
     <row r="33">
@@ -6753,31 +6753,31 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>95.54457502343531</v>
+        <v>35.65062418458935</v>
       </c>
       <c r="C33" t="n">
-        <v>95.54457502343531</v>
+        <v>35.65062418458935</v>
       </c>
       <c r="D33" t="n">
-        <v>95.54457502343531</v>
+        <v>35.65062418458935</v>
       </c>
       <c r="E33" t="n">
-        <v>35.65062418458934</v>
+        <v>35.65062418458935</v>
       </c>
       <c r="F33" t="n">
-        <v>35.65062418458934</v>
+        <v>35.65062418458935</v>
       </c>
       <c r="G33" t="n">
-        <v>35.65062418458934</v>
+        <v>35.65062418458935</v>
       </c>
       <c r="H33" t="n">
-        <v>35.65062418458934</v>
+        <v>35.65062418458935</v>
       </c>
       <c r="I33" t="n">
-        <v>35.65062418458934</v>
+        <v>35.65062418458935</v>
       </c>
       <c r="J33" t="n">
-        <v>35.65062418458934</v>
+        <v>35.65062418458935</v>
       </c>
       <c r="K33" t="n">
         <v>72.07287812161604</v>
@@ -6798,31 +6798,31 @@
         <v>780.2480339780875</v>
       </c>
       <c r="Q33" t="n">
-        <v>780.2480339780875</v>
+        <v>772.0662305358272</v>
       </c>
       <c r="R33" t="n">
-        <v>643.5628597285817</v>
+        <v>635.3810562863214</v>
       </c>
       <c r="S33" t="n">
-        <v>643.5628597285817</v>
+        <v>441.6741381788959</v>
       </c>
       <c r="T33" t="n">
-        <v>426.3812644584102</v>
+        <v>441.0963525624041</v>
       </c>
       <c r="U33" t="n">
-        <v>403.3601208764469</v>
+        <v>201.4713993267611</v>
       </c>
       <c r="V33" t="n">
-        <v>160.280402780081</v>
+        <v>174.9954908840749</v>
       </c>
       <c r="W33" t="n">
-        <v>107.485643164052</v>
+        <v>122.2007312680458</v>
       </c>
       <c r="X33" t="n">
-        <v>104.581458434428</v>
+        <v>44.68750759558205</v>
       </c>
       <c r="Y33" t="n">
-        <v>95.54457502343531</v>
+        <v>35.65062418458935</v>
       </c>
     </row>
     <row r="34">
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>72.10326656784237</v>
+        <v>35.65062418458935</v>
       </c>
       <c r="C34" t="n">
-        <v>72.10326656784237</v>
+        <v>35.65062418458935</v>
       </c>
       <c r="D34" t="n">
-        <v>72.10326656784237</v>
+        <v>35.65062418458935</v>
       </c>
       <c r="E34" t="n">
-        <v>72.10326656784237</v>
+        <v>35.65062418458935</v>
       </c>
       <c r="F34" t="n">
-        <v>72.10326656784237</v>
+        <v>35.65062418458935</v>
       </c>
       <c r="G34" t="n">
-        <v>72.10326656784237</v>
+        <v>35.65062418458935</v>
       </c>
       <c r="H34" t="n">
-        <v>72.10326656784237</v>
+        <v>35.65062418458935</v>
       </c>
       <c r="I34" t="n">
-        <v>120.9516106855506</v>
+        <v>35.65062418458935</v>
       </c>
       <c r="J34" t="n">
-        <v>120.9516106855506</v>
+        <v>35.65062418458935</v>
       </c>
       <c r="K34" t="n">
-        <v>120.9516106855506</v>
+        <v>35.65062418458935</v>
       </c>
       <c r="L34" t="n">
-        <v>259.3354981817656</v>
+        <v>35.65062418458935</v>
       </c>
       <c r="M34" t="n">
-        <v>259.3354981817656</v>
+        <v>64.62142852411853</v>
       </c>
       <c r="N34" t="n">
-        <v>259.3354981817656</v>
+        <v>259.3354981817658</v>
       </c>
       <c r="O34" t="n">
-        <v>259.3354981817656</v>
+        <v>259.3354981817658</v>
       </c>
       <c r="P34" t="n">
-        <v>259.3354981817656</v>
+        <v>259.3354981817658</v>
       </c>
       <c r="Q34" t="n">
-        <v>259.3354981817656</v>
+        <v>259.3354981817658</v>
       </c>
       <c r="R34" t="n">
-        <v>259.3354981817656</v>
+        <v>259.3354981817658</v>
       </c>
       <c r="S34" t="n">
-        <v>237.9808350159652</v>
+        <v>237.9808350159654</v>
       </c>
       <c r="T34" t="n">
-        <v>228.5279883305269</v>
+        <v>228.527988330527</v>
       </c>
       <c r="U34" t="n">
-        <v>153.5590729397658</v>
+        <v>153.5590729397659</v>
       </c>
       <c r="V34" t="n">
-        <v>122.5780187707688</v>
+        <v>122.5780187707689</v>
       </c>
       <c r="W34" t="n">
-        <v>45.93868995037239</v>
+        <v>45.93868995037245</v>
       </c>
       <c r="X34" t="n">
-        <v>38.3814335351202</v>
+        <v>38.38143353512024</v>
       </c>
       <c r="Y34" t="n">
-        <v>35.65062418458934</v>
+        <v>35.65062418458935</v>
       </c>
     </row>
     <row r="35">
@@ -6911,76 +6911,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>623.3992791660321</v>
+        <v>623.3992791660323</v>
       </c>
       <c r="C35" t="n">
-        <v>544.4360475806805</v>
+        <v>544.4360475806807</v>
       </c>
       <c r="D35" t="n">
-        <v>478.0317430043708</v>
+        <v>478.031743004371</v>
       </c>
       <c r="E35" t="n">
-        <v>377.5802137619916</v>
+        <v>377.5802137619917</v>
       </c>
       <c r="F35" t="n">
         <v>245.0879394909484</v>
       </c>
       <c r="G35" t="n">
-        <v>96.7805739992873</v>
+        <v>96.78057399928731</v>
       </c>
       <c r="H35" t="n">
-        <v>20.84722354226013</v>
+        <v>20.84722354226014</v>
       </c>
       <c r="I35" t="n">
-        <v>20.84722354226013</v>
+        <v>20.84722354226014</v>
       </c>
       <c r="J35" t="n">
-        <v>20.84722354226013</v>
+        <v>212.6311224427648</v>
       </c>
       <c r="K35" t="n">
-        <v>150.4731574541123</v>
+        <v>212.6311224427648</v>
       </c>
       <c r="L35" t="n">
-        <v>194.3792166067237</v>
+        <v>256.5371815953761</v>
       </c>
       <c r="M35" t="n">
-        <v>452.3636079421928</v>
+        <v>514.5215729308453</v>
       </c>
       <c r="N35" t="n">
-        <v>710.3479992776619</v>
+        <v>772.5059642663145</v>
       </c>
       <c r="O35" t="n">
-        <v>741.5633311521453</v>
+        <v>949.7056031550053</v>
       </c>
       <c r="P35" t="n">
-        <v>993.3689012299492</v>
+        <v>949.7056031550053</v>
       </c>
       <c r="Q35" t="n">
-        <v>993.3689012299492</v>
+        <v>949.7056031550053</v>
       </c>
       <c r="R35" t="n">
-        <v>993.3689012299492</v>
+        <v>949.7056031550053</v>
       </c>
       <c r="S35" t="n">
-        <v>993.3689012299492</v>
+        <v>993.3689012299496</v>
       </c>
       <c r="T35" t="n">
-        <v>1042.361177113006</v>
+        <v>1042.361177113007</v>
       </c>
       <c r="U35" t="n">
-        <v>1042.361177113006</v>
+        <v>1042.361177113007</v>
       </c>
       <c r="V35" t="n">
-        <v>993.0198786307121</v>
+        <v>993.0198786307124</v>
       </c>
       <c r="W35" t="n">
-        <v>926.4900142730494</v>
+        <v>926.4900142730496</v>
       </c>
       <c r="X35" t="n">
-        <v>837.8528262093873</v>
+        <v>837.8528262093877</v>
       </c>
       <c r="Y35" t="n">
-        <v>726.4854834752771</v>
+        <v>726.4854834752773</v>
       </c>
     </row>
     <row r="36">
@@ -6990,34 +6990,34 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>274.5581585614891</v>
+        <v>20.84722354226014</v>
       </c>
       <c r="C36" t="n">
-        <v>85.14588429445283</v>
+        <v>20.84722354226014</v>
       </c>
       <c r="D36" t="n">
-        <v>85.14588429445283</v>
+        <v>20.84722354226014</v>
       </c>
       <c r="E36" t="n">
-        <v>85.14588429445283</v>
+        <v>20.84722354226014</v>
       </c>
       <c r="F36" t="n">
-        <v>85.14588429445283</v>
+        <v>20.84722354226014</v>
       </c>
       <c r="G36" t="n">
-        <v>85.14588429445283</v>
+        <v>20.84722354226014</v>
       </c>
       <c r="H36" t="n">
-        <v>20.84722354226013</v>
+        <v>20.84722354226014</v>
       </c>
       <c r="I36" t="n">
-        <v>20.84722354226013</v>
+        <v>20.84722354226014</v>
       </c>
       <c r="J36" t="n">
-        <v>20.84722354226013</v>
+        <v>20.84722354226014</v>
       </c>
       <c r="K36" t="n">
-        <v>57.26947747928682</v>
+        <v>57.26947747928683</v>
       </c>
       <c r="L36" t="n">
         <v>172.5302350175354</v>
@@ -7035,31 +7035,31 @@
         <v>765.4446333357583</v>
       </c>
       <c r="Q36" t="n">
-        <v>757.2628298934981</v>
+        <v>765.4446333357583</v>
       </c>
       <c r="R36" t="n">
-        <v>757.2628298934981</v>
+        <v>765.4446333357583</v>
       </c>
       <c r="S36" t="n">
-        <v>757.2628298934981</v>
+        <v>571.7377152283328</v>
       </c>
       <c r="T36" t="n">
-        <v>757.2628298934981</v>
+        <v>571.7377152283328</v>
       </c>
       <c r="U36" t="n">
-        <v>517.637876657855</v>
+        <v>571.7377152283328</v>
       </c>
       <c r="V36" t="n">
-        <v>274.5581585614891</v>
+        <v>503.5777373985453</v>
       </c>
       <c r="W36" t="n">
-        <v>274.5581585614891</v>
+        <v>240.3552179255638</v>
       </c>
       <c r="X36" t="n">
-        <v>274.5581585614891</v>
+        <v>20.84722354226014</v>
       </c>
       <c r="Y36" t="n">
-        <v>274.5581585614891</v>
+        <v>20.84722354226014</v>
       </c>
     </row>
     <row r="37">
@@ -7069,76 +7069,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>20.84722354226013</v>
+        <v>20.84722354226014</v>
       </c>
       <c r="C37" t="n">
-        <v>20.84722354226013</v>
+        <v>20.84722354226014</v>
       </c>
       <c r="D37" t="n">
-        <v>20.84722354226013</v>
+        <v>20.84722354226014</v>
       </c>
       <c r="E37" t="n">
-        <v>20.84722354226013</v>
+        <v>20.84722354226014</v>
       </c>
       <c r="F37" t="n">
-        <v>20.84722354226013</v>
+        <v>20.84722354226014</v>
       </c>
       <c r="G37" t="n">
-        <v>20.84722354226013</v>
+        <v>20.84722354226014</v>
       </c>
       <c r="H37" t="n">
-        <v>20.84722354226013</v>
+        <v>20.84722354226014</v>
       </c>
       <c r="I37" t="n">
-        <v>20.84722354226013</v>
+        <v>20.84722354226014</v>
       </c>
       <c r="J37" t="n">
-        <v>20.84722354226013</v>
+        <v>20.84722354226014</v>
       </c>
       <c r="K37" t="n">
-        <v>20.84722354226013</v>
+        <v>20.84722354226014</v>
       </c>
       <c r="L37" t="n">
-        <v>56.10369693616937</v>
+        <v>20.84722354226014</v>
       </c>
       <c r="M37" t="n">
-        <v>56.10369693616937</v>
+        <v>20.84722354226014</v>
       </c>
       <c r="N37" t="n">
-        <v>56.10369693616937</v>
+        <v>20.84722354226014</v>
       </c>
       <c r="O37" t="n">
-        <v>56.10369693616937</v>
+        <v>56.10369693616938</v>
       </c>
       <c r="P37" t="n">
-        <v>56.10369693616937</v>
+        <v>56.10369693616938</v>
       </c>
       <c r="Q37" t="n">
-        <v>56.10369693616937</v>
+        <v>56.10369693616938</v>
       </c>
       <c r="R37" t="n">
-        <v>56.10369693616937</v>
+        <v>56.10369693616938</v>
       </c>
       <c r="S37" t="n">
-        <v>56.10369693616937</v>
+        <v>56.10369693616938</v>
       </c>
       <c r="T37" t="n">
-        <v>56.10369693616937</v>
+        <v>56.10369693616938</v>
       </c>
       <c r="U37" t="n">
-        <v>39.31066695403244</v>
+        <v>39.31066695403246</v>
       </c>
       <c r="V37" t="n">
-        <v>39.31066695403244</v>
+        <v>39.31066695403246</v>
       </c>
       <c r="W37" t="n">
-        <v>20.84722354226013</v>
+        <v>20.84722354226014</v>
       </c>
       <c r="X37" t="n">
-        <v>20.84722354226013</v>
+        <v>20.84722354226014</v>
       </c>
       <c r="Y37" t="n">
-        <v>20.84722354226013</v>
+        <v>20.84722354226014</v>
       </c>
     </row>
     <row r="38">
@@ -7148,25 +7148,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>623.3992791660319</v>
+        <v>623.3992791660326</v>
       </c>
       <c r="C38" t="n">
-        <v>544.4360475806802</v>
+        <v>544.4360475806809</v>
       </c>
       <c r="D38" t="n">
-        <v>478.0317430043706</v>
+        <v>478.0317430043713</v>
       </c>
       <c r="E38" t="n">
-        <v>377.5802137619914</v>
+        <v>377.5802137619921</v>
       </c>
       <c r="F38" t="n">
-        <v>245.0879394909482</v>
+        <v>245.0879394909489</v>
       </c>
       <c r="G38" t="n">
-        <v>96.7805739992873</v>
+        <v>96.78057399928731</v>
       </c>
       <c r="H38" t="n">
-        <v>20.84722354226013</v>
+        <v>20.84722354226014</v>
       </c>
       <c r="I38" t="n">
         <v>50.8714773037828</v>
@@ -7178,46 +7178,46 @@
         <v>242.6553762042874</v>
       </c>
       <c r="L38" t="n">
-        <v>500.6397675397565</v>
+        <v>500.6397675397566</v>
       </c>
       <c r="M38" t="n">
-        <v>758.6241588752255</v>
+        <v>758.6241588752257</v>
       </c>
       <c r="N38" t="n">
-        <v>830.7693843544382</v>
+        <v>940.492453247899</v>
       </c>
       <c r="O38" t="n">
-        <v>896.4493778083375</v>
+        <v>971.7077851223825</v>
       </c>
       <c r="P38" t="n">
-        <v>896.4493778083375</v>
+        <v>971.7077851223825</v>
       </c>
       <c r="Q38" t="n">
-        <v>896.4493778083375</v>
+        <v>971.7077851223825</v>
       </c>
       <c r="R38" t="n">
-        <v>971.707785122382</v>
+        <v>971.7077851223825</v>
       </c>
       <c r="S38" t="n">
-        <v>971.707785122382</v>
+        <v>971.7077851223825</v>
       </c>
       <c r="T38" t="n">
-        <v>1020.700061005439</v>
+        <v>1020.70006100544</v>
       </c>
       <c r="U38" t="n">
-        <v>1042.361177113006</v>
+        <v>1042.361177113007</v>
       </c>
       <c r="V38" t="n">
-        <v>993.019878630712</v>
+        <v>993.0198786307126</v>
       </c>
       <c r="W38" t="n">
-        <v>926.4900142730494</v>
+        <v>926.4900142730498</v>
       </c>
       <c r="X38" t="n">
-        <v>837.8528262093873</v>
+        <v>837.8528262093878</v>
       </c>
       <c r="Y38" t="n">
-        <v>726.4854834752771</v>
+        <v>726.4854834752775</v>
       </c>
     </row>
     <row r="39">
@@ -7227,34 +7227,34 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>183.8880659905171</v>
+        <v>20.84722354226014</v>
       </c>
       <c r="C39" t="n">
-        <v>183.8880659905171</v>
+        <v>20.84722354226014</v>
       </c>
       <c r="D39" t="n">
-        <v>183.8880659905171</v>
+        <v>20.84722354226014</v>
       </c>
       <c r="E39" t="n">
-        <v>183.8880659905171</v>
+        <v>20.84722354226014</v>
       </c>
       <c r="F39" t="n">
-        <v>183.8880659905171</v>
+        <v>20.84722354226014</v>
       </c>
       <c r="G39" t="n">
-        <v>147.94684585033</v>
+        <v>20.84722354226014</v>
       </c>
       <c r="H39" t="n">
-        <v>20.84722354226013</v>
+        <v>20.84722354226014</v>
       </c>
       <c r="I39" t="n">
-        <v>20.84722354226013</v>
+        <v>20.84722354226014</v>
       </c>
       <c r="J39" t="n">
-        <v>20.84722354226013</v>
+        <v>20.84722354226014</v>
       </c>
       <c r="K39" t="n">
-        <v>57.26947747928682</v>
+        <v>57.26947747928683</v>
       </c>
       <c r="L39" t="n">
         <v>172.5302350175354</v>
@@ -7272,31 +7272,31 @@
         <v>765.4446333357583</v>
       </c>
       <c r="Q39" t="n">
-        <v>757.2628298934981</v>
+        <v>765.4446333357583</v>
       </c>
       <c r="R39" t="n">
-        <v>620.5776556439922</v>
+        <v>765.4446333357583</v>
       </c>
       <c r="S39" t="n">
-        <v>620.5776556439922</v>
+        <v>765.4446333357583</v>
       </c>
       <c r="T39" t="n">
-        <v>403.3960603738208</v>
+        <v>548.2630380655869</v>
       </c>
       <c r="U39" t="n">
-        <v>403.3960603738208</v>
+        <v>548.2630380655869</v>
       </c>
       <c r="V39" t="n">
-        <v>403.3960603738208</v>
+        <v>548.2630380655869</v>
       </c>
       <c r="W39" t="n">
-        <v>403.3960603738208</v>
+        <v>548.2630380655869</v>
       </c>
       <c r="X39" t="n">
-        <v>183.8880659905171</v>
+        <v>425.0237695338676</v>
       </c>
       <c r="Y39" t="n">
-        <v>183.8880659905171</v>
+        <v>199.3830764691952</v>
       </c>
     </row>
     <row r="40">
@@ -7306,76 +7306,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>37.64025352439705</v>
+        <v>20.84722354226014</v>
       </c>
       <c r="C40" t="n">
-        <v>37.64025352439705</v>
+        <v>20.84722354226014</v>
       </c>
       <c r="D40" t="n">
-        <v>37.64025352439705</v>
+        <v>20.84722354226014</v>
       </c>
       <c r="E40" t="n">
-        <v>37.64025352439705</v>
+        <v>20.84722354226014</v>
       </c>
       <c r="F40" t="n">
-        <v>37.64025352439705</v>
+        <v>20.84722354226014</v>
       </c>
       <c r="G40" t="n">
-        <v>37.64025352439705</v>
+        <v>20.84722354226014</v>
       </c>
       <c r="H40" t="n">
-        <v>37.64025352439705</v>
+        <v>20.84722354226014</v>
       </c>
       <c r="I40" t="n">
-        <v>37.64025352439705</v>
+        <v>20.84722354226014</v>
       </c>
       <c r="J40" t="n">
-        <v>37.64025352439705</v>
+        <v>20.84722354226014</v>
       </c>
       <c r="K40" t="n">
-        <v>37.64025352439705</v>
+        <v>20.84722354226014</v>
       </c>
       <c r="L40" t="n">
-        <v>37.64025352439705</v>
+        <v>20.84722354226014</v>
       </c>
       <c r="M40" t="n">
-        <v>37.64025352439705</v>
+        <v>20.84722354226014</v>
       </c>
       <c r="N40" t="n">
-        <v>37.64025352439705</v>
+        <v>20.84722354226014</v>
       </c>
       <c r="O40" t="n">
-        <v>37.64025352439705</v>
+        <v>20.84722354226014</v>
       </c>
       <c r="P40" t="n">
-        <v>37.64025352439705</v>
+        <v>20.84722354226014</v>
       </c>
       <c r="Q40" t="n">
-        <v>37.64025352439705</v>
+        <v>56.10369693616938</v>
       </c>
       <c r="R40" t="n">
-        <v>37.64025352439705</v>
+        <v>56.10369693616938</v>
       </c>
       <c r="S40" t="n">
-        <v>37.64025352439705</v>
+        <v>56.10369693616938</v>
       </c>
       <c r="T40" t="n">
-        <v>37.64025352439705</v>
+        <v>56.10369693616938</v>
       </c>
       <c r="U40" t="n">
-        <v>20.84722354226013</v>
+        <v>39.31066695403246</v>
       </c>
       <c r="V40" t="n">
-        <v>39.31066695403244</v>
+        <v>39.31066695403246</v>
       </c>
       <c r="W40" t="n">
-        <v>20.84722354226013</v>
+        <v>20.84722354226014</v>
       </c>
       <c r="X40" t="n">
-        <v>20.84722354226013</v>
+        <v>20.84722354226014</v>
       </c>
       <c r="Y40" t="n">
-        <v>37.64025352439705</v>
+        <v>20.84722354226014</v>
       </c>
     </row>
     <row r="41">
@@ -7385,76 +7385,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>638.8358955938638</v>
+        <v>461.6969972952346</v>
       </c>
       <c r="C41" t="n">
-        <v>529.2387962791757</v>
+        <v>355.5380110059857</v>
       </c>
       <c r="D41" t="n">
-        <v>432.2006239735297</v>
+        <v>258.4998387003395</v>
       </c>
       <c r="E41" t="n">
-        <v>301.1152270018141</v>
+        <v>127.4144417286238</v>
       </c>
       <c r="F41" t="n">
-        <v>199.7884567632579</v>
+        <v>127.4144417286238</v>
       </c>
       <c r="G41" t="n">
-        <v>20.84722354226013</v>
+        <v>127.4144417286238</v>
       </c>
       <c r="H41" t="n">
-        <v>20.84722354226013</v>
+        <v>20.84722354226014</v>
       </c>
       <c r="I41" t="n">
-        <v>20.84722354226013</v>
+        <v>20.84722354226014</v>
       </c>
       <c r="J41" t="n">
-        <v>20.84722354226013</v>
+        <v>20.84722354226014</v>
       </c>
       <c r="K41" t="n">
-        <v>20.84722354226013</v>
+        <v>20.84722354226014</v>
       </c>
       <c r="L41" t="n">
-        <v>278.8316148777292</v>
+        <v>278.8316148777293</v>
       </c>
       <c r="M41" t="n">
-        <v>356.561525161427</v>
+        <v>356.5615251614271</v>
       </c>
       <c r="N41" t="n">
-        <v>576.9570576646809</v>
+        <v>614.5459164968963</v>
       </c>
       <c r="O41" t="n">
-        <v>834.9414490001499</v>
+        <v>742.7386408092476</v>
       </c>
       <c r="P41" t="n">
-        <v>834.9414490001499</v>
+        <v>964.5199571255288</v>
       </c>
       <c r="Q41" t="n">
-        <v>983.4879792470629</v>
+        <v>964.5199571255288</v>
       </c>
       <c r="R41" t="n">
-        <v>1028.722132799585</v>
+        <v>1009.754110678051</v>
       </c>
       <c r="S41" t="n">
-        <v>1042.361177113006</v>
+        <v>1023.393154991472</v>
       </c>
       <c r="T41" t="n">
-        <v>1042.361177113006</v>
+        <v>1042.361177113007</v>
       </c>
       <c r="U41" t="n">
         <v>1033.828233888891</v>
       </c>
       <c r="V41" t="n">
-        <v>1033.828233888891</v>
+        <v>953.8530676772607</v>
       </c>
       <c r="W41" t="n">
-        <v>1033.828233888891</v>
+        <v>856.6893355902614</v>
       </c>
       <c r="X41" t="n">
-        <v>914.5571780958923</v>
+        <v>737.4182797972629</v>
       </c>
       <c r="Y41" t="n">
-        <v>772.5559676324453</v>
+        <v>595.4170693338161</v>
       </c>
     </row>
     <row r="42">
@@ -7464,76 +7464,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>210.2594978092964</v>
+        <v>143.2454037829737</v>
       </c>
       <c r="C42" t="n">
-        <v>20.84722354226013</v>
+        <v>143.2454037829737</v>
       </c>
       <c r="D42" t="n">
-        <v>20.84722354226013</v>
+        <v>143.2454037829737</v>
       </c>
       <c r="E42" t="n">
-        <v>20.84722354226013</v>
+        <v>143.2454037829737</v>
       </c>
       <c r="F42" t="n">
-        <v>20.84722354226013</v>
+        <v>20.84722354226014</v>
       </c>
       <c r="G42" t="n">
-        <v>20.84722354226013</v>
+        <v>20.84722354226014</v>
       </c>
       <c r="H42" t="n">
-        <v>20.84722354226013</v>
+        <v>20.84722354226014</v>
       </c>
       <c r="I42" t="n">
-        <v>20.84722354226013</v>
+        <v>20.84722354226014</v>
       </c>
       <c r="J42" t="n">
-        <v>20.84722354226013</v>
+        <v>20.84722354226014</v>
       </c>
       <c r="K42" t="n">
         <v>57.26947747928683</v>
       </c>
       <c r="L42" t="n">
-        <v>172.5302350175355</v>
+        <v>172.5302350175354</v>
       </c>
       <c r="M42" t="n">
-        <v>351.7887667834124</v>
+        <v>351.7887667834123</v>
       </c>
       <c r="N42" t="n">
-        <v>554.2116280516032</v>
+        <v>554.211628051603</v>
       </c>
       <c r="O42" t="n">
-        <v>683.6419172357413</v>
+        <v>683.6419172357412</v>
       </c>
       <c r="P42" t="n">
-        <v>765.4446333357585</v>
+        <v>765.4446333357583</v>
       </c>
       <c r="Q42" t="n">
-        <v>765.4446333357585</v>
+        <v>765.4446333357583</v>
       </c>
       <c r="R42" t="n">
-        <v>765.4446333357585</v>
+        <v>628.7594590862525</v>
       </c>
       <c r="S42" t="n">
-        <v>765.4446333357585</v>
+        <v>628.7594590862525</v>
       </c>
       <c r="T42" t="n">
-        <v>765.4446333357585</v>
+        <v>411.577863816081</v>
       </c>
       <c r="U42" t="n">
-        <v>765.4446333357585</v>
+        <v>411.577863816081</v>
       </c>
       <c r="V42" t="n">
-        <v>765.4446333357585</v>
+        <v>168.4981457197151</v>
       </c>
       <c r="W42" t="n">
-        <v>502.2221138627771</v>
+        <v>143.2454037829737</v>
       </c>
       <c r="X42" t="n">
-        <v>502.2221138627771</v>
+        <v>143.2454037829737</v>
       </c>
       <c r="Y42" t="n">
-        <v>276.5814207981047</v>
+        <v>143.2454037829737</v>
       </c>
     </row>
     <row r="43">
@@ -7543,76 +7543,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>20.84722354226013</v>
+        <v>20.84722354226014</v>
       </c>
       <c r="C43" t="n">
-        <v>95.34193974904872</v>
+        <v>20.84722354226014</v>
       </c>
       <c r="D43" t="n">
-        <v>120.8104688845518</v>
+        <v>20.84722354226014</v>
       </c>
       <c r="E43" t="n">
-        <v>120.8104688845518</v>
+        <v>20.84722354226014</v>
       </c>
       <c r="F43" t="n">
-        <v>120.8104688845518</v>
+        <v>20.84722354226014</v>
       </c>
       <c r="G43" t="n">
-        <v>120.8104688845518</v>
+        <v>20.84722354226014</v>
       </c>
       <c r="H43" t="n">
-        <v>120.8104688845518</v>
+        <v>20.84722354226014</v>
       </c>
       <c r="I43" t="n">
-        <v>120.8104688845518</v>
+        <v>20.84722354226014</v>
       </c>
       <c r="J43" t="n">
-        <v>120.8104688845518</v>
+        <v>20.84722354226014</v>
       </c>
       <c r="K43" t="n">
-        <v>120.8104688845518</v>
+        <v>20.84722354226014</v>
       </c>
       <c r="L43" t="n">
-        <v>120.8104688845518</v>
+        <v>20.84722354226014</v>
       </c>
       <c r="M43" t="n">
-        <v>120.8104688845518</v>
+        <v>20.84722354226014</v>
       </c>
       <c r="N43" t="n">
-        <v>120.8104688845518</v>
+        <v>120.8104688845517</v>
       </c>
       <c r="O43" t="n">
-        <v>120.8104688845518</v>
+        <v>120.8104688845517</v>
       </c>
       <c r="P43" t="n">
-        <v>120.8104688845518</v>
+        <v>120.8104688845517</v>
       </c>
       <c r="Q43" t="n">
-        <v>120.8104688845518</v>
+        <v>120.8104688845517</v>
       </c>
       <c r="R43" t="n">
-        <v>120.8104688845518</v>
+        <v>120.8104688845517</v>
       </c>
       <c r="S43" t="n">
-        <v>120.8104688845518</v>
+        <v>120.8104688845517</v>
       </c>
       <c r="T43" t="n">
-        <v>120.8104688845518</v>
+        <v>120.8104688845517</v>
       </c>
       <c r="U43" t="n">
-        <v>73.38357117307834</v>
+        <v>73.38357117307829</v>
       </c>
       <c r="V43" t="n">
-        <v>69.94453468336894</v>
+        <v>69.94453468336893</v>
       </c>
       <c r="W43" t="n">
-        <v>20.84722354226013</v>
+        <v>20.84722354226014</v>
       </c>
       <c r="X43" t="n">
-        <v>20.84722354226013</v>
+        <v>20.84722354226014</v>
       </c>
       <c r="Y43" t="n">
-        <v>20.84722354226013</v>
+        <v>20.84722354226014</v>
       </c>
     </row>
     <row r="44">
@@ -7622,76 +7622,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>807.2024855420512</v>
+        <v>595.4170693338164</v>
       </c>
       <c r="C44" t="n">
-        <v>697.6053862273632</v>
+        <v>485.8199700191283</v>
       </c>
       <c r="D44" t="n">
-        <v>600.567213921717</v>
+        <v>388.7817977134824</v>
       </c>
       <c r="E44" t="n">
-        <v>469.4818169500013</v>
+        <v>257.6964007417668</v>
       </c>
       <c r="F44" t="n">
-        <v>306.3556749496216</v>
+        <v>94.57025874138709</v>
       </c>
       <c r="G44" t="n">
-        <v>127.4144417286238</v>
+        <v>20.84722354226014</v>
       </c>
       <c r="H44" t="n">
-        <v>20.84722354226013</v>
+        <v>20.84722354226014</v>
       </c>
       <c r="I44" t="n">
-        <v>20.84722354226013</v>
+        <v>20.84722354226014</v>
       </c>
       <c r="J44" t="n">
-        <v>182.6068686812421</v>
+        <v>20.84722354226014</v>
       </c>
       <c r="K44" t="n">
-        <v>412.9653639524801</v>
+        <v>251.2057188134979</v>
       </c>
       <c r="L44" t="n">
-        <v>456.8714231050916</v>
+        <v>295.1117779661092</v>
       </c>
       <c r="M44" t="n">
-        <v>714.8558144405606</v>
+        <v>372.8416882498069</v>
       </c>
       <c r="N44" t="n">
-        <v>787.0010399197736</v>
+        <v>581.944800809386</v>
       </c>
       <c r="O44" t="n">
-        <v>1028.722132799585</v>
+        <v>613.1601326838694</v>
       </c>
       <c r="P44" t="n">
-        <v>1028.722132799585</v>
+        <v>834.9414490001504</v>
       </c>
       <c r="Q44" t="n">
-        <v>1028.722132799585</v>
+        <v>983.4879792470633</v>
       </c>
       <c r="R44" t="n">
         <v>1028.722132799585</v>
       </c>
       <c r="S44" t="n">
-        <v>1042.361177113006</v>
+        <v>1042.361177113007</v>
       </c>
       <c r="T44" t="n">
-        <v>1042.361177113006</v>
+        <v>1042.361177113007</v>
       </c>
       <c r="U44" t="n">
         <v>1033.828233888891</v>
       </c>
       <c r="V44" t="n">
-        <v>953.8530676772602</v>
+        <v>953.8530676772606</v>
       </c>
       <c r="W44" t="n">
-        <v>953.8530676772602</v>
+        <v>856.6893355902615</v>
       </c>
       <c r="X44" t="n">
-        <v>940.9225575806328</v>
+        <v>737.418279797263</v>
       </c>
       <c r="Y44" t="n">
-        <v>940.9225575806328</v>
+        <v>595.4170693338164</v>
       </c>
     </row>
     <row r="45">
@@ -7701,76 +7701,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>84.75382386878397</v>
+        <v>181.6273397812284</v>
       </c>
       <c r="C45" t="n">
-        <v>84.75382386878397</v>
+        <v>181.6273397812284</v>
       </c>
       <c r="D45" t="n">
-        <v>84.75382386878397</v>
+        <v>20.84722354226014</v>
       </c>
       <c r="E45" t="n">
-        <v>84.75382386878397</v>
+        <v>20.84722354226014</v>
       </c>
       <c r="F45" t="n">
-        <v>84.75382386878397</v>
+        <v>20.84722354226014</v>
       </c>
       <c r="G45" t="n">
-        <v>20.84722354226013</v>
+        <v>20.84722354226014</v>
       </c>
       <c r="H45" t="n">
-        <v>20.84722354226013</v>
+        <v>20.84722354226014</v>
       </c>
       <c r="I45" t="n">
-        <v>20.84722354226013</v>
+        <v>20.84722354226014</v>
       </c>
       <c r="J45" t="n">
-        <v>20.84722354226013</v>
+        <v>20.84722354226014</v>
       </c>
       <c r="K45" t="n">
-        <v>57.26947747928689</v>
+        <v>57.26947747928679</v>
       </c>
       <c r="L45" t="n">
-        <v>172.5302350175356</v>
+        <v>172.5302350175353</v>
       </c>
       <c r="M45" t="n">
-        <v>351.7887667834126</v>
+        <v>351.7887667834121</v>
       </c>
       <c r="N45" t="n">
-        <v>554.2116280516034</v>
+        <v>554.2116280516028</v>
       </c>
       <c r="O45" t="n">
-        <v>683.6419172357416</v>
+        <v>683.6419172357409</v>
       </c>
       <c r="P45" t="n">
-        <v>765.4446333357589</v>
+        <v>765.4446333357581</v>
       </c>
       <c r="Q45" t="n">
-        <v>757.2628298934987</v>
+        <v>765.4446333357581</v>
       </c>
       <c r="R45" t="n">
-        <v>757.2628298934987</v>
+        <v>765.4446333357581</v>
       </c>
       <c r="S45" t="n">
-        <v>757.2628298934987</v>
+        <v>765.4446333357581</v>
       </c>
       <c r="T45" t="n">
-        <v>757.2628298934987</v>
+        <v>548.2630380655867</v>
       </c>
       <c r="U45" t="n">
-        <v>757.2628298934987</v>
+        <v>548.2630380655867</v>
       </c>
       <c r="V45" t="n">
-        <v>514.1831117971328</v>
+        <v>548.2630380655867</v>
       </c>
       <c r="W45" t="n">
-        <v>488.9303698603914</v>
+        <v>285.0405185926052</v>
       </c>
       <c r="X45" t="n">
-        <v>488.9303698603914</v>
+        <v>285.0405185926052</v>
       </c>
       <c r="Y45" t="n">
-        <v>263.2896767957191</v>
+        <v>181.6273397812284</v>
       </c>
     </row>
     <row r="46">
@@ -7780,76 +7780,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>20.84722354226013</v>
+        <v>20.84722354226014</v>
       </c>
       <c r="C46" t="n">
-        <v>20.84722354226013</v>
+        <v>20.84722354226014</v>
       </c>
       <c r="D46" t="n">
-        <v>20.84722354226013</v>
+        <v>20.84722354226014</v>
       </c>
       <c r="E46" t="n">
-        <v>20.84722354226013</v>
+        <v>20.84722354226014</v>
       </c>
       <c r="F46" t="n">
-        <v>20.84722354226013</v>
+        <v>20.84722354226014</v>
       </c>
       <c r="G46" t="n">
-        <v>20.84722354226013</v>
+        <v>20.84722354226014</v>
       </c>
       <c r="H46" t="n">
-        <v>20.84722354226013</v>
+        <v>20.84722354226014</v>
       </c>
       <c r="I46" t="n">
-        <v>20.84722354226013</v>
+        <v>20.84722354226014</v>
       </c>
       <c r="J46" t="n">
-        <v>20.84722354226013</v>
+        <v>20.84722354226014</v>
       </c>
       <c r="K46" t="n">
-        <v>20.84722354226013</v>
+        <v>20.84722354226014</v>
       </c>
       <c r="L46" t="n">
-        <v>20.84722354226013</v>
+        <v>120.8104688845516</v>
       </c>
       <c r="M46" t="n">
-        <v>20.84722354226013</v>
+        <v>120.8104688845516</v>
       </c>
       <c r="N46" t="n">
-        <v>20.84722354226013</v>
+        <v>120.8104688845516</v>
       </c>
       <c r="O46" t="n">
-        <v>120.8104688845518</v>
+        <v>120.8104688845516</v>
       </c>
       <c r="P46" t="n">
-        <v>120.8104688845518</v>
+        <v>120.8104688845516</v>
       </c>
       <c r="Q46" t="n">
-        <v>120.8104688845518</v>
+        <v>120.8104688845516</v>
       </c>
       <c r="R46" t="n">
-        <v>120.8104688845518</v>
+        <v>120.8104688845516</v>
       </c>
       <c r="S46" t="n">
-        <v>120.8104688845518</v>
+        <v>120.8104688845516</v>
       </c>
       <c r="T46" t="n">
-        <v>120.8104688845518</v>
+        <v>120.8104688845516</v>
       </c>
       <c r="U46" t="n">
-        <v>73.38357117307834</v>
+        <v>73.38357117307824</v>
       </c>
       <c r="V46" t="n">
-        <v>69.94453468336894</v>
+        <v>69.9445346833689</v>
       </c>
       <c r="W46" t="n">
-        <v>20.84722354226013</v>
+        <v>20.84722354226014</v>
       </c>
       <c r="X46" t="n">
-        <v>20.84722354226013</v>
+        <v>20.84722354226014</v>
       </c>
       <c r="Y46" t="n">
-        <v>20.84722354226013</v>
+        <v>20.84722354226014</v>
       </c>
     </row>
   </sheetData>
@@ -8775,10 +8775,10 @@
         <v>240.3045437566416</v>
       </c>
       <c r="M12" t="n">
-        <v>301.77688131</v>
+        <v>301.7768813099998</v>
       </c>
       <c r="N12" t="n">
-        <v>291.1888299692018</v>
+        <v>291.1888299692017</v>
       </c>
       <c r="O12" t="n">
         <v>255.2227828913207</v>
@@ -9015,13 +9015,13 @@
         <v>301.77688131</v>
       </c>
       <c r="N15" t="n">
-        <v>291.1888299692018</v>
+        <v>291.1888299692017</v>
       </c>
       <c r="O15" t="n">
         <v>255.2227828913207</v>
       </c>
       <c r="P15" t="n">
-        <v>206.3638740786794</v>
+        <v>206.3638740786793</v>
       </c>
       <c r="Q15" t="n">
         <v>136.1300824528302</v>
@@ -9252,13 +9252,13 @@
         <v>301.77688131</v>
       </c>
       <c r="N18" t="n">
-        <v>291.1888299692018</v>
+        <v>291.1888299692017</v>
       </c>
       <c r="O18" t="n">
         <v>255.2227828913207</v>
       </c>
       <c r="P18" t="n">
-        <v>206.3638740786794</v>
+        <v>206.3638740786793</v>
       </c>
       <c r="Q18" t="n">
         <v>136.1300824528302</v>
@@ -9483,13 +9483,13 @@
         <v>171.373473584151</v>
       </c>
       <c r="L21" t="n">
-        <v>240.3045437566416</v>
+        <v>240.3045437566414</v>
       </c>
       <c r="M21" t="n">
         <v>301.77688131</v>
       </c>
       <c r="N21" t="n">
-        <v>291.1888299692019</v>
+        <v>291.1888299692017</v>
       </c>
       <c r="O21" t="n">
         <v>255.2227828913207</v>
@@ -23255,28 +23255,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>173.0513614044972</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>149.1696184078427</v>
       </c>
       <c r="D11" t="n">
-        <v>136.7362806688913</v>
+        <v>136.7362806688912</v>
       </c>
       <c r="E11" t="n">
-        <v>170.4430330883002</v>
+        <v>110.8720771969708</v>
       </c>
       <c r="F11" t="n">
-        <v>202.1633706666775</v>
+        <v>202.1633706666774</v>
       </c>
       <c r="G11" t="n">
-        <v>217.8203109750894</v>
+        <v>32.77780294597412</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>40.66849008630152</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23306,25 +23306,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>26.89167764850197</v>
+        <v>26.89167764850179</v>
       </c>
       <c r="T11" t="n">
-        <v>21.50887178172142</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>49.11610387817596</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>119.8439046358161</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>136.8605848524309</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>130.9430645965373</v>
+        <v>158.74683532137</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>181.2496884451138</v>
       </c>
     </row>
     <row r="12">
@@ -23492,13 +23492,13 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>173.0513614044974</v>
       </c>
       <c r="C14" t="n">
-        <v>149.1696184078428</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>136.7362806688913</v>
       </c>
       <c r="E14" t="n">
         <v>170.4430330883002</v>
@@ -23507,13 +23507,13 @@
         <v>202.1633706666775</v>
       </c>
       <c r="G14" t="n">
-        <v>126.6112798446102</v>
+        <v>32.77780294597429</v>
       </c>
       <c r="H14" t="n">
-        <v>146.1700360908016</v>
+        <v>146.1700360908017</v>
       </c>
       <c r="I14" t="n">
-        <v>40.66849008630163</v>
+        <v>40.66849008630169</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23543,16 +23543,16 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>26.8916776485019</v>
+        <v>26.89167764850196</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>21.50887178172142</v>
       </c>
       <c r="U14" t="n">
-        <v>49.11610387817589</v>
+        <v>49.11610387817595</v>
       </c>
       <c r="V14" t="n">
-        <v>119.843904635816</v>
+        <v>119.8439046358161</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
@@ -23561,7 +23561,7 @@
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>181.2496884451139</v>
+        <v>92.95626989648301</v>
       </c>
     </row>
     <row r="15">
@@ -23741,7 +23741,7 @@
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>-7.105427357601002e-13</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
         <v>0</v>
@@ -23984,7 +23984,7 @@
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>-7.176481631177012e-13</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -25628,7 +25628,7 @@
         <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>3.40373189518489</v>
       </c>
       <c r="D41" t="n">
         <v>0</v>
@@ -25637,13 +25637,13 @@
         <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>61.18137804420542</v>
+        <v>161.4948805803758</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>177.1518208887877</v>
       </c>
       <c r="H41" t="n">
-        <v>105.5015460045</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -25685,10 +25685,10 @@
         <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>79.17541454951441</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>96.19209476612929</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
         <v>0</v>
@@ -25862,7 +25862,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>132.3828713181957</v>
       </c>
       <c r="C44" t="n">
         <v>0</v>
@@ -25877,10 +25877,10 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>104.166016041652</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>105.5015460045</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -25925,13 +25925,13 @@
         <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>96.19209476612929</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>105.277140239407</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>140.5811983588123</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>654228.0798085037</v>
+        <v>654228.0798085039</v>
       </c>
     </row>
     <row r="6">
@@ -26311,49 +26311,49 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>881931.9951764602</v>
+      </c>
+      <c r="C2" t="n">
         <v>881931.9951764599</v>
       </c>
-      <c r="C2" t="n">
+      <c r="D2" t="n">
         <v>881931.9951764598</v>
       </c>
-      <c r="D2" t="n">
-        <v>881931.9951764599</v>
-      </c>
       <c r="E2" t="n">
-        <v>787217.3035162801</v>
+        <v>787217.3035162807</v>
       </c>
       <c r="F2" t="n">
-        <v>787217.3035162805</v>
+        <v>787217.30351628</v>
       </c>
       <c r="G2" t="n">
+        <v>883718.5488585358</v>
+      </c>
+      <c r="H2" t="n">
+        <v>883718.5488585355</v>
+      </c>
+      <c r="I2" t="n">
+        <v>883718.5488585361</v>
+      </c>
+      <c r="J2" t="n">
+        <v>883718.548858535</v>
+      </c>
+      <c r="K2" t="n">
         <v>883718.5488585356</v>
       </c>
-      <c r="H2" t="n">
-        <v>883718.5488585358</v>
-      </c>
-      <c r="I2" t="n">
-        <v>883718.5488585358</v>
-      </c>
-      <c r="J2" t="n">
-        <v>883718.5488585357</v>
-      </c>
-      <c r="K2" t="n">
+      <c r="L2" t="n">
+        <v>883718.5488585365</v>
+      </c>
+      <c r="M2" t="n">
+        <v>883718.5488585356</v>
+      </c>
+      <c r="N2" t="n">
         <v>883718.5488585355</v>
       </c>
-      <c r="L2" t="n">
-        <v>883718.5488585363</v>
-      </c>
-      <c r="M2" t="n">
-        <v>883718.5488585357</v>
-      </c>
-      <c r="N2" t="n">
-        <v>883718.5488585356</v>
-      </c>
       <c r="O2" t="n">
+        <v>856491.3343627336</v>
+      </c>
+      <c r="P2" t="n">
         <v>856491.3343627333</v>
-      </c>
-      <c r="P2" t="n">
-        <v>856491.3343627335</v>
       </c>
     </row>
     <row r="3">
@@ -26372,13 +26372,13 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>293759.0871411802</v>
+        <v>293759.0871411804</v>
       </c>
       <c r="F3" t="n">
-        <v>4.547473508864641e-11</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>78119.42250163209</v>
+        <v>78119.42250163213</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26396,7 +26396,7 @@
         <v>78119.4225016321</v>
       </c>
       <c r="M3" t="n">
-        <v>46075.3012436303</v>
+        <v>46075.30124363032</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26424,10 +26424,10 @@
         <v>440811.1417349353</v>
       </c>
       <c r="E4" t="n">
+        <v>348214.3793053157</v>
+      </c>
+      <c r="F4" t="n">
         <v>348214.3793053156</v>
-      </c>
-      <c r="F4" t="n">
-        <v>348214.3793053157</v>
       </c>
       <c r="G4" t="n">
         <v>403193.9801963131</v>
@@ -26436,28 +26436,28 @@
         <v>403193.9801963131</v>
       </c>
       <c r="I4" t="n">
-        <v>403193.980196313</v>
+        <v>403193.9801963131</v>
       </c>
       <c r="J4" t="n">
+        <v>404086.7953254459</v>
+      </c>
+      <c r="K4" t="n">
         <v>404086.7953254461</v>
       </c>
-      <c r="K4" t="n">
+      <c r="L4" t="n">
         <v>404086.7953254459</v>
-      </c>
-      <c r="L4" t="n">
-        <v>404086.7953254461</v>
       </c>
       <c r="M4" t="n">
         <v>403278.1343050293</v>
       </c>
       <c r="N4" t="n">
-        <v>403278.1343050292</v>
+        <v>403278.1343050293</v>
       </c>
       <c r="O4" t="n">
         <v>387757.9068158366</v>
       </c>
       <c r="P4" t="n">
-        <v>387757.9068158366</v>
+        <v>387757.9068158367</v>
       </c>
     </row>
     <row r="5">
@@ -26476,7 +26476,7 @@
         <v>33627.6</v>
       </c>
       <c r="E5" t="n">
-        <v>30259.30436081153</v>
+        <v>30259.30436081154</v>
       </c>
       <c r="F5" t="n">
         <v>30259.30436081153</v>
@@ -26500,10 +26500,10 @@
         <v>47229.87796055729</v>
       </c>
       <c r="M5" t="n">
-        <v>40821.17409770053</v>
+        <v>40821.17409770054</v>
       </c>
       <c r="N5" t="n">
-        <v>40821.17409770053</v>
+        <v>40821.17409770054</v>
       </c>
       <c r="O5" t="n">
         <v>38271.56905782432</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>407493.2534415246</v>
+        <v>407488.7870573198</v>
       </c>
       <c r="C6" t="n">
-        <v>407493.2534415245</v>
+        <v>407488.7870573194</v>
       </c>
       <c r="D6" t="n">
-        <v>407493.2534415246</v>
+        <v>407488.7870573193</v>
       </c>
       <c r="E6" t="n">
-        <v>114984.5327089728</v>
+        <v>114743.2795956175</v>
       </c>
       <c r="F6" t="n">
-        <v>408743.6198501533</v>
+        <v>408502.3667367973</v>
       </c>
       <c r="G6" t="n">
-        <v>363936.5646369167</v>
+        <v>363936.564636917</v>
       </c>
       <c r="H6" t="n">
-        <v>442055.9871385491</v>
+        <v>442055.9871385487</v>
       </c>
       <c r="I6" t="n">
-        <v>442055.9871385492</v>
+        <v>442055.9871385493</v>
       </c>
       <c r="J6" t="n">
-        <v>270789.1938723113</v>
+        <v>270789.1938723107</v>
       </c>
       <c r="K6" t="n">
         <v>432401.8755725322</v>
       </c>
       <c r="L6" t="n">
-        <v>354282.4530709008</v>
+        <v>354282.4530709012</v>
       </c>
       <c r="M6" t="n">
-        <v>393543.9392121757</v>
+        <v>393543.9392121754</v>
       </c>
       <c r="N6" t="n">
-        <v>439619.2404558058</v>
+        <v>439619.2404558057</v>
       </c>
       <c r="O6" t="n">
-        <v>361293.0869866248</v>
+        <v>361225.0189503856</v>
       </c>
       <c r="P6" t="n">
-        <v>430461.8584890726</v>
+        <v>430393.7904528328</v>
       </c>
     </row>
   </sheetData>
@@ -26692,10 +26692,10 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
+        <v>201.0358789733361</v>
+      </c>
+      <c r="F2" t="n">
         <v>201.0358789733359</v>
-      </c>
-      <c r="F2" t="n">
-        <v>201.035878973336</v>
       </c>
       <c r="G2" t="n">
         <v>298.6851571003761</v>
@@ -26707,13 +26707,13 @@
         <v>298.6851571003761</v>
       </c>
       <c r="J2" t="n">
+        <v>214.4377715571427</v>
+      </c>
+      <c r="K2" t="n">
         <v>214.4377715571429</v>
       </c>
-      <c r="K2" t="n">
+      <c r="L2" t="n">
         <v>214.4377715571428</v>
-      </c>
-      <c r="L2" t="n">
-        <v>214.4377715571429</v>
       </c>
       <c r="M2" t="n">
         <v>272.0318981116807</v>
@@ -26725,7 +26725,7 @@
         <v>241.7043690596376</v>
       </c>
       <c r="P2" t="n">
-        <v>241.7043690596376</v>
+        <v>241.7043690596377</v>
       </c>
     </row>
     <row r="3">
@@ -26774,10 +26774,10 @@
         <v>96.68965886385077</v>
       </c>
       <c r="O3" t="n">
-        <v>96.68965886385081</v>
+        <v>96.68965886385077</v>
       </c>
       <c r="P3" t="n">
-        <v>96.68965886385098</v>
+        <v>96.68965886385065</v>
       </c>
     </row>
     <row r="4">
@@ -26796,22 +26796,22 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>185.0425080291152</v>
+        <v>185.0425080291151</v>
       </c>
       <c r="F4" t="n">
-        <v>185.0425080291152</v>
+        <v>185.0425080291151</v>
       </c>
       <c r="G4" t="n">
-        <v>185.0425080291152</v>
+        <v>185.0425080291151</v>
       </c>
       <c r="H4" t="n">
-        <v>185.0425080291152</v>
+        <v>185.0425080291151</v>
       </c>
       <c r="I4" t="n">
         <v>185.0425080291152</v>
       </c>
       <c r="J4" t="n">
-        <v>445.6328023073666</v>
+        <v>445.6328023073668</v>
       </c>
       <c r="K4" t="n">
         <v>445.6328023073668</v>
@@ -26820,16 +26820,16 @@
         <v>445.6328023073668</v>
       </c>
       <c r="M4" t="n">
-        <v>260.5902942782516</v>
+        <v>260.5902942782517</v>
       </c>
       <c r="N4" t="n">
-        <v>260.5902942782516</v>
+        <v>260.5902942782517</v>
       </c>
       <c r="O4" t="n">
-        <v>260.5902942782516</v>
+        <v>260.5902942782517</v>
       </c>
       <c r="P4" t="n">
-        <v>260.5902942782516</v>
+        <v>260.5902942782517</v>
       </c>
     </row>
   </sheetData>
@@ -26914,13 +26914,13 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>201.0358789733359</v>
+        <v>201.0358789733361</v>
       </c>
       <c r="F2" t="n">
-        <v>5.684341886080801e-14</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>97.64927812704011</v>
+        <v>97.64927812704016</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -26938,7 +26938,7 @@
         <v>97.64927812704013</v>
       </c>
       <c r="M2" t="n">
-        <v>57.59412655453787</v>
+        <v>57.59412655453789</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>185.0425080291152</v>
+        <v>185.0425080291151</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>260.5902942782514</v>
+        <v>260.5902942782516</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27151,13 +27151,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>201.0358789733359</v>
+        <v>201.0358789733361</v>
       </c>
       <c r="K2" t="n">
-        <v>5.684341886080801e-14</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>97.64927812704011</v>
+        <v>97.64927812704016</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>185.0425080291152</v>
+        <v>185.0425080291151</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -28087,76 +28087,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>201.0358789733359</v>
+        <v>201.0358789733361</v>
       </c>
       <c r="C11" t="n">
-        <v>201.0358789733359</v>
+        <v>201.0358789733361</v>
       </c>
       <c r="D11" t="n">
-        <v>201.0358789733359</v>
+        <v>201.0358789733361</v>
       </c>
       <c r="E11" t="n">
-        <v>201.0358789733359</v>
+        <v>201.0358789733361</v>
       </c>
       <c r="F11" t="n">
-        <v>201.0358789733359</v>
+        <v>201.0358789733361</v>
       </c>
       <c r="G11" t="n">
-        <v>201.0358789733359</v>
+        <v>201.0358789733361</v>
       </c>
       <c r="H11" t="n">
-        <v>201.0358789733359</v>
+        <v>201.0358789733361</v>
       </c>
       <c r="I11" t="n">
-        <v>201.0358789733359</v>
+        <v>201.0358789733361</v>
       </c>
       <c r="J11" t="n">
-        <v>78.31078811117104</v>
+        <v>201.0358789733361</v>
       </c>
       <c r="K11" t="n">
-        <v>40.65334083072933</v>
+        <v>194.0615283299267</v>
       </c>
       <c r="L11" t="n">
-        <v>140.6929533295077</v>
+        <v>0</v>
       </c>
       <c r="M11" t="n">
-        <v>106.5274471364912</v>
+        <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>112.1685428985972</v>
+        <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>0</v>
+        <v>153.5118697720612</v>
       </c>
       <c r="P11" t="n">
         <v>17.68283742703043</v>
       </c>
       <c r="Q11" t="n">
-        <v>201.0358789733359</v>
+        <v>135.802248312673</v>
       </c>
       <c r="R11" t="n">
-        <v>201.0358789733359</v>
+        <v>196.0133048651712</v>
       </c>
       <c r="S11" t="n">
-        <v>201.0358789733359</v>
+        <v>201.0358789733361</v>
       </c>
       <c r="T11" t="n">
-        <v>201.0358789733359</v>
+        <v>201.0358789733361</v>
       </c>
       <c r="U11" t="n">
-        <v>201.0358789733359</v>
+        <v>201.0358789733361</v>
       </c>
       <c r="V11" t="n">
-        <v>201.0358789733359</v>
+        <v>201.0358789733361</v>
       </c>
       <c r="W11" t="n">
-        <v>201.0358789733359</v>
+        <v>201.0358789733361</v>
       </c>
       <c r="X11" t="n">
-        <v>201.0358789733359</v>
+        <v>201.0358789733361</v>
       </c>
       <c r="Y11" t="n">
-        <v>201.0358789733359</v>
+        <v>201.0358789733361</v>
       </c>
     </row>
     <row r="12">
@@ -28166,7 +28166,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0</v>
+        <v>176.7504943976657</v>
       </c>
       <c r="C12" t="n">
         <v>187.5181515243659</v>
@@ -28178,10 +28178,10 @@
         <v>171.8275718397997</v>
       </c>
       <c r="F12" t="n">
-        <v>0</v>
+        <v>158.8234391199283</v>
       </c>
       <c r="G12" t="n">
-        <v>13.67506006847626</v>
+        <v>148.7542444118752</v>
       </c>
       <c r="H12" t="n">
         <v>125.8286260849892</v>
@@ -28190,7 +28190,7 @@
         <v>107.6953116922337</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>53.38593305174645</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -28211,7 +28211,7 @@
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>8.099985407837632</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>135.3183225070108</v>
@@ -28220,22 +28220,22 @@
         <v>191.7698489263512</v>
       </c>
       <c r="T12" t="n">
-        <v>201.0358789733359</v>
+        <v>201.0358789733361</v>
       </c>
       <c r="U12" t="n">
-        <v>201.0358789733359</v>
+        <v>52.18619567417139</v>
       </c>
       <c r="V12" t="n">
-        <v>201.0358789733359</v>
+        <v>55.6064128862871</v>
       </c>
       <c r="W12" t="n">
-        <v>201.0358789733359</v>
+        <v>81.66207554789645</v>
       </c>
       <c r="X12" t="n">
-        <v>201.0358789733359</v>
+        <v>98.74976628008676</v>
       </c>
       <c r="Y12" t="n">
-        <v>201.0358789733359</v>
+        <v>201.0358789733361</v>
       </c>
     </row>
     <row r="13">
@@ -28245,7 +28245,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>201.0358789733359</v>
+        <v>177.6169206649681</v>
       </c>
       <c r="C13" t="n">
         <v>166.4571809719723</v>
@@ -28254,7 +28254,7 @@
         <v>145.1826502507107</v>
       </c>
       <c r="E13" t="n">
-        <v>201.0358789733359</v>
+        <v>201.0358789733361</v>
       </c>
       <c r="F13" t="n">
         <v>138.9268822184467</v>
@@ -28269,16 +28269,16 @@
         <v>165.096009822084</v>
       </c>
       <c r="J13" t="n">
-        <v>120.810990811985</v>
+        <v>201.0358789733361</v>
       </c>
       <c r="K13" t="n">
         <v>67.96893830655416</v>
       </c>
       <c r="L13" t="n">
-        <v>33.35335943042254</v>
+        <v>201.0358789733361</v>
       </c>
       <c r="M13" t="n">
-        <v>126.6010162619246</v>
+        <v>43.69239001746899</v>
       </c>
       <c r="N13" t="n">
         <v>17.75689311507488</v>
@@ -28287,34 +28287,34 @@
         <v>38.62120963049811</v>
       </c>
       <c r="P13" t="n">
-        <v>201.0358789733359</v>
+        <v>59.4560558218931</v>
       </c>
       <c r="Q13" t="n">
         <v>127.8937264706995</v>
       </c>
       <c r="R13" t="n">
-        <v>201.0358789733359</v>
+        <v>201.0358789733361</v>
       </c>
       <c r="S13" t="n">
-        <v>201.0358789733359</v>
+        <v>201.0358789733361</v>
       </c>
       <c r="T13" t="n">
-        <v>201.0358789733359</v>
+        <v>201.0358789733361</v>
       </c>
       <c r="U13" t="n">
-        <v>201.0358789733359</v>
+        <v>201.0358789733361</v>
       </c>
       <c r="V13" t="n">
-        <v>201.0358789733359</v>
+        <v>201.0358789733361</v>
       </c>
       <c r="W13" t="n">
-        <v>201.0358789733359</v>
+        <v>201.0358789733361</v>
       </c>
       <c r="X13" t="n">
-        <v>201.0358789733359</v>
+        <v>201.0358789733361</v>
       </c>
       <c r="Y13" t="n">
-        <v>201.0358789733359</v>
+        <v>201.0358789733361</v>
       </c>
     </row>
     <row r="14">
@@ -28324,46 +28324,46 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>201.035878973336</v>
+        <v>201.0358789733359</v>
       </c>
       <c r="C14" t="n">
-        <v>201.035878973336</v>
+        <v>201.0358789733359</v>
       </c>
       <c r="D14" t="n">
-        <v>201.035878973336</v>
+        <v>201.0358789733359</v>
       </c>
       <c r="E14" t="n">
-        <v>201.035878973336</v>
+        <v>201.0358789733359</v>
       </c>
       <c r="F14" t="n">
-        <v>201.035878973336</v>
+        <v>201.0358789733359</v>
       </c>
       <c r="G14" t="n">
-        <v>201.035878973336</v>
+        <v>201.0358789733359</v>
       </c>
       <c r="H14" t="n">
-        <v>201.035878973336</v>
+        <v>201.0358789733359</v>
       </c>
       <c r="I14" t="n">
-        <v>201.035878973336</v>
+        <v>201.0358789733359</v>
       </c>
       <c r="J14" t="n">
-        <v>78.31078811117104</v>
+        <v>201.0358789733359</v>
       </c>
       <c r="K14" t="n">
-        <v>9.019020300811547</v>
+        <v>126.0378649337721</v>
       </c>
       <c r="L14" t="n">
-        <v>140.6929533295077</v>
+        <v>0</v>
       </c>
       <c r="M14" t="n">
-        <v>106.5274471364912</v>
+        <v>0</v>
       </c>
       <c r="N14" t="n">
         <v>112.1685428985972</v>
       </c>
       <c r="O14" t="n">
-        <v>141.0128306930232</v>
+        <v>153.5118697720612</v>
       </c>
       <c r="P14" t="n">
         <v>17.68283742703043</v>
@@ -28372,28 +28372,28 @@
         <v>91.65736881023059</v>
       </c>
       <c r="R14" t="n">
-        <v>201.035878973336</v>
+        <v>196.0133048651712</v>
       </c>
       <c r="S14" t="n">
-        <v>201.035878973336</v>
+        <v>201.0358789733359</v>
       </c>
       <c r="T14" t="n">
-        <v>201.035878973336</v>
+        <v>201.0358789733359</v>
       </c>
       <c r="U14" t="n">
-        <v>201.035878973336</v>
+        <v>201.0358789733359</v>
       </c>
       <c r="V14" t="n">
-        <v>201.035878973336</v>
+        <v>201.0358789733359</v>
       </c>
       <c r="W14" t="n">
-        <v>201.035878973336</v>
+        <v>201.0358789733359</v>
       </c>
       <c r="X14" t="n">
-        <v>201.035878973336</v>
+        <v>201.0358789733359</v>
       </c>
       <c r="Y14" t="n">
-        <v>201.035878973336</v>
+        <v>201.0358789733359</v>
       </c>
     </row>
     <row r="15">
@@ -28403,25 +28403,25 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>176.7504943976657</v>
+        <v>0</v>
       </c>
       <c r="C15" t="n">
-        <v>187.5181515243659</v>
+        <v>2.475643495250779</v>
       </c>
       <c r="D15" t="n">
-        <v>0</v>
+        <v>159.1723150765785</v>
       </c>
       <c r="E15" t="n">
         <v>171.8275718397997</v>
       </c>
       <c r="F15" t="n">
-        <v>104.8278373978712</v>
+        <v>158.8234391199283</v>
       </c>
       <c r="G15" t="n">
         <v>148.7542444118752</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>125.8286260849892</v>
       </c>
       <c r="I15" t="n">
         <v>107.6953116922337</v>
@@ -28448,31 +28448,31 @@
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>8.099985407837632</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>135.3183225070108</v>
       </c>
       <c r="S15" t="n">
-        <v>6.72734089723602</v>
+        <v>191.7698489263512</v>
       </c>
       <c r="T15" t="n">
-        <v>201.035878973336</v>
+        <v>201.0358789733359</v>
       </c>
       <c r="U15" t="n">
-        <v>201.035878973336</v>
+        <v>201.0358789733359</v>
       </c>
       <c r="V15" t="n">
-        <v>201.035878973336</v>
+        <v>55.6064128862871</v>
       </c>
       <c r="W15" t="n">
-        <v>201.035878973336</v>
+        <v>201.0358789733359</v>
       </c>
       <c r="X15" t="n">
-        <v>201.035878973336</v>
+        <v>192.319281982264</v>
       </c>
       <c r="Y15" t="n">
-        <v>201.035878973336</v>
+        <v>201.0358789733359</v>
       </c>
     </row>
     <row r="16">
@@ -28497,7 +28497,7 @@
         <v>138.9268822184467</v>
       </c>
       <c r="G16" t="n">
-        <v>201.035878973336</v>
+        <v>201.0358789733359</v>
       </c>
       <c r="H16" t="n">
         <v>165.8962521998686</v>
@@ -28506,16 +28506,16 @@
         <v>165.096009822084</v>
       </c>
       <c r="J16" t="n">
-        <v>201.035878973336</v>
+        <v>120.810990811985</v>
       </c>
       <c r="K16" t="n">
         <v>67.96893830655416</v>
       </c>
       <c r="L16" t="n">
-        <v>201.035878973336</v>
+        <v>183.9223252994211</v>
       </c>
       <c r="M16" t="n">
-        <v>70.72510553196037</v>
+        <v>26.48372421578396</v>
       </c>
       <c r="N16" t="n">
         <v>17.75689311507488</v>
@@ -28524,34 +28524,34 @@
         <v>38.62120963049811</v>
       </c>
       <c r="P16" t="n">
-        <v>59.4560558218931</v>
+        <v>201.0358789733359</v>
       </c>
       <c r="Q16" t="n">
         <v>127.8937264706995</v>
       </c>
       <c r="R16" t="n">
-        <v>201.035878973336</v>
+        <v>201.0358789733359</v>
       </c>
       <c r="S16" t="n">
-        <v>201.035878973336</v>
+        <v>201.0358789733359</v>
       </c>
       <c r="T16" t="n">
-        <v>201.035878973336</v>
+        <v>201.0358789733359</v>
       </c>
       <c r="U16" t="n">
-        <v>201.035878973336</v>
+        <v>201.0358789733359</v>
       </c>
       <c r="V16" t="n">
-        <v>201.035878973336</v>
+        <v>201.0358789733359</v>
       </c>
       <c r="W16" t="n">
-        <v>201.035878973336</v>
+        <v>201.0358789733359</v>
       </c>
       <c r="X16" t="n">
-        <v>201.035878973336</v>
+        <v>201.0358789733359</v>
       </c>
       <c r="Y16" t="n">
-        <v>201.035878973336</v>
+        <v>201.0358789733359</v>
       </c>
     </row>
     <row r="17">
@@ -28585,10 +28585,10 @@
         <v>241.7043690596376</v>
       </c>
       <c r="J17" t="n">
-        <v>263.3532961402863</v>
+        <v>263.3532961402861</v>
       </c>
       <c r="K17" t="n">
-        <v>9.019020300811547</v>
+        <v>194.0615283299267</v>
       </c>
       <c r="L17" t="n">
         <v>0</v>
@@ -28600,25 +28600,25 @@
         <v>0</v>
       </c>
       <c r="O17" t="n">
-        <v>32.66747987234881</v>
+        <v>0</v>
       </c>
       <c r="P17" t="n">
-        <v>202.7253454561456</v>
+        <v>28.34858894040092</v>
       </c>
       <c r="Q17" t="n">
         <v>91.65736881023059</v>
       </c>
       <c r="R17" t="n">
-        <v>298.6851571003761</v>
+        <v>196.0133048651712</v>
       </c>
       <c r="S17" t="n">
         <v>227.9275566218379</v>
       </c>
       <c r="T17" t="n">
-        <v>222.5447507550574</v>
+        <v>298.6851571003761</v>
       </c>
       <c r="U17" t="n">
-        <v>250.1519828515119</v>
+        <v>298.6851571003761</v>
       </c>
       <c r="V17" t="n">
         <v>298.6851571003761</v>
@@ -28640,13 +28640,13 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0</v>
+        <v>157.1833612404695</v>
       </c>
       <c r="C18" t="n">
-        <v>2.475643495250722</v>
+        <v>187.5181515243659</v>
       </c>
       <c r="D18" t="n">
-        <v>0</v>
+        <v>159.1723150765785</v>
       </c>
       <c r="E18" t="n">
         <v>171.8275718397997</v>
@@ -28658,7 +28658,7 @@
         <v>148.7542444118752</v>
       </c>
       <c r="H18" t="n">
-        <v>63.99930093596927</v>
+        <v>125.8286260849892</v>
       </c>
       <c r="I18" t="n">
         <v>107.6953116922337</v>
@@ -28685,7 +28685,7 @@
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>8.099985407837632</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -28697,19 +28697,19 @@
         <v>215.0097793174697</v>
       </c>
       <c r="U18" t="n">
-        <v>237.2287037032865</v>
+        <v>52.18619567417139</v>
       </c>
       <c r="V18" t="n">
         <v>240.6489209154022</v>
       </c>
       <c r="W18" t="n">
-        <v>266.7045835770116</v>
+        <v>81.66207554789645</v>
       </c>
       <c r="X18" t="n">
         <v>217.3129144394706</v>
       </c>
       <c r="Y18" t="n">
-        <v>223.3842861340256</v>
+        <v>38.34177810491047</v>
       </c>
     </row>
     <row r="19">
@@ -28822,13 +28822,13 @@
         <v>298.6851571003761</v>
       </c>
       <c r="J20" t="n">
-        <v>78.31078811117104</v>
+        <v>239.0399879718962</v>
       </c>
       <c r="K20" t="n">
         <v>194.0615283299267</v>
       </c>
       <c r="L20" t="n">
-        <v>140.6929533295077</v>
+        <v>0</v>
       </c>
       <c r="M20" t="n">
         <v>0</v>
@@ -28837,7 +28837,7 @@
         <v>0</v>
       </c>
       <c r="O20" t="n">
-        <v>46.567692421104</v>
+        <v>0</v>
       </c>
       <c r="P20" t="n">
         <v>17.68283742703043</v>
@@ -28846,13 +28846,13 @@
         <v>91.65736881023059</v>
       </c>
       <c r="R20" t="n">
-        <v>196.0133048651712</v>
+        <v>298.6851571003761</v>
       </c>
       <c r="S20" t="n">
         <v>227.9275566218379</v>
       </c>
       <c r="T20" t="n">
-        <v>298.6851571003761</v>
+        <v>222.5447507550574</v>
       </c>
       <c r="U20" t="n">
         <v>250.1519828515119</v>
@@ -28877,10 +28877,10 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0</v>
+        <v>176.7504943976657</v>
       </c>
       <c r="C21" t="n">
-        <v>187.5181515243659</v>
+        <v>2.475643495250779</v>
       </c>
       <c r="D21" t="n">
         <v>159.1723150765785</v>
@@ -28889,16 +28889,16 @@
         <v>171.8275718397997</v>
       </c>
       <c r="F21" t="n">
-        <v>0</v>
+        <v>158.8234391199283</v>
       </c>
       <c r="G21" t="n">
-        <v>0</v>
+        <v>148.7542444118752</v>
       </c>
       <c r="H21" t="n">
         <v>125.8286260849892</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>107.6953116922337</v>
       </c>
       <c r="J21" t="n">
         <v>53.38593305174645</v>
@@ -28922,7 +28922,7 @@
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>8.099985407837632</v>
       </c>
       <c r="R21" t="n">
         <v>135.3183225070108</v>
@@ -28931,16 +28931,16 @@
         <v>191.7698489263512</v>
       </c>
       <c r="T21" t="n">
-        <v>215.0097793174697</v>
+        <v>29.96727128835454</v>
       </c>
       <c r="U21" t="n">
-        <v>237.2287037032865</v>
+        <v>52.18619567417139</v>
       </c>
       <c r="V21" t="n">
-        <v>122.6594307855527</v>
+        <v>240.6489209154022</v>
       </c>
       <c r="W21" t="n">
-        <v>266.7045835770116</v>
+        <v>103.719142504967</v>
       </c>
       <c r="X21" t="n">
         <v>217.3129144394706</v>
@@ -29056,28 +29056,28 @@
         <v>298.6851571003761</v>
       </c>
       <c r="I23" t="n">
-        <v>266.3326344814434</v>
+        <v>241.7043690596376</v>
       </c>
       <c r="J23" t="n">
         <v>78.31078811117104</v>
       </c>
       <c r="K23" t="n">
-        <v>194.0615283299267</v>
+        <v>9.019020300811547</v>
       </c>
       <c r="L23" t="n">
-        <v>140.6929533295077</v>
+        <v>0</v>
       </c>
       <c r="M23" t="n">
         <v>106.5274471364912</v>
       </c>
       <c r="N23" t="n">
-        <v>0</v>
+        <v>112.1685428985972</v>
       </c>
       <c r="O23" t="n">
         <v>0</v>
       </c>
       <c r="P23" t="n">
-        <v>17.68283742703043</v>
+        <v>157.5131887338691</v>
       </c>
       <c r="Q23" t="n">
         <v>91.65736881023059</v>
@@ -29086,13 +29086,13 @@
         <v>196.0133048651712</v>
       </c>
       <c r="S23" t="n">
-        <v>227.9275566218379</v>
+        <v>298.6851571003761</v>
       </c>
       <c r="T23" t="n">
-        <v>222.5447507550574</v>
+        <v>298.6851571003761</v>
       </c>
       <c r="U23" t="n">
-        <v>298.6851571003761</v>
+        <v>250.1519828515119</v>
       </c>
       <c r="V23" t="n">
         <v>298.6851571003761</v>
@@ -29159,31 +29159,31 @@
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>8.099985407837632</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>135.3183225070108</v>
       </c>
       <c r="S24" t="n">
-        <v>191.7698489263512</v>
+        <v>6.727340897236019</v>
       </c>
       <c r="T24" t="n">
         <v>215.0097793174697</v>
       </c>
       <c r="U24" t="n">
-        <v>52.18619567417133</v>
+        <v>237.2287037032865</v>
       </c>
       <c r="V24" t="n">
-        <v>240.6489209154022</v>
+        <v>85.76346525119536</v>
       </c>
       <c r="W24" t="n">
         <v>81.66207554789639</v>
       </c>
       <c r="X24" t="n">
-        <v>189.6457958744369</v>
+        <v>32.27040641035541</v>
       </c>
       <c r="Y24" t="n">
-        <v>38.34177810491042</v>
+        <v>223.3842861340256</v>
       </c>
     </row>
     <row r="25">
@@ -29272,76 +29272,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>214.4377715571429</v>
+        <v>214.4377715571427</v>
       </c>
       <c r="C26" t="n">
-        <v>214.4377715571429</v>
+        <v>214.4377715571427</v>
       </c>
       <c r="D26" t="n">
-        <v>214.4377715571429</v>
+        <v>214.4377715571427</v>
       </c>
       <c r="E26" t="n">
-        <v>214.4377715571429</v>
+        <v>214.4377715571427</v>
       </c>
       <c r="F26" t="n">
-        <v>214.4377715571429</v>
+        <v>214.4377715571427</v>
       </c>
       <c r="G26" t="n">
-        <v>214.4377715571429</v>
+        <v>214.4377715571427</v>
       </c>
       <c r="H26" t="n">
-        <v>214.4377715571429</v>
+        <v>214.4377715571427</v>
       </c>
       <c r="I26" t="n">
-        <v>214.4377715571429</v>
+        <v>214.4377715571427</v>
       </c>
       <c r="J26" t="n">
-        <v>214.4377715571429</v>
+        <v>214.4377715571427</v>
       </c>
       <c r="K26" t="n">
-        <v>214.4377715571429</v>
+        <v>214.4377715571427</v>
       </c>
       <c r="L26" t="n">
-        <v>214.4377715571429</v>
+        <v>214.4377715571427</v>
       </c>
       <c r="M26" t="n">
-        <v>214.4377715571429</v>
+        <v>214.4377715571427</v>
       </c>
       <c r="N26" t="n">
-        <v>214.4377715571429</v>
+        <v>214.4377715571427</v>
       </c>
       <c r="O26" t="n">
-        <v>214.4377715571429</v>
+        <v>214.4377715571427</v>
       </c>
       <c r="P26" t="n">
-        <v>214.4377715571429</v>
+        <v>214.4377715571447</v>
       </c>
       <c r="Q26" t="n">
-        <v>214.4377715571429</v>
+        <v>214.4377715571427</v>
       </c>
       <c r="R26" t="n">
-        <v>214.4377715571429</v>
+        <v>214.4377715571427</v>
       </c>
       <c r="S26" t="n">
-        <v>214.4377715571429</v>
+        <v>214.4377715571427</v>
       </c>
       <c r="T26" t="n">
-        <v>214.4377715571429</v>
+        <v>214.4377715571427</v>
       </c>
       <c r="U26" t="n">
-        <v>214.4377715571429</v>
+        <v>214.4377715571427</v>
       </c>
       <c r="V26" t="n">
-        <v>214.4377715571429</v>
+        <v>214.4377715571427</v>
       </c>
       <c r="W26" t="n">
-        <v>214.4377715571429</v>
+        <v>214.4377715571427</v>
       </c>
       <c r="X26" t="n">
-        <v>214.4377715571429</v>
+        <v>214.4377715571427</v>
       </c>
       <c r="Y26" t="n">
-        <v>214.4377715571429</v>
+        <v>214.4377715571427</v>
       </c>
     </row>
     <row r="27">
@@ -29357,10 +29357,10 @@
         <v>187.5181515243659</v>
       </c>
       <c r="D27" t="n">
-        <v>34.59918139798597</v>
+        <v>159.1723150765785</v>
       </c>
       <c r="E27" t="n">
-        <v>0</v>
+        <v>171.8275718397997</v>
       </c>
       <c r="F27" t="n">
         <v>158.8234391199283</v>
@@ -29396,31 +29396,31 @@
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>8.099985407837632</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
       </c>
       <c r="S27" t="n">
-        <v>0</v>
+        <v>191.7698489263512</v>
       </c>
       <c r="T27" t="n">
-        <v>214.4377715571429</v>
+        <v>214.4377715571427</v>
       </c>
       <c r="U27" t="n">
-        <v>214.4377715571429</v>
+        <v>163.2427456345235</v>
       </c>
       <c r="V27" t="n">
-        <v>214.4377715571429</v>
+        <v>214.4377715571427</v>
       </c>
       <c r="W27" t="n">
-        <v>214.4377715571429</v>
+        <v>0</v>
       </c>
       <c r="X27" t="n">
-        <v>214.4377715571429</v>
+        <v>0</v>
       </c>
       <c r="Y27" t="n">
-        <v>214.4377715571429</v>
+        <v>214.4377715571427</v>
       </c>
     </row>
     <row r="28">
@@ -29433,7 +29433,7 @@
         <v>177.6169206649681</v>
       </c>
       <c r="C28" t="n">
-        <v>166.4571809719723</v>
+        <v>214.4377715571427</v>
       </c>
       <c r="D28" t="n">
         <v>145.1826502507107</v>
@@ -29445,10 +29445,10 @@
         <v>138.9268822184467</v>
       </c>
       <c r="G28" t="n">
-        <v>168.7088567267151</v>
+        <v>191.6908675751612</v>
       </c>
       <c r="H28" t="n">
-        <v>214.4377715571429</v>
+        <v>165.8962521998686</v>
       </c>
       <c r="I28" t="n">
         <v>165.096009822084</v>
@@ -29463,7 +29463,7 @@
         <v>33.35335943042254</v>
       </c>
       <c r="M28" t="n">
-        <v>203.8865220273744</v>
+        <v>26.48372421578396</v>
       </c>
       <c r="N28" t="n">
         <v>17.75689311507488</v>
@@ -29472,7 +29472,7 @@
         <v>38.62120963049811</v>
       </c>
       <c r="P28" t="n">
-        <v>59.4560558218931</v>
+        <v>214.4377715571427</v>
       </c>
       <c r="Q28" t="n">
         <v>127.8937264706995</v>
@@ -29481,25 +29481,25 @@
         <v>203.7933482523308</v>
       </c>
       <c r="S28" t="n">
-        <v>214.4377715571429</v>
+        <v>214.4377715571427</v>
       </c>
       <c r="T28" t="n">
-        <v>214.4377715571429</v>
+        <v>214.4377715571427</v>
       </c>
       <c r="U28" t="n">
-        <v>214.4377715571429</v>
+        <v>214.4377715571427</v>
       </c>
       <c r="V28" t="n">
-        <v>214.4377715571429</v>
+        <v>214.4377715571427</v>
       </c>
       <c r="W28" t="n">
-        <v>214.4377715571429</v>
+        <v>214.4377715571427</v>
       </c>
       <c r="X28" t="n">
-        <v>214.4377715571429</v>
+        <v>214.4377715571427</v>
       </c>
       <c r="Y28" t="n">
-        <v>214.4377715571429</v>
+        <v>214.4377715571427</v>
       </c>
     </row>
     <row r="29">
@@ -29509,76 +29509,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>214.4377715571428</v>
+        <v>214.4377715571429</v>
       </c>
       <c r="C29" t="n">
-        <v>214.4377715571428</v>
+        <v>214.4377715571429</v>
       </c>
       <c r="D29" t="n">
-        <v>214.4377715571428</v>
+        <v>214.4377715571429</v>
       </c>
       <c r="E29" t="n">
-        <v>214.4377715571428</v>
+        <v>214.4377715571429</v>
       </c>
       <c r="F29" t="n">
-        <v>214.4377715571428</v>
+        <v>214.4377715571429</v>
       </c>
       <c r="G29" t="n">
-        <v>214.4377715571428</v>
+        <v>214.4377715571429</v>
       </c>
       <c r="H29" t="n">
-        <v>214.4377715571428</v>
+        <v>214.4377715571429</v>
       </c>
       <c r="I29" t="n">
-        <v>214.4377715571428</v>
+        <v>214.4377715571429</v>
       </c>
       <c r="J29" t="n">
-        <v>214.4377715571428</v>
+        <v>214.4377715571429</v>
       </c>
       <c r="K29" t="n">
-        <v>214.4377715571428</v>
+        <v>214.4377715571429</v>
       </c>
       <c r="L29" t="n">
-        <v>214.4377715571428</v>
+        <v>214.4377715571429</v>
       </c>
       <c r="M29" t="n">
-        <v>214.4377715571428</v>
+        <v>214.4377715571429</v>
       </c>
       <c r="N29" t="n">
-        <v>214.4377715571428</v>
+        <v>214.4377715571429</v>
       </c>
       <c r="O29" t="n">
-        <v>214.4377715571428</v>
+        <v>214.4377715571429</v>
       </c>
       <c r="P29" t="n">
-        <v>214.4377715571428</v>
+        <v>214.4377715571429</v>
       </c>
       <c r="Q29" t="n">
-        <v>214.4377715571428</v>
+        <v>214.4377715571429</v>
       </c>
       <c r="R29" t="n">
-        <v>214.4377715571428</v>
+        <v>214.4377715571429</v>
       </c>
       <c r="S29" t="n">
-        <v>214.4377715571428</v>
+        <v>214.4377715571429</v>
       </c>
       <c r="T29" t="n">
-        <v>214.4377715571428</v>
+        <v>214.4377715571429</v>
       </c>
       <c r="U29" t="n">
-        <v>214.4377715571428</v>
+        <v>214.4377715571429</v>
       </c>
       <c r="V29" t="n">
-        <v>214.4377715571428</v>
+        <v>214.4377715571429</v>
       </c>
       <c r="W29" t="n">
-        <v>214.4377715571428</v>
+        <v>214.4377715571429</v>
       </c>
       <c r="X29" t="n">
-        <v>214.4377715571428</v>
+        <v>214.4377715571429</v>
       </c>
       <c r="Y29" t="n">
-        <v>214.4377715571428</v>
+        <v>214.4377715571429</v>
       </c>
     </row>
     <row r="30">
@@ -29591,7 +29591,7 @@
         <v>176.7504943976657</v>
       </c>
       <c r="C30" t="n">
-        <v>0</v>
+        <v>187.5181515243659</v>
       </c>
       <c r="D30" t="n">
         <v>159.1723150765785</v>
@@ -29600,7 +29600,7 @@
         <v>171.8275718397997</v>
       </c>
       <c r="F30" t="n">
-        <v>151.728256806826</v>
+        <v>158.8234391199283</v>
       </c>
       <c r="G30" t="n">
         <v>148.7542444118752</v>
@@ -29636,28 +29636,28 @@
         <v>8.099985407837632</v>
       </c>
       <c r="R30" t="n">
-        <v>135.3183225070108</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>191.7698489263512</v>
+        <v>0</v>
       </c>
       <c r="T30" t="n">
-        <v>0</v>
+        <v>132.4748375958937</v>
       </c>
       <c r="U30" t="n">
-        <v>214.4377715571428</v>
+        <v>0</v>
       </c>
       <c r="V30" t="n">
-        <v>0</v>
+        <v>214.4377715571429</v>
       </c>
       <c r="W30" t="n">
-        <v>214.4377715571428</v>
+        <v>214.4377715571429</v>
       </c>
       <c r="X30" t="n">
-        <v>214.4377715571428</v>
+        <v>214.4377715571429</v>
       </c>
       <c r="Y30" t="n">
-        <v>214.4377715571428</v>
+        <v>214.4377715571429</v>
       </c>
     </row>
     <row r="31">
@@ -29670,10 +29670,10 @@
         <v>177.6169206649681</v>
       </c>
       <c r="C31" t="n">
-        <v>193.8030274946665</v>
+        <v>166.4571809719723</v>
       </c>
       <c r="D31" t="n">
-        <v>145.1826502507107</v>
+        <v>183.1729200782167</v>
       </c>
       <c r="E31" t="n">
         <v>141.676141212225</v>
@@ -29700,7 +29700,7 @@
         <v>33.35335943042254</v>
       </c>
       <c r="M31" t="n">
-        <v>214.4377715571428</v>
+        <v>214.4377715571429</v>
       </c>
       <c r="N31" t="n">
         <v>17.75689311507488</v>
@@ -29715,28 +29715,28 @@
         <v>127.8937264706995</v>
       </c>
       <c r="R31" t="n">
-        <v>214.4377715571428</v>
+        <v>203.7933482523308</v>
       </c>
       <c r="S31" t="n">
-        <v>214.4377715571428</v>
+        <v>214.4377715571429</v>
       </c>
       <c r="T31" t="n">
-        <v>214.4377715571428</v>
+        <v>214.4377715571429</v>
       </c>
       <c r="U31" t="n">
-        <v>214.4377715571428</v>
+        <v>214.4377715571429</v>
       </c>
       <c r="V31" t="n">
-        <v>214.4377715571428</v>
+        <v>214.4377715571429</v>
       </c>
       <c r="W31" t="n">
-        <v>214.4377715571428</v>
+        <v>214.4377715571429</v>
       </c>
       <c r="X31" t="n">
-        <v>214.4377715571428</v>
+        <v>214.4377715571429</v>
       </c>
       <c r="Y31" t="n">
-        <v>214.4377715571428</v>
+        <v>214.4377715571429</v>
       </c>
     </row>
     <row r="32">
@@ -29746,76 +29746,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>214.4377715571429</v>
+        <v>214.4377715571428</v>
       </c>
       <c r="C32" t="n">
-        <v>214.4377715571429</v>
+        <v>214.4377715571428</v>
       </c>
       <c r="D32" t="n">
-        <v>214.4377715571429</v>
+        <v>214.4377715571428</v>
       </c>
       <c r="E32" t="n">
-        <v>214.4377715571429</v>
+        <v>214.4377715571428</v>
       </c>
       <c r="F32" t="n">
-        <v>214.4377715571429</v>
+        <v>214.4377715571428</v>
       </c>
       <c r="G32" t="n">
-        <v>214.4377715571429</v>
+        <v>214.4377715571428</v>
       </c>
       <c r="H32" t="n">
-        <v>214.4377715571429</v>
+        <v>214.4377715571428</v>
       </c>
       <c r="I32" t="n">
-        <v>214.4377715571429</v>
+        <v>214.4377715571428</v>
       </c>
       <c r="J32" t="n">
-        <v>214.4377715571429</v>
+        <v>214.4377715571428</v>
       </c>
       <c r="K32" t="n">
-        <v>214.4377715571429</v>
+        <v>214.4377715571428</v>
       </c>
       <c r="L32" t="n">
-        <v>214.4377715571429</v>
+        <v>214.4377715571428</v>
       </c>
       <c r="M32" t="n">
-        <v>214.4377715571429</v>
+        <v>214.4377715571434</v>
       </c>
       <c r="N32" t="n">
-        <v>214.4377715571429</v>
+        <v>214.4377715571428</v>
       </c>
       <c r="O32" t="n">
-        <v>214.4377715571429</v>
+        <v>214.4377715571428</v>
       </c>
       <c r="P32" t="n">
-        <v>214.4377715571429</v>
+        <v>214.4377715571428</v>
       </c>
       <c r="Q32" t="n">
-        <v>214.4377715571429</v>
+        <v>214.4377715571428</v>
       </c>
       <c r="R32" t="n">
         <v>214.4377715571428</v>
       </c>
       <c r="S32" t="n">
-        <v>214.4377715571429</v>
+        <v>214.4377715571428</v>
       </c>
       <c r="T32" t="n">
-        <v>214.4377715571429</v>
+        <v>214.4377715571428</v>
       </c>
       <c r="U32" t="n">
-        <v>214.4377715571429</v>
+        <v>214.4377715571428</v>
       </c>
       <c r="V32" t="n">
-        <v>214.4377715571429</v>
+        <v>214.4377715571428</v>
       </c>
       <c r="W32" t="n">
-        <v>214.4377715571429</v>
+        <v>214.4377715571428</v>
       </c>
       <c r="X32" t="n">
-        <v>214.4377715571429</v>
+        <v>214.4377715571428</v>
       </c>
       <c r="Y32" t="n">
-        <v>214.4377715571429</v>
+        <v>214.4377715571428</v>
       </c>
     </row>
     <row r="33">
@@ -29834,7 +29834,7 @@
         <v>159.1723150765785</v>
       </c>
       <c r="E33" t="n">
-        <v>112.5325605093422</v>
+        <v>171.8275718397997</v>
       </c>
       <c r="F33" t="n">
         <v>158.8234391199283</v>
@@ -29870,31 +29870,31 @@
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>8.099985407837632</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
       </c>
       <c r="S33" t="n">
-        <v>191.7698489263512</v>
+        <v>0</v>
       </c>
       <c r="T33" t="n">
-        <v>0</v>
+        <v>214.4377715571428</v>
       </c>
       <c r="U33" t="n">
-        <v>214.4377715571429</v>
+        <v>0</v>
       </c>
       <c r="V33" t="n">
-        <v>0</v>
+        <v>214.4377715571428</v>
       </c>
       <c r="W33" t="n">
-        <v>214.4377715571429</v>
+        <v>214.4377715571428</v>
       </c>
       <c r="X33" t="n">
-        <v>214.4377715571429</v>
+        <v>140.5748230037315</v>
       </c>
       <c r="Y33" t="n">
-        <v>214.4377715571429</v>
+        <v>214.4377715571428</v>
       </c>
     </row>
     <row r="34">
@@ -29904,7 +29904,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>214.4377715571429</v>
+        <v>177.6169206649681</v>
       </c>
       <c r="C34" t="n">
         <v>166.4571809719723</v>
@@ -29925,7 +29925,7 @@
         <v>165.8962521998686</v>
       </c>
       <c r="I34" t="n">
-        <v>214.4377715571429</v>
+        <v>165.096009822084</v>
       </c>
       <c r="J34" t="n">
         <v>120.810990811985</v>
@@ -29934,13 +29934,13 @@
         <v>67.96893830655416</v>
       </c>
       <c r="L34" t="n">
-        <v>173.1350639720538</v>
+        <v>33.35335943042254</v>
       </c>
       <c r="M34" t="n">
-        <v>26.48372421578396</v>
+        <v>55.74716294258111</v>
       </c>
       <c r="N34" t="n">
-        <v>17.75689311507488</v>
+        <v>214.4377715571428</v>
       </c>
       <c r="O34" t="n">
         <v>38.62120963049811</v>
@@ -29955,25 +29955,25 @@
         <v>203.7933482523308</v>
       </c>
       <c r="S34" t="n">
-        <v>214.4377715571429</v>
+        <v>214.4377715571428</v>
       </c>
       <c r="T34" t="n">
-        <v>214.4377715571429</v>
+        <v>214.4377715571428</v>
       </c>
       <c r="U34" t="n">
-        <v>214.4377715571429</v>
+        <v>214.4377715571428</v>
       </c>
       <c r="V34" t="n">
-        <v>214.4377715571429</v>
+        <v>214.4377715571428</v>
       </c>
       <c r="W34" t="n">
-        <v>214.4377715571429</v>
+        <v>214.4377715571428</v>
       </c>
       <c r="X34" t="n">
-        <v>214.4377715571429</v>
+        <v>214.4377715571428</v>
       </c>
       <c r="Y34" t="n">
-        <v>214.4377715571429</v>
+        <v>214.4377715571428</v>
       </c>
     </row>
     <row r="35">
@@ -30007,25 +30007,25 @@
         <v>241.7043690596376</v>
       </c>
       <c r="J35" t="n">
-        <v>78.31078811117104</v>
+        <v>272.0318981116807</v>
       </c>
       <c r="K35" t="n">
-        <v>139.9543070804602</v>
+        <v>9.019020300811547</v>
       </c>
       <c r="L35" t="n">
         <v>0</v>
       </c>
       <c r="M35" t="n">
-        <v>182.0752333856276</v>
+        <v>182.0752333856277</v>
       </c>
       <c r="N35" t="n">
-        <v>187.7163291477336</v>
+        <v>187.7163291477337</v>
       </c>
       <c r="O35" t="n">
-        <v>0</v>
+        <v>147.4588959739468</v>
       </c>
       <c r="P35" t="n">
-        <v>272.0318981116807</v>
+        <v>17.68283742703043</v>
       </c>
       <c r="Q35" t="n">
         <v>91.65736881023059</v>
@@ -30034,7 +30034,7 @@
         <v>196.0133048651712</v>
       </c>
       <c r="S35" t="n">
-        <v>227.9275566218379</v>
+        <v>272.0318981116807</v>
       </c>
       <c r="T35" t="n">
         <v>272.0318981116807</v>
@@ -30065,7 +30065,7 @@
         <v>176.7504943976657</v>
       </c>
       <c r="C36" t="n">
-        <v>0</v>
+        <v>187.5181515243659</v>
       </c>
       <c r="D36" t="n">
         <v>159.1723150765785</v>
@@ -30080,7 +30080,7 @@
         <v>148.7542444118752</v>
       </c>
       <c r="H36" t="n">
-        <v>62.17295194031844</v>
+        <v>125.8286260849892</v>
       </c>
       <c r="I36" t="n">
         <v>107.6953116922337</v>
@@ -30107,28 +30107,28 @@
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>8.099985407837632</v>
       </c>
       <c r="R36" t="n">
         <v>135.3183225070108</v>
       </c>
       <c r="S36" t="n">
-        <v>191.7698489263512</v>
+        <v>0</v>
       </c>
       <c r="T36" t="n">
         <v>215.0097793174697</v>
       </c>
       <c r="U36" t="n">
-        <v>0</v>
+        <v>237.2287037032865</v>
       </c>
       <c r="V36" t="n">
-        <v>0</v>
+        <v>173.1705428639126</v>
       </c>
       <c r="W36" t="n">
-        <v>266.7045835770116</v>
+        <v>6.1142892987599</v>
       </c>
       <c r="X36" t="n">
-        <v>217.3129144394706</v>
+        <v>0</v>
       </c>
       <c r="Y36" t="n">
         <v>223.3842861340256</v>
@@ -30171,7 +30171,7 @@
         <v>67.96893830655416</v>
       </c>
       <c r="L37" t="n">
-        <v>68.96595881820966</v>
+        <v>33.35335943042254</v>
       </c>
       <c r="M37" t="n">
         <v>26.48372421578396</v>
@@ -30180,7 +30180,7 @@
         <v>17.75689311507488</v>
       </c>
       <c r="O37" t="n">
-        <v>38.62120963049811</v>
+        <v>74.23380901828523</v>
       </c>
       <c r="P37" t="n">
         <v>59.4560558218931</v>
@@ -30250,16 +30250,16 @@
         <v>9.019020300811547</v>
       </c>
       <c r="L38" t="n">
-        <v>216.2407395786441</v>
+        <v>216.2407395786442</v>
       </c>
       <c r="M38" t="n">
-        <v>182.0752333856276</v>
+        <v>182.0752333856277</v>
       </c>
       <c r="N38" t="n">
-        <v>0</v>
+        <v>110.8313827206672</v>
       </c>
       <c r="O38" t="n">
-        <v>34.81278947415747</v>
+        <v>0</v>
       </c>
       <c r="P38" t="n">
         <v>17.68283742703043</v>
@@ -30268,7 +30268,7 @@
         <v>91.65736881023059</v>
       </c>
       <c r="R38" t="n">
-        <v>272.0318981116807</v>
+        <v>196.0133048651712</v>
       </c>
       <c r="S38" t="n">
         <v>227.9275566218379</v>
@@ -30299,7 +30299,7 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>176.7504943976657</v>
+        <v>0</v>
       </c>
       <c r="C39" t="n">
         <v>187.5181515243659</v>
@@ -30314,10 +30314,10 @@
         <v>158.8234391199283</v>
       </c>
       <c r="G39" t="n">
-        <v>113.17243647309</v>
+        <v>148.7542444118752</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
+        <v>125.8286260849892</v>
       </c>
       <c r="I39" t="n">
         <v>107.6953116922337</v>
@@ -30344,10 +30344,10 @@
         <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>8.099985407837632</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>135.3183225070108</v>
       </c>
       <c r="S39" t="n">
         <v>191.7698489263512</v>
@@ -30365,10 +30365,10 @@
         <v>266.7045835770116</v>
       </c>
       <c r="X39" t="n">
-        <v>0</v>
+        <v>95.30603859306851</v>
       </c>
       <c r="Y39" t="n">
-        <v>223.3842861340256</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40">
@@ -30423,7 +30423,7 @@
         <v>59.4560558218931</v>
       </c>
       <c r="Q40" t="n">
-        <v>127.8937264706995</v>
+        <v>163.5063258584866</v>
       </c>
       <c r="R40" t="n">
         <v>203.7933482523308</v>
@@ -30438,7 +30438,7 @@
         <v>272.0318981116807</v>
       </c>
       <c r="V40" t="n">
-        <v>263.758958024624</v>
+        <v>245.1090151844499</v>
       </c>
       <c r="W40" t="n">
         <v>272.0318981116807</v>
@@ -30447,7 +30447,7 @@
         <v>221.9194554082425</v>
       </c>
       <c r="Y40" t="n">
-        <v>234.1039293617815</v>
+        <v>217.1412728141684</v>
       </c>
     </row>
     <row r="41">
@@ -30481,28 +30481,28 @@
         <v>241.7043690596376</v>
       </c>
       <c r="J41" t="n">
-        <v>78.31078811117102</v>
+        <v>78.31078811117104</v>
       </c>
       <c r="K41" t="n">
-        <v>9.019020300811526</v>
+        <v>9.019020300811547</v>
       </c>
       <c r="L41" t="n">
-        <v>216.2407395786441</v>
+        <v>216.2407395786442</v>
       </c>
       <c r="M41" t="n">
         <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>149.7477848727688</v>
+        <v>187.7163291477337</v>
       </c>
       <c r="O41" t="n">
-        <v>229.0596560211976</v>
+        <v>97.95696205845236</v>
       </c>
       <c r="P41" t="n">
-        <v>17.6828374270304</v>
+        <v>241.7043690596376</v>
       </c>
       <c r="Q41" t="n">
-        <v>241.7043690596376</v>
+        <v>91.65736881023059</v>
       </c>
       <c r="R41" t="n">
         <v>241.7043690596376</v>
@@ -30511,7 +30511,7 @@
         <v>241.7043690596376</v>
       </c>
       <c r="T41" t="n">
-        <v>222.5447507550574</v>
+        <v>241.7043690596376</v>
       </c>
       <c r="U41" t="n">
         <v>241.7043690596376</v>
@@ -30536,10 +30536,10 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>111.0917906387455</v>
+        <v>176.7504943976657</v>
       </c>
       <c r="C42" t="n">
-        <v>0</v>
+        <v>187.5181515243659</v>
       </c>
       <c r="D42" t="n">
         <v>159.1723150765785</v>
@@ -30548,7 +30548,7 @@
         <v>171.8275718397997</v>
       </c>
       <c r="F42" t="n">
-        <v>158.8234391199283</v>
+        <v>37.64924068162188</v>
       </c>
       <c r="G42" t="n">
         <v>148.7542444118752</v>
@@ -30560,7 +30560,7 @@
         <v>107.6953116922337</v>
       </c>
       <c r="J42" t="n">
-        <v>53.38593305174644</v>
+        <v>53.38593305174645</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
@@ -30581,31 +30581,31 @@
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>8.099985407837622</v>
+        <v>8.099985407837632</v>
       </c>
       <c r="R42" t="n">
-        <v>135.3183225070108</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>191.7698489263512</v>
       </c>
       <c r="T42" t="n">
-        <v>215.0097793174697</v>
+        <v>0</v>
       </c>
       <c r="U42" t="n">
         <v>237.2287037032865</v>
       </c>
       <c r="V42" t="n">
-        <v>240.6489209154022</v>
+        <v>0</v>
       </c>
       <c r="W42" t="n">
-        <v>6.114289298760013</v>
+        <v>241.7043690596376</v>
       </c>
       <c r="X42" t="n">
         <v>217.3129144394706</v>
       </c>
       <c r="Y42" t="n">
-        <v>0</v>
+        <v>223.3842861340256</v>
       </c>
     </row>
     <row r="43">
@@ -30618,10 +30618,10 @@
         <v>177.6169206649681</v>
       </c>
       <c r="C43" t="n">
-        <v>241.7043690596376</v>
+        <v>166.4571809719723</v>
       </c>
       <c r="D43" t="n">
-        <v>170.9084372562693</v>
+        <v>145.1826502507107</v>
       </c>
       <c r="E43" t="n">
         <v>141.676141212225</v>
@@ -30642,22 +30642,22 @@
         <v>120.810990811985</v>
       </c>
       <c r="K43" t="n">
-        <v>67.96893830655415</v>
+        <v>67.96893830655416</v>
       </c>
       <c r="L43" t="n">
-        <v>33.35335943042253</v>
+        <v>33.35335943042254</v>
       </c>
       <c r="M43" t="n">
-        <v>26.48372421578394</v>
+        <v>26.48372421578396</v>
       </c>
       <c r="N43" t="n">
-        <v>17.75689311507487</v>
+        <v>118.7298682082987</v>
       </c>
       <c r="O43" t="n">
-        <v>38.6212096304981</v>
+        <v>38.62120963049811</v>
       </c>
       <c r="P43" t="n">
-        <v>59.45605582189309</v>
+        <v>59.4560558218931</v>
       </c>
       <c r="Q43" t="n">
         <v>127.8937264706995</v>
@@ -30694,76 +30694,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>241.7043690596376</v>
+        <v>241.7043690596377</v>
       </c>
       <c r="C44" t="n">
-        <v>241.7043690596376</v>
+        <v>241.7043690596377</v>
       </c>
       <c r="D44" t="n">
-        <v>241.7043690596376</v>
+        <v>241.7043690596377</v>
       </c>
       <c r="E44" t="n">
-        <v>241.7043690596376</v>
+        <v>241.7043690596377</v>
       </c>
       <c r="F44" t="n">
-        <v>241.7043690596376</v>
+        <v>241.7043690596377</v>
       </c>
       <c r="G44" t="n">
-        <v>241.7043690596376</v>
+        <v>241.7043690596377</v>
       </c>
       <c r="H44" t="n">
-        <v>241.7043690596376</v>
+        <v>241.7043690596377</v>
       </c>
       <c r="I44" t="n">
-        <v>241.7043690596376</v>
+        <v>241.7043690596377</v>
       </c>
       <c r="J44" t="n">
-        <v>241.7043690596376</v>
+        <v>78.31078811117108</v>
       </c>
       <c r="K44" t="n">
-        <v>241.7043690596376</v>
+        <v>241.7043690596377</v>
       </c>
       <c r="L44" t="n">
         <v>0</v>
       </c>
       <c r="M44" t="n">
-        <v>182.0752333856274</v>
+        <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>0</v>
+        <v>138.3413000811782</v>
       </c>
       <c r="O44" t="n">
-        <v>212.6320818235631</v>
+        <v>0</v>
       </c>
       <c r="P44" t="n">
-        <v>17.68283742703031</v>
+        <v>241.7043690596377</v>
       </c>
       <c r="Q44" t="n">
-        <v>91.65736881023049</v>
+        <v>241.7043690596377</v>
       </c>
       <c r="R44" t="n">
-        <v>196.0133048651711</v>
+        <v>241.7043690596377</v>
       </c>
       <c r="S44" t="n">
-        <v>241.7043690596376</v>
+        <v>241.7043690596377</v>
       </c>
       <c r="T44" t="n">
         <v>222.5447507550574</v>
       </c>
       <c r="U44" t="n">
-        <v>241.7043690596376</v>
+        <v>241.7043690596377</v>
       </c>
       <c r="V44" t="n">
-        <v>241.7043690596376</v>
+        <v>241.7043690596377</v>
       </c>
       <c r="W44" t="n">
-        <v>241.7043690596376</v>
+        <v>241.7043690596377</v>
       </c>
       <c r="X44" t="n">
-        <v>241.7043690596376</v>
+        <v>241.7043690596377</v>
       </c>
       <c r="Y44" t="n">
-        <v>241.7043690596376</v>
+        <v>241.7043690596377</v>
       </c>
     </row>
     <row r="45">
@@ -30773,13 +30773,13 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>0</v>
+        <v>176.7504943976657</v>
       </c>
       <c r="C45" t="n">
         <v>187.5181515243659</v>
       </c>
       <c r="D45" t="n">
-        <v>159.1723150765785</v>
+        <v>0</v>
       </c>
       <c r="E45" t="n">
         <v>171.8275718397997</v>
@@ -30788,7 +30788,7 @@
         <v>158.8234391199283</v>
       </c>
       <c r="G45" t="n">
-        <v>85.48671008861665</v>
+        <v>148.7542444118752</v>
       </c>
       <c r="H45" t="n">
         <v>125.8286260849892</v>
@@ -30797,7 +30797,7 @@
         <v>107.6953116922337</v>
       </c>
       <c r="J45" t="n">
-        <v>53.38593305174641</v>
+        <v>53.38593305174648</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
@@ -30818,31 +30818,31 @@
         <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>8.099985407837664</v>
       </c>
       <c r="R45" t="n">
-        <v>135.3183225070107</v>
+        <v>135.3183225070108</v>
       </c>
       <c r="S45" t="n">
         <v>191.7698489263512</v>
       </c>
       <c r="T45" t="n">
-        <v>215.0097793174697</v>
+        <v>0</v>
       </c>
       <c r="U45" t="n">
         <v>237.2287037032865</v>
       </c>
       <c r="V45" t="n">
-        <v>0</v>
+        <v>240.6489209154022</v>
       </c>
       <c r="W45" t="n">
-        <v>241.7043690596376</v>
+        <v>6.1142892987599</v>
       </c>
       <c r="X45" t="n">
         <v>217.3129144394706</v>
       </c>
       <c r="Y45" t="n">
-        <v>0</v>
+        <v>121.0052391107626</v>
       </c>
     </row>
     <row r="46">
@@ -30876,25 +30876,25 @@
         <v>165.096009822084</v>
       </c>
       <c r="J46" t="n">
-        <v>120.8109908119849</v>
+        <v>120.810990811985</v>
       </c>
       <c r="K46" t="n">
-        <v>67.96893830655412</v>
+        <v>67.96893830655419</v>
       </c>
       <c r="L46" t="n">
-        <v>33.35335943042249</v>
+        <v>134.3263345236463</v>
       </c>
       <c r="M46" t="n">
-        <v>26.4837242157839</v>
+        <v>26.48372421578399</v>
       </c>
       <c r="N46" t="n">
-        <v>17.75689311507482</v>
+        <v>17.75689311507491</v>
       </c>
       <c r="O46" t="n">
-        <v>139.5941847237219</v>
+        <v>38.62120963049814</v>
       </c>
       <c r="P46" t="n">
-        <v>59.45605582189305</v>
+        <v>59.45605582189312</v>
       </c>
       <c r="Q46" t="n">
         <v>127.8937264706995</v>
@@ -30906,16 +30906,16 @@
         <v>235.5788880912852</v>
       </c>
       <c r="T46" t="n">
-        <v>223.7960897757268</v>
+        <v>223.7960897757269</v>
       </c>
       <c r="U46" t="n">
-        <v>241.7043690596376</v>
+        <v>241.7043690596377</v>
       </c>
       <c r="V46" t="n">
-        <v>241.7043690596376</v>
+        <v>241.7043690596377</v>
       </c>
       <c r="W46" t="n">
-        <v>241.7043690596376</v>
+        <v>241.7043690596377</v>
       </c>
       <c r="X46" t="n">
         <v>221.9194554082425</v>
@@ -34120,49 +34120,49 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>0.3887021461863346</v>
+        <v>0.3887021461863344</v>
       </c>
       <c r="H41" t="n">
-        <v>3.9807958546308</v>
+        <v>3.980795854630799</v>
       </c>
       <c r="I41" t="n">
-        <v>14.98543949084868</v>
+        <v>14.98543949084867</v>
       </c>
       <c r="J41" t="n">
-        <v>32.99060877988245</v>
+        <v>32.99060877988244</v>
       </c>
       <c r="K41" t="n">
-        <v>49.44437062795</v>
+        <v>49.44437062794998</v>
       </c>
       <c r="L41" t="n">
-        <v>61.34011393430005</v>
+        <v>61.34011393430003</v>
       </c>
       <c r="M41" t="n">
-        <v>68.25269572654128</v>
+        <v>68.25269572654125</v>
       </c>
       <c r="N41" t="n">
-        <v>69.35709569939321</v>
+        <v>69.35709569939317</v>
       </c>
       <c r="O41" t="n">
-        <v>65.49193873325284</v>
+        <v>65.49193873325281</v>
       </c>
       <c r="P41" t="n">
-        <v>55.8958544992777</v>
+        <v>55.89585449927767</v>
       </c>
       <c r="Q41" t="n">
-        <v>41.97545888897957</v>
+        <v>41.97545888897955</v>
       </c>
       <c r="R41" t="n">
-        <v>24.41681119037736</v>
+        <v>24.41681119037735</v>
       </c>
       <c r="S41" t="n">
-        <v>8.857550156221109</v>
+        <v>8.857550156221105</v>
       </c>
       <c r="T41" t="n">
-        <v>1.701543644930681</v>
+        <v>1.70154364493068</v>
       </c>
       <c r="U41" t="n">
-        <v>0.03109617169490676</v>
+        <v>0.03109617169490675</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34199,49 +34199,49 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>0.2079739832165848</v>
+        <v>0.2079739832165847</v>
       </c>
       <c r="H42" t="n">
-        <v>2.008590837907543</v>
+        <v>2.008590837907542</v>
       </c>
       <c r="I42" t="n">
-        <v>7.160507755483292</v>
+        <v>7.160507755483289</v>
       </c>
       <c r="J42" t="n">
-        <v>19.64898058100199</v>
+        <v>19.64898058100198</v>
       </c>
       <c r="K42" t="n">
-        <v>33.58323745651317</v>
+        <v>33.58323745651315</v>
       </c>
       <c r="L42" t="n">
-        <v>45.1568071891975</v>
+        <v>45.15680718919748</v>
       </c>
       <c r="M42" t="n">
-        <v>52.69586408079869</v>
+        <v>52.69586408079866</v>
       </c>
       <c r="N42" t="n">
-        <v>54.09056680158009</v>
+        <v>54.09056680158007</v>
       </c>
       <c r="O42" t="n">
-        <v>49.48230117346523</v>
+        <v>49.48230117346521</v>
       </c>
       <c r="P42" t="n">
-        <v>39.71390912843714</v>
+        <v>39.71390912843712</v>
       </c>
       <c r="Q42" t="n">
-        <v>26.54769652427844</v>
+        <v>26.54769652427843</v>
       </c>
       <c r="R42" t="n">
         <v>12.91263029128936</v>
       </c>
       <c r="S42" t="n">
-        <v>3.863025521588754</v>
+        <v>3.863025521588752</v>
       </c>
       <c r="T42" t="n">
-        <v>0.8382810990177251</v>
+        <v>0.8382810990177247</v>
       </c>
       <c r="U42" t="n">
-        <v>0.01368249889582795</v>
+        <v>0.01368249889582794</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34278,49 +34278,49 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0.1743584012298949</v>
+        <v>0.1743584012298948</v>
       </c>
       <c r="H43" t="n">
         <v>1.550204694571248</v>
       </c>
       <c r="I43" t="n">
-        <v>5.243432647895386</v>
+        <v>5.243432647895384</v>
       </c>
       <c r="J43" t="n">
-        <v>12.32713896695357</v>
+        <v>12.32713896695356</v>
       </c>
       <c r="K43" t="n">
-        <v>20.25727607016415</v>
+        <v>20.25727607016414</v>
       </c>
       <c r="L43" t="n">
-        <v>25.92233903376092</v>
+        <v>25.92233903376091</v>
       </c>
       <c r="M43" t="n">
-        <v>27.33147193097343</v>
+        <v>27.33147193097341</v>
       </c>
       <c r="N43" t="n">
-        <v>26.68159061729839</v>
+        <v>26.68159061729838</v>
       </c>
       <c r="O43" t="n">
-        <v>24.64476747565824</v>
+        <v>24.64476747565823</v>
       </c>
       <c r="P43" t="n">
-        <v>21.08785609056837</v>
+        <v>21.08785609056836</v>
       </c>
       <c r="Q43" t="n">
-        <v>14.60013848844147</v>
+        <v>14.60013848844146</v>
       </c>
       <c r="R43" t="n">
-        <v>7.839787749845999</v>
+        <v>7.839787749845995</v>
       </c>
       <c r="S43" t="n">
-        <v>3.038591410524622</v>
+        <v>3.03859141052462</v>
       </c>
       <c r="T43" t="n">
-        <v>0.7449858961640962</v>
+        <v>0.7449858961640958</v>
       </c>
       <c r="U43" t="n">
-        <v>0.009510458248903368</v>
+        <v>0.009510458248903364</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,49 +34357,49 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>0.3887021461863353</v>
+        <v>0.388702146186334</v>
       </c>
       <c r="H44" t="n">
-        <v>3.980795854630808</v>
+        <v>3.980795854630794</v>
       </c>
       <c r="I44" t="n">
-        <v>14.98543949084871</v>
+        <v>14.98543949084866</v>
       </c>
       <c r="J44" t="n">
-        <v>32.99060877988251</v>
+        <v>32.99060877988239</v>
       </c>
       <c r="K44" t="n">
-        <v>49.44437062795009</v>
+        <v>49.44437062794992</v>
       </c>
       <c r="L44" t="n">
-        <v>61.34011393430016</v>
+        <v>61.34011393429995</v>
       </c>
       <c r="M44" t="n">
-        <v>68.2526957265414</v>
+        <v>68.25269572654116</v>
       </c>
       <c r="N44" t="n">
-        <v>69.35709569939333</v>
+        <v>69.3570956993931</v>
       </c>
       <c r="O44" t="n">
-        <v>65.49193873325295</v>
+        <v>65.49193873325274</v>
       </c>
       <c r="P44" t="n">
-        <v>55.89585449927779</v>
+        <v>55.8958544992776</v>
       </c>
       <c r="Q44" t="n">
-        <v>41.97545888897965</v>
+        <v>41.9754588889795</v>
       </c>
       <c r="R44" t="n">
-        <v>24.41681119037741</v>
+        <v>24.41681119037732</v>
       </c>
       <c r="S44" t="n">
-        <v>8.857550156221125</v>
+        <v>8.857550156221095</v>
       </c>
       <c r="T44" t="n">
-        <v>1.701543644930684</v>
+        <v>1.701543644930678</v>
       </c>
       <c r="U44" t="n">
-        <v>0.03109617169490682</v>
+        <v>0.03109617169490671</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34436,49 +34436,49 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>0.2079739832165851</v>
+        <v>0.2079739832165844</v>
       </c>
       <c r="H45" t="n">
-        <v>2.008590837907546</v>
+        <v>2.008590837907539</v>
       </c>
       <c r="I45" t="n">
-        <v>7.160507755483305</v>
+        <v>7.16050775548328</v>
       </c>
       <c r="J45" t="n">
-        <v>19.64898058100202</v>
+        <v>19.64898058100195</v>
       </c>
       <c r="K45" t="n">
-        <v>33.58323745651322</v>
+        <v>33.58323745651311</v>
       </c>
       <c r="L45" t="n">
-        <v>45.15680718919758</v>
+        <v>45.15680718919742</v>
       </c>
       <c r="M45" t="n">
-        <v>52.69586408079878</v>
+        <v>52.6958640807986</v>
       </c>
       <c r="N45" t="n">
-        <v>54.09056680158019</v>
+        <v>54.09056680158</v>
       </c>
       <c r="O45" t="n">
-        <v>49.48230117346532</v>
+        <v>49.48230117346515</v>
       </c>
       <c r="P45" t="n">
-        <v>39.71390912843721</v>
+        <v>39.71390912843708</v>
       </c>
       <c r="Q45" t="n">
-        <v>26.54769652427848</v>
+        <v>26.54769652427839</v>
       </c>
       <c r="R45" t="n">
-        <v>12.91263029128939</v>
+        <v>12.91263029128934</v>
       </c>
       <c r="S45" t="n">
-        <v>3.863025521588761</v>
+        <v>3.863025521588748</v>
       </c>
       <c r="T45" t="n">
-        <v>0.8382810990177266</v>
+        <v>0.8382810990177237</v>
       </c>
       <c r="U45" t="n">
-        <v>0.01368249889582797</v>
+        <v>0.01368249889582793</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34515,49 +34515,49 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0.1743584012298952</v>
+        <v>0.1743584012298946</v>
       </c>
       <c r="H46" t="n">
-        <v>1.550204694571251</v>
+        <v>1.550204694571246</v>
       </c>
       <c r="I46" t="n">
-        <v>5.243432647895395</v>
+        <v>5.243432647895378</v>
       </c>
       <c r="J46" t="n">
-        <v>12.32713896695359</v>
+        <v>12.32713896695355</v>
       </c>
       <c r="K46" t="n">
-        <v>20.25727607016418</v>
+        <v>20.25727607016411</v>
       </c>
       <c r="L46" t="n">
-        <v>25.92233903376097</v>
+        <v>25.92233903376088</v>
       </c>
       <c r="M46" t="n">
-        <v>27.33147193097347</v>
+        <v>27.33147193097338</v>
       </c>
       <c r="N46" t="n">
-        <v>26.68159061729843</v>
+        <v>26.68159061729834</v>
       </c>
       <c r="O46" t="n">
-        <v>24.64476747565828</v>
+        <v>24.6447674756582</v>
       </c>
       <c r="P46" t="n">
-        <v>21.0878560905684</v>
+        <v>21.08785609056833</v>
       </c>
       <c r="Q46" t="n">
-        <v>14.6001384884415</v>
+        <v>14.60013848844145</v>
       </c>
       <c r="R46" t="n">
-        <v>7.839787749846013</v>
+        <v>7.839787749845986</v>
       </c>
       <c r="S46" t="n">
-        <v>3.038591410524627</v>
+        <v>3.038591410524617</v>
       </c>
       <c r="T46" t="n">
-        <v>0.7449858961640975</v>
+        <v>0.7449858961640949</v>
       </c>
       <c r="U46" t="n">
-        <v>0.009510458248903385</v>
+        <v>0.009510458248903352</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -35407,31 +35407,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>122.7250908621651</v>
       </c>
       <c r="K11" t="n">
-        <v>31.63432052991778</v>
+        <v>185.0425080291151</v>
       </c>
       <c r="L11" t="n">
-        <v>185.0425080291152</v>
+        <v>44.34955469960746</v>
       </c>
       <c r="M11" t="n">
-        <v>185.0425080291152</v>
+        <v>78.51506089262401</v>
       </c>
       <c r="N11" t="n">
-        <v>185.0425080291152</v>
+        <v>72.87396513051797</v>
       </c>
       <c r="O11" t="n">
-        <v>31.53063825705398</v>
+        <v>185.0425080291151</v>
       </c>
       <c r="P11" t="n">
         <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>109.3785101631053</v>
+        <v>44.14487950244239</v>
       </c>
       <c r="R11" t="n">
-        <v>5.02257410816474</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35495,10 +35495,10 @@
         <v>116.4250076143925</v>
       </c>
       <c r="M12" t="n">
-        <v>181.0692240059363</v>
+        <v>181.0692240059361</v>
       </c>
       <c r="N12" t="n">
-        <v>185.0425080291152</v>
+        <v>185.0425080291151</v>
       </c>
       <c r="O12" t="n">
         <v>130.7376658425638</v>
@@ -35541,7 +35541,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>23.41895830836785</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -35550,7 +35550,7 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>59.35973776111095</v>
+        <v>59.35973776111112</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -35565,16 +35565,16 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>80.22488816135115</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
       </c>
       <c r="L13" t="n">
-        <v>0</v>
+        <v>167.6825195429136</v>
       </c>
       <c r="M13" t="n">
-        <v>100.1172920461406</v>
+        <v>17.20866580168503</v>
       </c>
       <c r="N13" t="n">
         <v>0</v>
@@ -35583,7 +35583,7 @@
         <v>0</v>
       </c>
       <c r="P13" t="n">
-        <v>141.5798231514428</v>
+        <v>0</v>
       </c>
       <c r="Q13" t="n">
         <v>0</v>
@@ -35644,22 +35644,22 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>122.7250908621649</v>
       </c>
       <c r="K14" t="n">
-        <v>0</v>
+        <v>117.0188446329605</v>
       </c>
       <c r="L14" t="n">
-        <v>185.0425080291152</v>
+        <v>44.34955469960746</v>
       </c>
       <c r="M14" t="n">
-        <v>185.0425080291152</v>
+        <v>78.51506089262401</v>
       </c>
       <c r="N14" t="n">
-        <v>185.0425080291152</v>
+        <v>185.0425080291151</v>
       </c>
       <c r="O14" t="n">
-        <v>172.5434689500772</v>
+        <v>185.0425080291151</v>
       </c>
       <c r="P14" t="n">
         <v>0</v>
@@ -35668,7 +35668,7 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>5.022574108164797</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35735,13 +35735,13 @@
         <v>181.0692240059363</v>
       </c>
       <c r="N15" t="n">
-        <v>185.0425080291152</v>
+        <v>185.0425080291151</v>
       </c>
       <c r="O15" t="n">
         <v>130.7376658425638</v>
       </c>
       <c r="P15" t="n">
-        <v>82.62900616163361</v>
+        <v>82.62900616163351</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
@@ -35793,7 +35793,7 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>32.32702224662093</v>
+        <v>32.32702224662087</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -35802,16 +35802,16 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>80.22488816135103</v>
+        <v>0</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
       </c>
       <c r="L16" t="n">
-        <v>167.6825195429135</v>
+        <v>150.5689658689986</v>
       </c>
       <c r="M16" t="n">
-        <v>44.2413813161764</v>
+        <v>0</v>
       </c>
       <c r="N16" t="n">
         <v>0</v>
@@ -35820,7 +35820,7 @@
         <v>0</v>
       </c>
       <c r="P16" t="n">
-        <v>0</v>
+        <v>141.5798231514428</v>
       </c>
       <c r="Q16" t="n">
         <v>0</v>
@@ -35881,10 +35881,10 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>185.0425080291152</v>
+        <v>185.0425080291151</v>
       </c>
       <c r="K17" t="n">
-        <v>0</v>
+        <v>185.0425080291151</v>
       </c>
       <c r="L17" t="n">
         <v>44.34955469960746</v>
@@ -35896,25 +35896,25 @@
         <v>72.87396513051797</v>
       </c>
       <c r="O17" t="n">
-        <v>64.19811812940279</v>
+        <v>31.53063825705398</v>
       </c>
       <c r="P17" t="n">
-        <v>185.0425080291152</v>
+        <v>10.66575151337049</v>
       </c>
       <c r="Q17" t="n">
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>102.6718522352049</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>76.14040634531874</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>48.53317424886421</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -35972,13 +35972,13 @@
         <v>181.0692240059363</v>
       </c>
       <c r="N18" t="n">
-        <v>185.0425080291152</v>
+        <v>185.0425080291151</v>
       </c>
       <c r="O18" t="n">
         <v>130.7376658425638</v>
       </c>
       <c r="P18" t="n">
-        <v>82.62900616163361</v>
+        <v>82.62900616163351</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
@@ -36118,13 +36118,13 @@
         <v>56.98078804073847</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>160.7291998607252</v>
       </c>
       <c r="K20" t="n">
-        <v>185.0425080291152</v>
+        <v>185.0425080291151</v>
       </c>
       <c r="L20" t="n">
-        <v>185.0425080291152</v>
+        <v>44.34955469960746</v>
       </c>
       <c r="M20" t="n">
         <v>78.51506089262401</v>
@@ -36133,7 +36133,7 @@
         <v>72.87396513051797</v>
       </c>
       <c r="O20" t="n">
-        <v>78.09833067815798</v>
+        <v>31.53063825705398</v>
       </c>
       <c r="P20" t="n">
         <v>0</v>
@@ -36142,13 +36142,13 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>102.6718522352049</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>76.14040634531874</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
         <v>0</v>
@@ -36203,13 +36203,13 @@
         <v>36.79015549194616</v>
       </c>
       <c r="L21" t="n">
-        <v>116.4250076143925</v>
+        <v>116.4250076143924</v>
       </c>
       <c r="M21" t="n">
         <v>181.0692240059363</v>
       </c>
       <c r="N21" t="n">
-        <v>185.0425080291153</v>
+        <v>185.0425080291151</v>
       </c>
       <c r="O21" t="n">
         <v>130.7376658425638</v>
@@ -36352,28 +36352,28 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>24.62826542180578</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
       </c>
       <c r="K23" t="n">
-        <v>185.0425080291152</v>
+        <v>0</v>
       </c>
       <c r="L23" t="n">
-        <v>185.0425080291152</v>
+        <v>44.34955469960746</v>
       </c>
       <c r="M23" t="n">
         <v>185.0425080291152</v>
       </c>
       <c r="N23" t="n">
-        <v>72.87396513051797</v>
+        <v>185.0425080291152</v>
       </c>
       <c r="O23" t="n">
         <v>31.53063825705398</v>
       </c>
       <c r="P23" t="n">
-        <v>0</v>
+        <v>139.8303513068387</v>
       </c>
       <c r="Q23" t="n">
         <v>0</v>
@@ -36382,13 +36382,13 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>70.75760047853821</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>76.14040634531874</v>
       </c>
       <c r="U23" t="n">
-        <v>48.53317424886421</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -36592,31 +36592,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>136.1269834459719</v>
+        <v>136.1269834459717</v>
       </c>
       <c r="K26" t="n">
-        <v>205.4187512563313</v>
+        <v>205.4187512563311</v>
       </c>
       <c r="L26" t="n">
-        <v>258.7873262567504</v>
+        <v>258.7873262567501</v>
       </c>
       <c r="M26" t="n">
-        <v>292.9528324497669</v>
+        <v>292.9528324497667</v>
       </c>
       <c r="N26" t="n">
-        <v>287.3117366876609</v>
+        <v>287.3117366876606</v>
       </c>
       <c r="O26" t="n">
-        <v>245.9684098141969</v>
+        <v>245.9684098141967</v>
       </c>
       <c r="P26" t="n">
-        <v>196.7549341301125</v>
+        <v>196.7549341301143</v>
       </c>
       <c r="Q26" t="n">
-        <v>122.7804027469123</v>
+        <v>122.7804027469121</v>
       </c>
       <c r="R26" t="n">
-        <v>18.4244666919717</v>
+        <v>18.4244666919715</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36729,7 +36729,7 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>47.98059058517035</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
@@ -36741,10 +36741,10 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>22.98201084844612</v>
       </c>
       <c r="H28" t="n">
-        <v>48.54151935727427</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -36759,7 +36759,7 @@
         <v>0</v>
       </c>
       <c r="M28" t="n">
-        <v>177.4027978115904</v>
+        <v>0</v>
       </c>
       <c r="N28" t="n">
         <v>0</v>
@@ -36768,7 +36768,7 @@
         <v>0</v>
       </c>
       <c r="P28" t="n">
-        <v>0</v>
+        <v>154.9817157352496</v>
       </c>
       <c r="Q28" t="n">
         <v>0</v>
@@ -36838,10 +36838,10 @@
         <v>258.7873262567503</v>
       </c>
       <c r="M29" t="n">
-        <v>292.9528324497668</v>
+        <v>292.9528324497669</v>
       </c>
       <c r="N29" t="n">
-        <v>287.3117366876608</v>
+        <v>287.3117366876609</v>
       </c>
       <c r="O29" t="n">
         <v>245.9684098141968</v>
@@ -36850,10 +36850,10 @@
         <v>196.7549341301124</v>
       </c>
       <c r="Q29" t="n">
-        <v>122.7804027469122</v>
+        <v>122.7804027469123</v>
       </c>
       <c r="R29" t="n">
-        <v>18.42446669197164</v>
+        <v>18.42446669197167</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36966,10 +36966,10 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>27.34584652269414</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>37.99026982750597</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
@@ -37011,7 +37011,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>10.64442330481207</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -37075,10 +37075,10 @@
         <v>258.7873262567503</v>
       </c>
       <c r="M32" t="n">
-        <v>292.9528324497669</v>
+        <v>292.9528324497674</v>
       </c>
       <c r="N32" t="n">
-        <v>287.3117366876609</v>
+        <v>287.3117366876608</v>
       </c>
       <c r="O32" t="n">
         <v>245.9684098141968</v>
@@ -37087,10 +37087,10 @@
         <v>196.7549341301124</v>
       </c>
       <c r="Q32" t="n">
-        <v>122.7804027469123</v>
+        <v>122.7804027469122</v>
       </c>
       <c r="R32" t="n">
-        <v>18.42446669197165</v>
+        <v>18.42446669197164</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37200,7 +37200,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>36.82085089217478</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
@@ -37221,7 +37221,7 @@
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>49.34176173505883</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -37230,13 +37230,13 @@
         <v>0</v>
       </c>
       <c r="L34" t="n">
-        <v>139.7817045416313</v>
+        <v>0</v>
       </c>
       <c r="M34" t="n">
-        <v>0</v>
+        <v>29.26343872679715</v>
       </c>
       <c r="N34" t="n">
-        <v>0</v>
+        <v>196.680878442068</v>
       </c>
       <c r="O34" t="n">
         <v>0</v>
@@ -37303,25 +37303,25 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>193.7211100005097</v>
       </c>
       <c r="K35" t="n">
-        <v>130.9352867796487</v>
+        <v>0</v>
       </c>
       <c r="L35" t="n">
         <v>44.34955469960746</v>
       </c>
       <c r="M35" t="n">
-        <v>260.5902942782516</v>
+        <v>260.5902942782517</v>
       </c>
       <c r="N35" t="n">
-        <v>260.5902942782516</v>
+        <v>260.5902942782517</v>
       </c>
       <c r="O35" t="n">
-        <v>31.53063825705398</v>
+        <v>178.9895342310008</v>
       </c>
       <c r="P35" t="n">
-        <v>254.3490606846503</v>
+        <v>0</v>
       </c>
       <c r="Q35" t="n">
         <v>0</v>
@@ -37330,7 +37330,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>44.10434148984284</v>
       </c>
       <c r="T35" t="n">
         <v>49.48714735662337</v>
@@ -37467,16 +37467,16 @@
         <v>0</v>
       </c>
       <c r="L37" t="n">
+        <v>0</v>
+      </c>
+      <c r="M37" t="n">
+        <v>0</v>
+      </c>
+      <c r="N37" t="n">
+        <v>0</v>
+      </c>
+      <c r="O37" t="n">
         <v>35.61259938778712</v>
-      </c>
-      <c r="M37" t="n">
-        <v>0</v>
-      </c>
-      <c r="N37" t="n">
-        <v>0</v>
-      </c>
-      <c r="O37" t="n">
-        <v>0</v>
       </c>
       <c r="P37" t="n">
         <v>0</v>
@@ -37546,16 +37546,16 @@
         <v>0</v>
       </c>
       <c r="L38" t="n">
-        <v>260.5902942782516</v>
+        <v>260.5902942782517</v>
       </c>
       <c r="M38" t="n">
-        <v>260.5902942782516</v>
+        <v>260.5902942782517</v>
       </c>
       <c r="N38" t="n">
-        <v>72.87396513051797</v>
+        <v>183.7053478511851</v>
       </c>
       <c r="O38" t="n">
-        <v>66.34342773121145</v>
+        <v>31.53063825705398</v>
       </c>
       <c r="P38" t="n">
         <v>0</v>
@@ -37564,7 +37564,7 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>76.01859324650954</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37719,7 +37719,7 @@
         <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>0</v>
+        <v>35.61259938778712</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37734,7 +37734,7 @@
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>18.64994284017406</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
@@ -37743,7 +37743,7 @@
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>16.96265654761305</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -37783,31 +37783,31 @@
         <v>0</v>
       </c>
       <c r="L41" t="n">
-        <v>260.5902942782516</v>
+        <v>260.5902942782517</v>
       </c>
       <c r="M41" t="n">
-        <v>78.51506089262404</v>
+        <v>78.51506089262401</v>
       </c>
       <c r="N41" t="n">
-        <v>222.6217500032868</v>
+        <v>260.5902942782517</v>
       </c>
       <c r="O41" t="n">
-        <v>260.5902942782516</v>
+        <v>129.4876003155063</v>
       </c>
       <c r="P41" t="n">
-        <v>0</v>
+        <v>224.0215316326072</v>
       </c>
       <c r="Q41" t="n">
-        <v>150.047000249407</v>
+        <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>45.69106419446641</v>
+        <v>45.69106419446643</v>
       </c>
       <c r="S41" t="n">
-        <v>13.77681243779971</v>
+        <v>13.77681243779973</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>19.15961830458026</v>
       </c>
       <c r="U41" t="n">
         <v>0</v>
@@ -37859,7 +37859,7 @@
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>36.79015549194617</v>
+        <v>36.79015549194616</v>
       </c>
       <c r="L42" t="n">
         <v>116.4250076143925</v>
@@ -37874,7 +37874,7 @@
         <v>130.7376658425638</v>
       </c>
       <c r="P42" t="n">
-        <v>82.62900616163353</v>
+        <v>82.62900616163351</v>
       </c>
       <c r="Q42" t="n">
         <v>0</v>
@@ -37914,10 +37914,10 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>75.24718808766525</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>25.72578700555863</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
@@ -37947,7 +37947,7 @@
         <v>0</v>
       </c>
       <c r="N43" t="n">
-        <v>0</v>
+        <v>100.9729750932238</v>
       </c>
       <c r="O43" t="n">
         <v>0</v>
@@ -38014,34 +38014,34 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>163.3935809484666</v>
+        <v>0</v>
       </c>
       <c r="K44" t="n">
-        <v>232.6853487588262</v>
+        <v>232.6853487588261</v>
       </c>
       <c r="L44" t="n">
-        <v>44.34955469960759</v>
+        <v>44.34955469960738</v>
       </c>
       <c r="M44" t="n">
-        <v>260.5902942782516</v>
+        <v>78.51506089262392</v>
       </c>
       <c r="N44" t="n">
-        <v>72.87396513051813</v>
+        <v>211.2152652116961</v>
       </c>
       <c r="O44" t="n">
-        <v>244.1627200806172</v>
+        <v>31.53063825705391</v>
       </c>
       <c r="P44" t="n">
-        <v>0</v>
+        <v>224.0215316326072</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>150.047000249407</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>45.69106419446643</v>
       </c>
       <c r="S44" t="n">
-        <v>13.77681243779972</v>
+        <v>13.77681243779975</v>
       </c>
       <c r="T44" t="n">
         <v>0</v>
@@ -38096,22 +38096,22 @@
         <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>36.79015549194623</v>
+        <v>36.79015549194612</v>
       </c>
       <c r="L45" t="n">
-        <v>116.4250076143926</v>
+        <v>116.4250076143925</v>
       </c>
       <c r="M45" t="n">
-        <v>181.0692240059364</v>
+        <v>181.0692240059362</v>
       </c>
       <c r="N45" t="n">
-        <v>204.4675366345362</v>
+        <v>204.467536634536</v>
       </c>
       <c r="O45" t="n">
-        <v>130.7376658425639</v>
+        <v>130.7376658425637</v>
       </c>
       <c r="P45" t="n">
-        <v>82.6290061616336</v>
+        <v>82.62900616163347</v>
       </c>
       <c r="Q45" t="n">
         <v>0</v>
@@ -38178,7 +38178,7 @@
         <v>0</v>
       </c>
       <c r="L46" t="n">
-        <v>0</v>
+        <v>100.9729750932237</v>
       </c>
       <c r="M46" t="n">
         <v>0</v>
@@ -38187,7 +38187,7 @@
         <v>0</v>
       </c>
       <c r="O46" t="n">
-        <v>100.9729750932239</v>
+        <v>0</v>
       </c>
       <c r="P46" t="n">
         <v>0</v>
